--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>546800</v>
+        <v>533100</v>
       </c>
       <c r="E8" s="3">
-        <v>565900</v>
+        <v>544300</v>
       </c>
       <c r="F8" s="3">
-        <v>568200</v>
+        <v>551600</v>
       </c>
       <c r="G8" s="3">
-        <v>611800</v>
+        <v>570900</v>
       </c>
       <c r="H8" s="3">
-        <v>609100</v>
+        <v>573200</v>
       </c>
       <c r="I8" s="3">
+        <v>617200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>614400</v>
+      </c>
+      <c r="K8" s="3">
         <v>635700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>644900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>692800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>701400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>717600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>709200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>735200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1052,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-38800</v>
+        <v>-41600</v>
       </c>
       <c r="E15" s="3">
-        <v>-40300</v>
+        <v>-41300</v>
       </c>
       <c r="F15" s="3">
-        <v>-38600</v>
+        <v>-39100</v>
       </c>
       <c r="G15" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="M15" s="3">
         <v>-28500</v>
       </c>
-      <c r="H15" s="3">
-        <v>-56900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-54800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-27300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-27600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-27100</v>
       </c>
       <c r="P15" s="3">
         <v>-28500</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-28500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>416600</v>
+        <v>461400</v>
       </c>
       <c r="E17" s="3">
-        <v>418800</v>
+        <v>393400</v>
       </c>
       <c r="F17" s="3">
-        <v>383700</v>
+        <v>420200</v>
       </c>
       <c r="G17" s="3">
-        <v>931300</v>
+        <v>422500</v>
       </c>
       <c r="H17" s="3">
-        <v>484900</v>
+        <v>387100</v>
       </c>
       <c r="I17" s="3">
+        <v>939400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>489200</v>
+      </c>
+      <c r="K17" s="3">
         <v>523500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>533900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>428200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>489700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>406900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>444700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>542300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>130200</v>
+        <v>71700</v>
       </c>
       <c r="E18" s="3">
-        <v>147100</v>
+        <v>150900</v>
       </c>
       <c r="F18" s="3">
-        <v>184500</v>
+        <v>131400</v>
       </c>
       <c r="G18" s="3">
-        <v>-319500</v>
+        <v>148400</v>
       </c>
       <c r="H18" s="3">
-        <v>124100</v>
+        <v>186100</v>
       </c>
       <c r="I18" s="3">
+        <v>-322300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K18" s="3">
         <v>112300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>111000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>264600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>211600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>310700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>264500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>192900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-107600</v>
+        <v>-82100</v>
       </c>
       <c r="E20" s="3">
-        <v>-72400</v>
+        <v>-144800</v>
       </c>
       <c r="F20" s="3">
-        <v>-128400</v>
+        <v>-108500</v>
       </c>
       <c r="G20" s="3">
-        <v>-177700</v>
+        <v>-73000</v>
       </c>
       <c r="H20" s="3">
-        <v>-57900</v>
+        <v>-129600</v>
       </c>
       <c r="I20" s="3">
+        <v>-179700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-118800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>9300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-362000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-125100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-199100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-180000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-267300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>64700</v>
+        <v>32100</v>
       </c>
       <c r="E21" s="3">
-        <v>116300</v>
+        <v>61600</v>
       </c>
       <c r="F21" s="3">
-        <v>94900</v>
+        <v>65200</v>
       </c>
       <c r="G21" s="3">
-        <v>-425700</v>
+        <v>117300</v>
       </c>
       <c r="H21" s="3">
-        <v>95400</v>
+        <v>95700</v>
       </c>
       <c r="I21" s="3">
+        <v>-429900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>96300</v>
+      </c>
+      <c r="K21" s="3">
         <v>29400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>147800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>16700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>114500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>140100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>117000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>20300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22600</v>
+        <v>-10400</v>
       </c>
       <c r="E23" s="3">
-        <v>74700</v>
+        <v>6000</v>
       </c>
       <c r="F23" s="3">
-        <v>56000</v>
+        <v>22800</v>
       </c>
       <c r="G23" s="3">
-        <v>-497100</v>
+        <v>75400</v>
       </c>
       <c r="H23" s="3">
-        <v>66200</v>
+        <v>56500</v>
       </c>
       <c r="I23" s="3">
+        <v>-501900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>120300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-97300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>86500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>111600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>84500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-74400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17500</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>26100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-501100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>51400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>48500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>46600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>32200</v>
+      </c>
+      <c r="P24" s="3">
+        <v>31500</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="R24" s="3">
         <v>9500</v>
       </c>
-      <c r="F24" s="3">
-        <v>25900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-496800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>51400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>48500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>46600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>32200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>31500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-72500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5100</v>
+        <v>-12000</v>
       </c>
       <c r="E26" s="3">
-        <v>65200</v>
+        <v>6200</v>
       </c>
       <c r="F26" s="3">
-        <v>30200</v>
+        <v>5200</v>
       </c>
       <c r="G26" s="3">
-        <v>-400</v>
+        <v>65800</v>
       </c>
       <c r="H26" s="3">
-        <v>45200</v>
+        <v>30400</v>
       </c>
       <c r="I26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-58000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>71800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-71800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>39900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>79400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>53000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="3">
         <v>5300</v>
       </c>
-      <c r="E27" s="3">
-        <v>65200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>30200</v>
-      </c>
       <c r="G27" s="3">
-        <v>-500</v>
+        <v>65800</v>
       </c>
       <c r="H27" s="3">
-        <v>45200</v>
+        <v>30400</v>
       </c>
       <c r="I27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-58000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>71900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-71800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>39900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>79400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>53000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,8 +1715,8 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1607,19 +1728,25 @@
         <v>5</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-77800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>25500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>107600</v>
+        <v>82100</v>
       </c>
       <c r="E32" s="3">
-        <v>72400</v>
+        <v>144800</v>
       </c>
       <c r="F32" s="3">
-        <v>128400</v>
+        <v>108500</v>
       </c>
       <c r="G32" s="3">
-        <v>177700</v>
+        <v>73000</v>
       </c>
       <c r="H32" s="3">
-        <v>57900</v>
+        <v>129600</v>
       </c>
       <c r="I32" s="3">
+        <v>179700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K32" s="3">
         <v>118800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-9300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>362000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>125100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>199100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>180000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>267300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F33" s="3">
         <v>5300</v>
       </c>
-      <c r="E33" s="3">
-        <v>65200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>30200</v>
-      </c>
       <c r="G33" s="3">
-        <v>-500</v>
+        <v>65800</v>
       </c>
       <c r="H33" s="3">
-        <v>45200</v>
+        <v>30400</v>
       </c>
       <c r="I33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-58000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>71900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-71800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>39900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>54000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>23600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="3">
         <v>5300</v>
       </c>
-      <c r="E35" s="3">
-        <v>65200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>30200</v>
-      </c>
       <c r="G35" s="3">
-        <v>-500</v>
+        <v>65800</v>
       </c>
       <c r="H35" s="3">
-        <v>45200</v>
+        <v>30400</v>
       </c>
       <c r="I35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-58000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>71900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-71800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>39900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>54000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>23600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4879200</v>
+        <v>8174800</v>
       </c>
       <c r="E41" s="3">
-        <v>5841200</v>
+        <v>5937900</v>
       </c>
       <c r="F41" s="3">
-        <v>4734400</v>
+        <v>4921800</v>
       </c>
       <c r="G41" s="3">
-        <v>4862700</v>
+        <v>5892200</v>
       </c>
       <c r="H41" s="3">
-        <v>4943200</v>
+        <v>4775800</v>
       </c>
       <c r="I41" s="3">
+        <v>4905200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4986500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3912100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3816300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3713200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3312200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3375300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3587700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4089400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1393500</v>
+        <v>1340400</v>
       </c>
       <c r="E42" s="3">
-        <v>1139200</v>
+        <v>1200100</v>
       </c>
       <c r="F42" s="3">
-        <v>938800</v>
+        <v>1405700</v>
       </c>
       <c r="G42" s="3">
-        <v>852400</v>
+        <v>1149100</v>
       </c>
       <c r="H42" s="3">
-        <v>755000</v>
+        <v>947000</v>
       </c>
       <c r="I42" s="3">
+        <v>859800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>761600</v>
+      </c>
+      <c r="K42" s="3">
         <v>847700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>793300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>708200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2022100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2800900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3328000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3899000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2434,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15400</v>
+        <v>19000</v>
       </c>
       <c r="E47" s="3">
-        <v>16000</v>
+        <v>14800</v>
       </c>
       <c r="F47" s="3">
-        <v>16700</v>
+        <v>15500</v>
       </c>
       <c r="G47" s="3">
-        <v>25500</v>
+        <v>16100</v>
       </c>
       <c r="H47" s="3">
-        <v>20800</v>
+        <v>16800</v>
       </c>
       <c r="I47" s="3">
+        <v>25700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K47" s="3">
         <v>19900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>20300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>21200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>22400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>22300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>23800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>25600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1524700</v>
+        <v>1497300</v>
       </c>
       <c r="E48" s="3">
-        <v>1533700</v>
+        <v>1482200</v>
       </c>
       <c r="F48" s="3">
-        <v>1501300</v>
+        <v>1538000</v>
       </c>
       <c r="G48" s="3">
-        <v>1348200</v>
+        <v>1547100</v>
       </c>
       <c r="H48" s="3">
-        <v>1388500</v>
+        <v>1514500</v>
       </c>
       <c r="I48" s="3">
+        <v>1359900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1400700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1424200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1453100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1472500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1568500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1569200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1558900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1652800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>524200</v>
+        <v>578500</v>
       </c>
       <c r="E49" s="3">
-        <v>516100</v>
+        <v>545300</v>
       </c>
       <c r="F49" s="3">
-        <v>487800</v>
+        <v>528800</v>
       </c>
       <c r="G49" s="3">
-        <v>476600</v>
+        <v>520600</v>
       </c>
       <c r="H49" s="3">
-        <v>455600</v>
+        <v>492000</v>
       </c>
       <c r="I49" s="3">
+        <v>480800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>459600</v>
+      </c>
+      <c r="K49" s="3">
         <v>444200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>439000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>437400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>427800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>420300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>414300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>435900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6368000</v>
+        <v>6484700</v>
       </c>
       <c r="E52" s="3">
-        <v>5836700</v>
+        <v>6355200</v>
       </c>
       <c r="F52" s="3">
-        <v>6080300</v>
+        <v>6423700</v>
       </c>
       <c r="G52" s="3">
-        <v>6108000</v>
+        <v>5887700</v>
       </c>
       <c r="H52" s="3">
-        <v>5825600</v>
+        <v>6133500</v>
       </c>
       <c r="I52" s="3">
+        <v>6161400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5876500</v>
+      </c>
+      <c r="K52" s="3">
         <v>5314100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5421200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5183100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5058300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5057200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5642600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6038400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68871800</v>
+        <v>73801700</v>
       </c>
       <c r="E54" s="3">
-        <v>69134400</v>
+        <v>70285700</v>
       </c>
       <c r="F54" s="3">
-        <v>67652100</v>
+        <v>69474000</v>
       </c>
       <c r="G54" s="3">
-        <v>66985400</v>
+        <v>69738800</v>
       </c>
       <c r="H54" s="3">
-        <v>66171600</v>
+        <v>68243600</v>
       </c>
       <c r="I54" s="3">
+        <v>67571100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>66750100</v>
+      </c>
+      <c r="K54" s="3">
         <v>64796100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>65141000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>68231600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>68767200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>70360000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>71940200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>76147700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2974,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20800</v>
+        <v>100200</v>
       </c>
       <c r="E59" s="3">
-        <v>31000</v>
+        <v>44200</v>
       </c>
       <c r="F59" s="3">
-        <v>22400</v>
+        <v>21000</v>
       </c>
       <c r="G59" s="3">
-        <v>45300</v>
+        <v>31300</v>
       </c>
       <c r="H59" s="3">
-        <v>44100</v>
+        <v>22600</v>
       </c>
       <c r="I59" s="3">
+        <v>45700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K59" s="3">
         <v>47800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>30900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>48000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>39200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>31900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>26600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>39600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +3074,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>972400</v>
+        <v>1683500</v>
       </c>
       <c r="E61" s="3">
-        <v>1027100</v>
+        <v>1205800</v>
       </c>
       <c r="F61" s="3">
-        <v>910500</v>
+        <v>980900</v>
       </c>
       <c r="G61" s="3">
-        <v>1035800</v>
+        <v>1036000</v>
       </c>
       <c r="H61" s="3">
-        <v>1089400</v>
+        <v>918500</v>
       </c>
       <c r="I61" s="3">
+        <v>1044800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1153800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1250000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>735500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>527800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>567000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>635100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>724100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>810800</v>
+        <v>816500</v>
       </c>
       <c r="E62" s="3">
-        <v>767100</v>
+        <v>800900</v>
       </c>
       <c r="F62" s="3">
-        <v>745700</v>
+        <v>817900</v>
       </c>
       <c r="G62" s="3">
-        <v>696600</v>
+        <v>773800</v>
       </c>
       <c r="H62" s="3">
-        <v>694500</v>
+        <v>752200</v>
       </c>
       <c r="I62" s="3">
+        <v>702700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>700500</v>
+      </c>
+      <c r="K62" s="3">
         <v>730600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>722300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>626900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>524200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>524000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>939800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>987300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59492500</v>
+        <v>64663100</v>
       </c>
       <c r="E66" s="3">
-        <v>59906200</v>
+        <v>60930200</v>
       </c>
       <c r="F66" s="3">
-        <v>58707000</v>
+        <v>60012700</v>
       </c>
       <c r="G66" s="3">
-        <v>58075900</v>
+        <v>60430000</v>
       </c>
       <c r="H66" s="3">
-        <v>57189300</v>
+        <v>59220300</v>
       </c>
       <c r="I66" s="3">
+        <v>58583700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>57689300</v>
+      </c>
+      <c r="K66" s="3">
         <v>55721300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>55974500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>57462600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>58203700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>59781700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>61630800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>65474900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3005300</v>
+        <v>-3354100</v>
       </c>
       <c r="E72" s="3">
-        <v>-3156400</v>
+        <v>-3137400</v>
       </c>
       <c r="F72" s="3">
-        <v>-3439500</v>
+        <v>-3031600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3475100</v>
+        <v>-3184000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3402300</v>
+        <v>-3469500</v>
       </c>
       <c r="I72" s="3">
+        <v>-3505500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-3432100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9379300</v>
+        <v>9138600</v>
       </c>
       <c r="E76" s="3">
-        <v>9228200</v>
+        <v>9355500</v>
       </c>
       <c r="F76" s="3">
-        <v>8945200</v>
+        <v>9461300</v>
       </c>
       <c r="G76" s="3">
-        <v>8909500</v>
+        <v>9308900</v>
       </c>
       <c r="H76" s="3">
-        <v>8982300</v>
+        <v>9023400</v>
       </c>
       <c r="I76" s="3">
+        <v>8987400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9060800</v>
+      </c>
+      <c r="K76" s="3">
         <v>9074900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9166500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10769000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10563500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10578300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10309400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10672800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F81" s="3">
         <v>5300</v>
       </c>
-      <c r="E81" s="3">
-        <v>65200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>30200</v>
-      </c>
       <c r="G81" s="3">
-        <v>-500</v>
+        <v>65800</v>
       </c>
       <c r="H81" s="3">
-        <v>45200</v>
+        <v>30400</v>
       </c>
       <c r="I81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-58000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>71900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-71800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>39900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>54000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>23600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42000</v>
+        <v>42500</v>
       </c>
       <c r="E83" s="3">
-        <v>41500</v>
+        <v>55600</v>
       </c>
       <c r="F83" s="3">
-        <v>38900</v>
+        <v>42400</v>
       </c>
       <c r="G83" s="3">
-        <v>71400</v>
+        <v>41900</v>
       </c>
       <c r="H83" s="3">
-        <v>29200</v>
+        <v>39200</v>
       </c>
       <c r="I83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K83" s="3">
         <v>35800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>27700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>114000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>28000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>28500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>32500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>92900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1148800</v>
+        <v>787600</v>
       </c>
       <c r="E89" s="3">
-        <v>642800</v>
+        <v>1762200</v>
       </c>
       <c r="F89" s="3">
-        <v>683600</v>
+        <v>-1158800</v>
       </c>
       <c r="G89" s="3">
-        <v>1141000</v>
+        <v>648400</v>
       </c>
       <c r="H89" s="3">
-        <v>1594500</v>
+        <v>689600</v>
       </c>
       <c r="I89" s="3">
+        <v>1151000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1608400</v>
+      </c>
+      <c r="K89" s="3">
         <v>174300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-870300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-999700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-582700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-135700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31100</v>
+        <v>-62400</v>
       </c>
       <c r="E91" s="3">
-        <v>-95300</v>
+        <v>-93500</v>
       </c>
       <c r="F91" s="3">
-        <v>-49700</v>
+        <v>-31300</v>
       </c>
       <c r="G91" s="3">
-        <v>-68500</v>
+        <v>-96100</v>
       </c>
       <c r="H91" s="3">
-        <v>-48400</v>
+        <v>-50100</v>
       </c>
       <c r="I91" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-38100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-36100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-71400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-65900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-22800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>83900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-96400</v>
+        <v>-561400</v>
       </c>
       <c r="E94" s="3">
-        <v>222400</v>
+        <v>-299100</v>
       </c>
       <c r="F94" s="3">
-        <v>-576900</v>
+        <v>-97200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1136500</v>
+        <v>224300</v>
       </c>
       <c r="H94" s="3">
-        <v>-505300</v>
+        <v>-581900</v>
       </c>
       <c r="I94" s="3">
+        <v>-1146400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-509700</v>
+      </c>
+      <c r="K94" s="3">
         <v>46200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>414000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1357200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1043800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>651700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>88900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1075700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-71700</v>
+        <v>458200</v>
       </c>
       <c r="E100" s="3">
-        <v>98700</v>
+        <v>197800</v>
       </c>
       <c r="F100" s="3">
-        <v>-145000</v>
+        <v>-72300</v>
       </c>
       <c r="G100" s="3">
-        <v>-71500</v>
+        <v>99500</v>
       </c>
       <c r="H100" s="3">
-        <v>-81200</v>
+        <v>-146300</v>
       </c>
       <c r="I100" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-171400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>536300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>208900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-36100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-50000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-62800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>360300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
-        <v>23000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-14600</v>
-      </c>
       <c r="G101" s="3">
+        <v>23200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I101" s="3">
         <v>4400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-7400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-6200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-15300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1316200</v>
+        <v>694400</v>
       </c>
       <c r="E102" s="3">
-        <v>986800</v>
+        <v>1665100</v>
       </c>
       <c r="F102" s="3">
-        <v>-52800</v>
+        <v>-1327700</v>
       </c>
       <c r="G102" s="3">
-        <v>-62600</v>
+        <v>995500</v>
       </c>
       <c r="H102" s="3">
-        <v>1008900</v>
+        <v>-53300</v>
       </c>
       <c r="I102" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1017800</v>
+      </c>
+      <c r="K102" s="3">
         <v>53200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>83400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>559000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-20100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-105900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-112200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-16900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>533100</v>
+        <v>570300</v>
       </c>
       <c r="E8" s="3">
-        <v>544300</v>
+        <v>569300</v>
       </c>
       <c r="F8" s="3">
-        <v>551600</v>
+        <v>581300</v>
       </c>
       <c r="G8" s="3">
-        <v>570900</v>
+        <v>589100</v>
       </c>
       <c r="H8" s="3">
-        <v>573200</v>
+        <v>609700</v>
       </c>
       <c r="I8" s="3">
-        <v>617200</v>
+        <v>612200</v>
       </c>
       <c r="J8" s="3">
+        <v>659100</v>
+      </c>
+      <c r="K8" s="3">
         <v>614400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>635700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>644900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>692800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>701400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>717600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>709200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>735200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="I15" s="3">
         <v>-41600</v>
       </c>
-      <c r="E15" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-39100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-39000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-58000</v>
-      </c>
       <c r="J15" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-57400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-54900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-54800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-28500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-27300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-27600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-27100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>461400</v>
+        <v>420700</v>
       </c>
       <c r="E17" s="3">
-        <v>393400</v>
+        <v>492800</v>
       </c>
       <c r="F17" s="3">
-        <v>420200</v>
+        <v>420100</v>
       </c>
       <c r="G17" s="3">
-        <v>422500</v>
+        <v>448800</v>
       </c>
       <c r="H17" s="3">
-        <v>387100</v>
+        <v>451200</v>
       </c>
       <c r="I17" s="3">
-        <v>939400</v>
+        <v>413400</v>
       </c>
       <c r="J17" s="3">
+        <v>1003300</v>
+      </c>
+      <c r="K17" s="3">
         <v>489200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>523500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>533900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>428200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>489700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>406900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>444700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>542300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>71700</v>
+        <v>149500</v>
       </c>
       <c r="E18" s="3">
-        <v>150900</v>
+        <v>76500</v>
       </c>
       <c r="F18" s="3">
-        <v>131400</v>
+        <v>161100</v>
       </c>
       <c r="G18" s="3">
-        <v>148400</v>
+        <v>140300</v>
       </c>
       <c r="H18" s="3">
-        <v>186100</v>
+        <v>158500</v>
       </c>
       <c r="I18" s="3">
-        <v>-322300</v>
+        <v>198700</v>
       </c>
       <c r="J18" s="3">
+        <v>-344200</v>
+      </c>
+      <c r="K18" s="3">
         <v>125200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>111000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>264600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>211600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>310700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>264500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>192900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-82100</v>
+        <v>-61800</v>
       </c>
       <c r="E20" s="3">
-        <v>-144800</v>
+        <v>-87600</v>
       </c>
       <c r="F20" s="3">
-        <v>-108500</v>
+        <v>-154700</v>
       </c>
       <c r="G20" s="3">
-        <v>-73000</v>
+        <v>-115900</v>
       </c>
       <c r="H20" s="3">
-        <v>-129600</v>
+        <v>-78000</v>
       </c>
       <c r="I20" s="3">
-        <v>-179700</v>
+        <v>-138400</v>
       </c>
       <c r="J20" s="3">
+        <v>-191900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-58400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-118800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-362000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-125100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-199100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-180000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-267300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>32100</v>
+        <v>132800</v>
       </c>
       <c r="E21" s="3">
-        <v>61600</v>
+        <v>34300</v>
       </c>
       <c r="F21" s="3">
-        <v>65200</v>
+        <v>65800</v>
       </c>
       <c r="G21" s="3">
-        <v>117300</v>
+        <v>69700</v>
       </c>
       <c r="H21" s="3">
-        <v>95700</v>
+        <v>125300</v>
       </c>
       <c r="I21" s="3">
-        <v>-429900</v>
+        <v>102300</v>
       </c>
       <c r="J21" s="3">
+        <v>-459100</v>
+      </c>
+      <c r="K21" s="3">
         <v>96300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>147800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>114500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>140100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>117000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10400</v>
+        <v>87700</v>
       </c>
       <c r="E23" s="3">
-        <v>6000</v>
+        <v>-11100</v>
       </c>
       <c r="F23" s="3">
-        <v>22800</v>
+        <v>6400</v>
       </c>
       <c r="G23" s="3">
-        <v>75400</v>
+        <v>24400</v>
       </c>
       <c r="H23" s="3">
-        <v>56500</v>
+        <v>80500</v>
       </c>
       <c r="I23" s="3">
-        <v>-501900</v>
+        <v>60400</v>
       </c>
       <c r="J23" s="3">
+        <v>-536100</v>
+      </c>
+      <c r="K23" s="3">
         <v>66800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>120300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-97300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>86500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>111600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>84500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-74400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1600</v>
+        <v>-27700</v>
       </c>
       <c r="E24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>17700</v>
-      </c>
       <c r="G24" s="3">
-        <v>9600</v>
+        <v>18900</v>
       </c>
       <c r="H24" s="3">
-        <v>26100</v>
+        <v>10300</v>
       </c>
       <c r="I24" s="3">
-        <v>-501100</v>
+        <v>27900</v>
       </c>
       <c r="J24" s="3">
+        <v>-535200</v>
+      </c>
+      <c r="K24" s="3">
         <v>21200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-72500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12000</v>
+        <v>115400</v>
       </c>
       <c r="E26" s="3">
-        <v>6200</v>
+        <v>-12800</v>
       </c>
       <c r="F26" s="3">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="G26" s="3">
-        <v>65800</v>
+        <v>5500</v>
       </c>
       <c r="H26" s="3">
-        <v>30400</v>
+        <v>70200</v>
       </c>
       <c r="I26" s="3">
-        <v>-800</v>
+        <v>32500</v>
       </c>
       <c r="J26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K26" s="3">
         <v>45600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-58000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-71800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>79400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12100</v>
+        <v>115400</v>
       </c>
       <c r="E27" s="3">
-        <v>6000</v>
+        <v>-12900</v>
       </c>
       <c r="F27" s="3">
-        <v>5300</v>
+        <v>6400</v>
       </c>
       <c r="G27" s="3">
-        <v>65800</v>
+        <v>5700</v>
       </c>
       <c r="H27" s="3">
-        <v>30400</v>
+        <v>70200</v>
       </c>
       <c r="I27" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>45600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-58000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>71900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-71800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>53000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1721,32 +1782,35 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-77800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>25500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>82100</v>
+        <v>61800</v>
       </c>
       <c r="E32" s="3">
-        <v>144800</v>
+        <v>87600</v>
       </c>
       <c r="F32" s="3">
-        <v>108500</v>
+        <v>154700</v>
       </c>
       <c r="G32" s="3">
-        <v>73000</v>
+        <v>115900</v>
       </c>
       <c r="H32" s="3">
-        <v>129600</v>
+        <v>78000</v>
       </c>
       <c r="I32" s="3">
-        <v>179700</v>
+        <v>138400</v>
       </c>
       <c r="J32" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K32" s="3">
         <v>58400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>118800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>362000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>125100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>199100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>180000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>267300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12100</v>
+        <v>115400</v>
       </c>
       <c r="E33" s="3">
-        <v>6000</v>
+        <v>-12900</v>
       </c>
       <c r="F33" s="3">
-        <v>5300</v>
+        <v>6400</v>
       </c>
       <c r="G33" s="3">
-        <v>65800</v>
+        <v>5700</v>
       </c>
       <c r="H33" s="3">
-        <v>30400</v>
+        <v>70200</v>
       </c>
       <c r="I33" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-58000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>71900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-71800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12100</v>
+        <v>115400</v>
       </c>
       <c r="E35" s="3">
-        <v>6000</v>
+        <v>-12900</v>
       </c>
       <c r="F35" s="3">
-        <v>5300</v>
+        <v>6400</v>
       </c>
       <c r="G35" s="3">
-        <v>65800</v>
+        <v>5700</v>
       </c>
       <c r="H35" s="3">
-        <v>30400</v>
+        <v>70200</v>
       </c>
       <c r="I35" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-58000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>71900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-71800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8174800</v>
+        <v>10237100</v>
       </c>
       <c r="E41" s="3">
-        <v>5937900</v>
+        <v>8730600</v>
       </c>
       <c r="F41" s="3">
-        <v>4921800</v>
+        <v>6341600</v>
       </c>
       <c r="G41" s="3">
-        <v>5892200</v>
+        <v>5256400</v>
       </c>
       <c r="H41" s="3">
-        <v>4775800</v>
+        <v>6292800</v>
       </c>
       <c r="I41" s="3">
-        <v>4905200</v>
+        <v>5100400</v>
       </c>
       <c r="J41" s="3">
+        <v>5238700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4986500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3912100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3816300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3713200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3312200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3375300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3587700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4089400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1340400</v>
+        <v>1606000</v>
       </c>
       <c r="E42" s="3">
-        <v>1200100</v>
+        <v>1431600</v>
       </c>
       <c r="F42" s="3">
-        <v>1405700</v>
+        <v>1281700</v>
       </c>
       <c r="G42" s="3">
-        <v>1149100</v>
+        <v>1501200</v>
       </c>
       <c r="H42" s="3">
-        <v>947000</v>
+        <v>1227300</v>
       </c>
       <c r="I42" s="3">
-        <v>859800</v>
+        <v>1011300</v>
       </c>
       <c r="J42" s="3">
+        <v>918300</v>
+      </c>
+      <c r="K42" s="3">
         <v>761600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>847700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>793300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>708200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2022100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2800900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3328000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3899000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,158 +2542,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="E47" s="3">
-        <v>14800</v>
+        <v>20300</v>
       </c>
       <c r="F47" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="G47" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="H47" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="I47" s="3">
-        <v>25700</v>
+        <v>18000</v>
       </c>
       <c r="J47" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K47" s="3">
         <v>21000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>22400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1497300</v>
+        <v>1584700</v>
       </c>
       <c r="E48" s="3">
-        <v>1482200</v>
+        <v>1599100</v>
       </c>
       <c r="F48" s="3">
-        <v>1538000</v>
+        <v>1582900</v>
       </c>
       <c r="G48" s="3">
-        <v>1547100</v>
+        <v>1642600</v>
       </c>
       <c r="H48" s="3">
-        <v>1514500</v>
+        <v>1652200</v>
       </c>
       <c r="I48" s="3">
-        <v>1359900</v>
+        <v>1617400</v>
       </c>
       <c r="J48" s="3">
+        <v>1452400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1400700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1424200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1453100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1472500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1568500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1569200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1558900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1652800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>578500</v>
+        <v>616700</v>
       </c>
       <c r="E49" s="3">
-        <v>545300</v>
+        <v>617800</v>
       </c>
       <c r="F49" s="3">
-        <v>528800</v>
+        <v>582400</v>
       </c>
       <c r="G49" s="3">
-        <v>520600</v>
+        <v>564700</v>
       </c>
       <c r="H49" s="3">
-        <v>492000</v>
+        <v>556000</v>
       </c>
       <c r="I49" s="3">
-        <v>480800</v>
+        <v>525500</v>
       </c>
       <c r="J49" s="3">
+        <v>513500</v>
+      </c>
+      <c r="K49" s="3">
         <v>459600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>444200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>439000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>437400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>427800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>420300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>414300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>435900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6484700</v>
+        <v>6945800</v>
       </c>
       <c r="E52" s="3">
-        <v>6355200</v>
+        <v>6925500</v>
       </c>
       <c r="F52" s="3">
-        <v>6423700</v>
+        <v>6787300</v>
       </c>
       <c r="G52" s="3">
-        <v>5887700</v>
+        <v>6860400</v>
       </c>
       <c r="H52" s="3">
-        <v>6133500</v>
+        <v>6288000</v>
       </c>
       <c r="I52" s="3">
-        <v>6161400</v>
+        <v>6550400</v>
       </c>
       <c r="J52" s="3">
+        <v>6580200</v>
+      </c>
+      <c r="K52" s="3">
         <v>5876500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5314100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5421200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5183100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5058300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5057200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5642600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6038400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73801700</v>
+        <v>81172700</v>
       </c>
       <c r="E54" s="3">
-        <v>70285700</v>
+        <v>78819100</v>
       </c>
       <c r="F54" s="3">
-        <v>69474000</v>
+        <v>75064000</v>
       </c>
       <c r="G54" s="3">
-        <v>69738800</v>
+        <v>74197200</v>
       </c>
       <c r="H54" s="3">
-        <v>68243600</v>
+        <v>74480000</v>
       </c>
       <c r="I54" s="3">
-        <v>67571100</v>
+        <v>72883200</v>
       </c>
       <c r="J54" s="3">
+        <v>72164900</v>
+      </c>
+      <c r="K54" s="3">
         <v>66750100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>64796100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65141000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68231600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68767200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70360000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71940200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76147700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,58 +3114,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100200</v>
+        <v>131500</v>
       </c>
       <c r="E59" s="3">
-        <v>44200</v>
+        <v>107000</v>
       </c>
       <c r="F59" s="3">
-        <v>21000</v>
+        <v>47200</v>
       </c>
       <c r="G59" s="3">
-        <v>31300</v>
+        <v>22400</v>
       </c>
       <c r="H59" s="3">
-        <v>22600</v>
+        <v>33400</v>
       </c>
       <c r="I59" s="3">
-        <v>45700</v>
+        <v>24200</v>
       </c>
       <c r="J59" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K59" s="3">
         <v>44500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>39600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,108 +3220,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1683500</v>
+        <v>1768500</v>
       </c>
       <c r="E61" s="3">
-        <v>1205800</v>
+        <v>1797900</v>
       </c>
       <c r="F61" s="3">
+        <v>1287800</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1047600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1106500</v>
+      </c>
+      <c r="I61" s="3">
         <v>980900</v>
       </c>
-      <c r="G61" s="3">
-        <v>1036000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>918500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1044800</v>
-      </c>
       <c r="J61" s="3">
+        <v>1115900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1099000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1153800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1250000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>735500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>527800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>567000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>635100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>724100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>816500</v>
+        <v>890300</v>
       </c>
       <c r="E62" s="3">
-        <v>800900</v>
+        <v>872100</v>
       </c>
       <c r="F62" s="3">
-        <v>817900</v>
+        <v>855400</v>
       </c>
       <c r="G62" s="3">
-        <v>773800</v>
+        <v>873500</v>
       </c>
       <c r="H62" s="3">
-        <v>752200</v>
+        <v>826400</v>
       </c>
       <c r="I62" s="3">
-        <v>702700</v>
+        <v>803400</v>
       </c>
       <c r="J62" s="3">
+        <v>750400</v>
+      </c>
+      <c r="K62" s="3">
         <v>700500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>730600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>722300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>626900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>524200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>524000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>939800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>987300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>64663100</v>
+        <v>71269900</v>
       </c>
       <c r="E66" s="3">
-        <v>60930200</v>
+        <v>69059300</v>
       </c>
       <c r="F66" s="3">
-        <v>60012700</v>
+        <v>65072500</v>
       </c>
       <c r="G66" s="3">
-        <v>60430000</v>
+        <v>64092600</v>
       </c>
       <c r="H66" s="3">
-        <v>59220300</v>
+        <v>64538300</v>
       </c>
       <c r="I66" s="3">
-        <v>58583700</v>
+        <v>63246300</v>
       </c>
       <c r="J66" s="3">
+        <v>62566500</v>
+      </c>
+      <c r="K66" s="3">
         <v>57689300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55721300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55974500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57462600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58203700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59781700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61630800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>65474900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3354100</v>
+        <v>-3439100</v>
       </c>
       <c r="E72" s="3">
-        <v>-3137400</v>
+        <v>-3582100</v>
       </c>
       <c r="F72" s="3">
-        <v>-3031600</v>
+        <v>-3350600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3184000</v>
+        <v>-3237700</v>
       </c>
       <c r="H72" s="3">
-        <v>-3469500</v>
+        <v>-3400500</v>
       </c>
       <c r="I72" s="3">
-        <v>-3505500</v>
+        <v>-3705400</v>
       </c>
       <c r="J72" s="3">
+        <v>-3743800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9138600</v>
+        <v>9902900</v>
       </c>
       <c r="E76" s="3">
-        <v>9355500</v>
+        <v>9759900</v>
       </c>
       <c r="F76" s="3">
-        <v>9461300</v>
+        <v>9991500</v>
       </c>
       <c r="G76" s="3">
-        <v>9308900</v>
+        <v>10104500</v>
       </c>
       <c r="H76" s="3">
-        <v>9023400</v>
+        <v>9941700</v>
       </c>
       <c r="I76" s="3">
-        <v>8987400</v>
+        <v>9636800</v>
       </c>
       <c r="J76" s="3">
+        <v>9598400</v>
+      </c>
+      <c r="K76" s="3">
         <v>9060800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9074900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9166500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10769000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10563500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10578300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10309400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10672800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12100</v>
+        <v>115400</v>
       </c>
       <c r="E81" s="3">
-        <v>6000</v>
+        <v>-12900</v>
       </c>
       <c r="F81" s="3">
-        <v>5300</v>
+        <v>6400</v>
       </c>
       <c r="G81" s="3">
-        <v>65800</v>
+        <v>5700</v>
       </c>
       <c r="H81" s="3">
-        <v>30400</v>
+        <v>70200</v>
       </c>
       <c r="I81" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-58000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>71900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-71800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42500</v>
+        <v>45000</v>
       </c>
       <c r="E83" s="3">
-        <v>55600</v>
+        <v>45400</v>
       </c>
       <c r="F83" s="3">
-        <v>42400</v>
+        <v>59400</v>
       </c>
       <c r="G83" s="3">
+        <v>45300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>44800</v>
+      </c>
+      <c r="I83" s="3">
         <v>41900</v>
       </c>
-      <c r="H83" s="3">
-        <v>39200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>72000</v>
-      </c>
       <c r="J83" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K83" s="3">
         <v>29500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>114000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>92900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>787600</v>
+        <v>3569000</v>
       </c>
       <c r="E89" s="3">
-        <v>1762200</v>
+        <v>841100</v>
       </c>
       <c r="F89" s="3">
-        <v>-1158800</v>
+        <v>1882000</v>
       </c>
       <c r="G89" s="3">
-        <v>648400</v>
+        <v>-1237600</v>
       </c>
       <c r="H89" s="3">
-        <v>689600</v>
+        <v>692500</v>
       </c>
       <c r="I89" s="3">
-        <v>1151000</v>
+        <v>736500</v>
       </c>
       <c r="J89" s="3">
+        <v>1229300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1608400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>174300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-870300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-999700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-582700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-135700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-62400</v>
+        <v>-40100</v>
       </c>
       <c r="E91" s="3">
-        <v>-93500</v>
+        <v>-66700</v>
       </c>
       <c r="F91" s="3">
-        <v>-31300</v>
+        <v>-99900</v>
       </c>
       <c r="G91" s="3">
-        <v>-96100</v>
+        <v>-33500</v>
       </c>
       <c r="H91" s="3">
-        <v>-50100</v>
+        <v>-102600</v>
       </c>
       <c r="I91" s="3">
-        <v>-69100</v>
+        <v>-53500</v>
       </c>
       <c r="J91" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-48800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-71400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>83900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-561400</v>
+        <v>-818900</v>
       </c>
       <c r="E94" s="3">
-        <v>-299100</v>
+        <v>-599600</v>
       </c>
       <c r="F94" s="3">
-        <v>-97200</v>
+        <v>-319400</v>
       </c>
       <c r="G94" s="3">
-        <v>224300</v>
+        <v>-103900</v>
       </c>
       <c r="H94" s="3">
-        <v>-581900</v>
+        <v>239600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1146400</v>
+        <v>-621500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1224300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-509700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>46200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>414000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1357200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1043800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>651700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>88900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1075700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>458200</v>
+        <v>-62000</v>
       </c>
       <c r="E100" s="3">
-        <v>197800</v>
+        <v>489400</v>
       </c>
       <c r="F100" s="3">
-        <v>-72300</v>
+        <v>211200</v>
       </c>
       <c r="G100" s="3">
-        <v>99500</v>
+        <v>-77300</v>
       </c>
       <c r="H100" s="3">
-        <v>-146300</v>
+        <v>106300</v>
       </c>
       <c r="I100" s="3">
-        <v>-72100</v>
+        <v>-156200</v>
       </c>
       <c r="J100" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-81900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-171400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>536300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>208900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-36100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-50000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>360300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9900</v>
+        <v>-1900</v>
       </c>
       <c r="E101" s="3">
-        <v>4200</v>
+        <v>10600</v>
       </c>
       <c r="F101" s="3">
-        <v>600</v>
+        <v>4500</v>
       </c>
       <c r="G101" s="3">
-        <v>23200</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>-14700</v>
+        <v>24800</v>
       </c>
       <c r="I101" s="3">
-        <v>4400</v>
+        <v>-15700</v>
       </c>
       <c r="J101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>694400</v>
+        <v>2686300</v>
       </c>
       <c r="E102" s="3">
-        <v>1665100</v>
+        <v>741600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1327700</v>
+        <v>1778300</v>
       </c>
       <c r="G102" s="3">
-        <v>995500</v>
+        <v>-1418000</v>
       </c>
       <c r="H102" s="3">
-        <v>-53300</v>
+        <v>1063100</v>
       </c>
       <c r="I102" s="3">
-        <v>-63100</v>
+        <v>-56900</v>
       </c>
       <c r="J102" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K102" s="3">
         <v>1017800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>53200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>83400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>559000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-105900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-112200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>570300</v>
+        <v>540200</v>
       </c>
       <c r="E8" s="3">
-        <v>569300</v>
+        <v>576700</v>
       </c>
       <c r="F8" s="3">
-        <v>581300</v>
+        <v>575700</v>
       </c>
       <c r="G8" s="3">
-        <v>589100</v>
+        <v>587800</v>
       </c>
       <c r="H8" s="3">
-        <v>609700</v>
+        <v>595700</v>
       </c>
       <c r="I8" s="3">
-        <v>612200</v>
+        <v>616500</v>
       </c>
       <c r="J8" s="3">
+        <v>619000</v>
+      </c>
+      <c r="K8" s="3">
         <v>659100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>614400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>635700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>644900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>692800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>701400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>717600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>709200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>735200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-45400</v>
+        <v>-46900</v>
       </c>
       <c r="E15" s="3">
-        <v>-44400</v>
+        <v>-45900</v>
       </c>
       <c r="F15" s="3">
-        <v>-44100</v>
+        <v>-44900</v>
       </c>
       <c r="G15" s="3">
-        <v>-41800</v>
+        <v>-44600</v>
       </c>
       <c r="H15" s="3">
-        <v>-43400</v>
+        <v>-42300</v>
       </c>
       <c r="I15" s="3">
-        <v>-41600</v>
+        <v>-43900</v>
       </c>
       <c r="J15" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-62000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-57400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-54900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-54800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-28500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-27300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-28500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-27100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>420700</v>
+        <v>287500</v>
       </c>
       <c r="E17" s="3">
-        <v>492800</v>
+        <v>425500</v>
       </c>
       <c r="F17" s="3">
-        <v>420100</v>
+        <v>498300</v>
       </c>
       <c r="G17" s="3">
-        <v>448800</v>
+        <v>424900</v>
       </c>
       <c r="H17" s="3">
-        <v>451200</v>
+        <v>453900</v>
       </c>
       <c r="I17" s="3">
-        <v>413400</v>
+        <v>456300</v>
       </c>
       <c r="J17" s="3">
+        <v>418100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1003300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>489200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>523500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>533900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>428200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>489700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>406900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>444700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>542300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>149500</v>
+        <v>252700</v>
       </c>
       <c r="E18" s="3">
-        <v>76500</v>
+        <v>151200</v>
       </c>
       <c r="F18" s="3">
-        <v>161100</v>
+        <v>77400</v>
       </c>
       <c r="G18" s="3">
-        <v>140300</v>
+        <v>163000</v>
       </c>
       <c r="H18" s="3">
-        <v>158500</v>
+        <v>141900</v>
       </c>
       <c r="I18" s="3">
-        <v>198700</v>
+        <v>160300</v>
       </c>
       <c r="J18" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-344200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>125200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>112300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>111000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>264600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>211600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>310700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>264500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>192900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-61800</v>
+        <v>-161200</v>
       </c>
       <c r="E20" s="3">
-        <v>-87600</v>
+        <v>-62500</v>
       </c>
       <c r="F20" s="3">
-        <v>-154700</v>
+        <v>-88600</v>
       </c>
       <c r="G20" s="3">
-        <v>-115900</v>
+        <v>-156400</v>
       </c>
       <c r="H20" s="3">
-        <v>-78000</v>
+        <v>-117200</v>
       </c>
       <c r="I20" s="3">
-        <v>-138400</v>
+        <v>-78900</v>
       </c>
       <c r="J20" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-191900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-58400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-118800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-362000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-125100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-199100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-180000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-267300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>132800</v>
+        <v>139400</v>
       </c>
       <c r="E21" s="3">
-        <v>34300</v>
+        <v>134200</v>
       </c>
       <c r="F21" s="3">
-        <v>65800</v>
+        <v>34700</v>
       </c>
       <c r="G21" s="3">
-        <v>69700</v>
+        <v>66500</v>
       </c>
       <c r="H21" s="3">
-        <v>125300</v>
+        <v>70500</v>
       </c>
       <c r="I21" s="3">
-        <v>102300</v>
+        <v>126700</v>
       </c>
       <c r="J21" s="3">
+        <v>103400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-459100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>96300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>147800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>114500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>140100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>117000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87700</v>
+        <v>91400</v>
       </c>
       <c r="E23" s="3">
-        <v>-11100</v>
+        <v>88700</v>
       </c>
       <c r="F23" s="3">
-        <v>6400</v>
+        <v>-11200</v>
       </c>
       <c r="G23" s="3">
-        <v>24400</v>
+        <v>6500</v>
       </c>
       <c r="H23" s="3">
-        <v>80500</v>
+        <v>24700</v>
       </c>
       <c r="I23" s="3">
-        <v>60400</v>
+        <v>81400</v>
       </c>
       <c r="J23" s="3">
+        <v>61100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-536100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>120300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-97300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>86500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>111600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>84500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-74400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-27700</v>
+        <v>38900</v>
       </c>
       <c r="E24" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>18900</v>
-      </c>
       <c r="H24" s="3">
-        <v>10300</v>
+        <v>19100</v>
       </c>
       <c r="I24" s="3">
-        <v>27900</v>
+        <v>10400</v>
       </c>
       <c r="J24" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-535200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-72500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>115400</v>
+        <v>52500</v>
       </c>
       <c r="E26" s="3">
-        <v>-12800</v>
+        <v>116700</v>
       </c>
       <c r="F26" s="3">
-        <v>6600</v>
+        <v>-13000</v>
       </c>
       <c r="G26" s="3">
-        <v>5500</v>
+        <v>6700</v>
       </c>
       <c r="H26" s="3">
-        <v>70200</v>
+        <v>5600</v>
       </c>
       <c r="I26" s="3">
-        <v>32500</v>
+        <v>71000</v>
       </c>
       <c r="J26" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-58000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-71800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>79400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>115400</v>
+        <v>52400</v>
       </c>
       <c r="E27" s="3">
-        <v>-12900</v>
+        <v>116700</v>
       </c>
       <c r="F27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G27" s="3">
         <v>6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5700</v>
       </c>
-      <c r="H27" s="3">
-        <v>70200</v>
-      </c>
       <c r="I27" s="3">
-        <v>32500</v>
+        <v>71000</v>
       </c>
       <c r="J27" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-58000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>71900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-71800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>79400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1814,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-77800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>25500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>61800</v>
+        <v>161200</v>
       </c>
       <c r="E32" s="3">
-        <v>87600</v>
+        <v>62500</v>
       </c>
       <c r="F32" s="3">
-        <v>154700</v>
+        <v>88600</v>
       </c>
       <c r="G32" s="3">
-        <v>115900</v>
+        <v>156400</v>
       </c>
       <c r="H32" s="3">
-        <v>78000</v>
+        <v>117200</v>
       </c>
       <c r="I32" s="3">
-        <v>138400</v>
+        <v>78900</v>
       </c>
       <c r="J32" s="3">
+        <v>139900</v>
+      </c>
+      <c r="K32" s="3">
         <v>191900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>58400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>118800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>362000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>125100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>199100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>180000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>267300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>115400</v>
+        <v>52400</v>
       </c>
       <c r="E33" s="3">
-        <v>-12900</v>
+        <v>116700</v>
       </c>
       <c r="F33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G33" s="3">
         <v>6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5700</v>
       </c>
-      <c r="H33" s="3">
-        <v>70200</v>
-      </c>
       <c r="I33" s="3">
-        <v>32500</v>
+        <v>71000</v>
       </c>
       <c r="J33" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-58000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>71900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-71800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>115400</v>
+        <v>52400</v>
       </c>
       <c r="E35" s="3">
-        <v>-12900</v>
+        <v>116700</v>
       </c>
       <c r="F35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G35" s="3">
         <v>6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5700</v>
       </c>
-      <c r="H35" s="3">
-        <v>70200</v>
-      </c>
       <c r="I35" s="3">
-        <v>32500</v>
+        <v>71000</v>
       </c>
       <c r="J35" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-58000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>71900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-71800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10237100</v>
+        <v>9435300</v>
       </c>
       <c r="E41" s="3">
-        <v>8730600</v>
+        <v>10347100</v>
       </c>
       <c r="F41" s="3">
-        <v>6341600</v>
+        <v>8828700</v>
       </c>
       <c r="G41" s="3">
-        <v>5256400</v>
+        <v>6412900</v>
       </c>
       <c r="H41" s="3">
-        <v>6292800</v>
+        <v>5315500</v>
       </c>
       <c r="I41" s="3">
-        <v>5100400</v>
+        <v>6363600</v>
       </c>
       <c r="J41" s="3">
+        <v>5157800</v>
+      </c>
+      <c r="K41" s="3">
         <v>5238700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4986500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3912100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3816300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3713200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3312200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3375300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3587700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4089400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1606000</v>
+        <v>1692100</v>
       </c>
       <c r="E42" s="3">
-        <v>1431600</v>
+        <v>1629200</v>
       </c>
       <c r="F42" s="3">
-        <v>1281700</v>
+        <v>1447700</v>
       </c>
       <c r="G42" s="3">
-        <v>1501200</v>
+        <v>1296100</v>
       </c>
       <c r="H42" s="3">
-        <v>1227300</v>
+        <v>1518100</v>
       </c>
       <c r="I42" s="3">
-        <v>1011300</v>
+        <v>1241100</v>
       </c>
       <c r="J42" s="3">
+        <v>1022700</v>
+      </c>
+      <c r="K42" s="3">
         <v>918300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>761600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>847700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>793300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>708200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2022100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2800900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3328000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3899000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19700</v>
+        <v>37200</v>
       </c>
       <c r="E47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>20500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K47" s="3">
+        <v>27400</v>
+      </c>
+      <c r="L47" s="3">
+        <v>21000</v>
+      </c>
+      <c r="M47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="N47" s="3">
         <v>20300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="O47" s="3">
+        <v>21200</v>
+      </c>
+      <c r="P47" s="3">
+        <v>22400</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>22300</v>
+      </c>
+      <c r="R47" s="3">
+        <v>23800</v>
+      </c>
+      <c r="S47" s="3">
+        <v>25600</v>
+      </c>
+      <c r="T47" s="3">
         <v>15800</v>
       </c>
-      <c r="G47" s="3">
-        <v>16500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>17200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>18000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>27400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>21000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>19900</v>
-      </c>
-      <c r="M47" s="3">
-        <v>20300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>21200</v>
-      </c>
-      <c r="O47" s="3">
-        <v>22400</v>
-      </c>
-      <c r="P47" s="3">
-        <v>22300</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>23800</v>
-      </c>
-      <c r="R47" s="3">
-        <v>25600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1584700</v>
+        <v>1599700</v>
       </c>
       <c r="E48" s="3">
-        <v>1599100</v>
+        <v>1602500</v>
       </c>
       <c r="F48" s="3">
-        <v>1582900</v>
+        <v>1617100</v>
       </c>
       <c r="G48" s="3">
-        <v>1642600</v>
+        <v>1600700</v>
       </c>
       <c r="H48" s="3">
-        <v>1652200</v>
+        <v>1661100</v>
       </c>
       <c r="I48" s="3">
-        <v>1617400</v>
+        <v>1670800</v>
       </c>
       <c r="J48" s="3">
+        <v>1635600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1452400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1424200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1453100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1472500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1568500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1569200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1558900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1652800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>616700</v>
+        <v>694500</v>
       </c>
       <c r="E49" s="3">
-        <v>617800</v>
+        <v>623700</v>
       </c>
       <c r="F49" s="3">
-        <v>582400</v>
+        <v>624800</v>
       </c>
       <c r="G49" s="3">
-        <v>564700</v>
+        <v>588900</v>
       </c>
       <c r="H49" s="3">
-        <v>556000</v>
+        <v>571100</v>
       </c>
       <c r="I49" s="3">
-        <v>525500</v>
+        <v>562300</v>
       </c>
       <c r="J49" s="3">
+        <v>531400</v>
+      </c>
+      <c r="K49" s="3">
         <v>513500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>459600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>444200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>439000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>437400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>427800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>420300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>414300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>435900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6945800</v>
+        <v>6672700</v>
       </c>
       <c r="E52" s="3">
-        <v>6925500</v>
+        <v>7023900</v>
       </c>
       <c r="F52" s="3">
-        <v>6787300</v>
+        <v>7003400</v>
       </c>
       <c r="G52" s="3">
-        <v>6860400</v>
+        <v>6863600</v>
       </c>
       <c r="H52" s="3">
-        <v>6288000</v>
+        <v>6937500</v>
       </c>
       <c r="I52" s="3">
-        <v>6550400</v>
+        <v>6358700</v>
       </c>
       <c r="J52" s="3">
+        <v>6624100</v>
+      </c>
+      <c r="K52" s="3">
         <v>6580200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5876500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5314100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5421200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5183100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5058300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5057200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5642600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6038400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81172700</v>
+        <v>82018000</v>
       </c>
       <c r="E54" s="3">
-        <v>78819100</v>
+        <v>82085400</v>
       </c>
       <c r="F54" s="3">
-        <v>75064000</v>
+        <v>79705300</v>
       </c>
       <c r="G54" s="3">
-        <v>74197200</v>
+        <v>75908000</v>
       </c>
       <c r="H54" s="3">
-        <v>74480000</v>
+        <v>75031400</v>
       </c>
       <c r="I54" s="3">
-        <v>72883200</v>
+        <v>75317400</v>
       </c>
       <c r="J54" s="3">
+        <v>73702600</v>
+      </c>
+      <c r="K54" s="3">
         <v>72164900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66750100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>64796100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65141000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68231600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68767200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70360000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71940200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76147700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,61 +3251,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>131500</v>
+        <v>122100</v>
       </c>
       <c r="E59" s="3">
-        <v>107000</v>
+        <v>132900</v>
       </c>
       <c r="F59" s="3">
-        <v>47200</v>
+        <v>108200</v>
       </c>
       <c r="G59" s="3">
-        <v>22400</v>
+        <v>47700</v>
       </c>
       <c r="H59" s="3">
-        <v>33400</v>
+        <v>22700</v>
       </c>
       <c r="I59" s="3">
-        <v>24200</v>
+        <v>33800</v>
       </c>
       <c r="J59" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K59" s="3">
         <v>48800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>39600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,114 +3363,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1768500</v>
+        <v>1717000</v>
       </c>
       <c r="E61" s="3">
-        <v>1797900</v>
+        <v>1788400</v>
       </c>
       <c r="F61" s="3">
-        <v>1287800</v>
+        <v>1818100</v>
       </c>
       <c r="G61" s="3">
-        <v>1047600</v>
+        <v>1302300</v>
       </c>
       <c r="H61" s="3">
-        <v>1106500</v>
+        <v>1059400</v>
       </c>
       <c r="I61" s="3">
-        <v>980900</v>
+        <v>1118900</v>
       </c>
       <c r="J61" s="3">
+        <v>992000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1115900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1099000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1153800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1250000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>735500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>527800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>567000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>635100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>724100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>890300</v>
+        <v>941700</v>
       </c>
       <c r="E62" s="3">
-        <v>872100</v>
+        <v>900300</v>
       </c>
       <c r="F62" s="3">
-        <v>855400</v>
+        <v>881900</v>
       </c>
       <c r="G62" s="3">
-        <v>873500</v>
+        <v>865000</v>
       </c>
       <c r="H62" s="3">
-        <v>826400</v>
+        <v>883400</v>
       </c>
       <c r="I62" s="3">
-        <v>803400</v>
+        <v>835700</v>
       </c>
       <c r="J62" s="3">
+        <v>812400</v>
+      </c>
+      <c r="K62" s="3">
         <v>750400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>730600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>722300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>626900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>524200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>524000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>939800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>987300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71269900</v>
+        <v>71934800</v>
       </c>
       <c r="E66" s="3">
-        <v>69059300</v>
+        <v>72071200</v>
       </c>
       <c r="F66" s="3">
-        <v>65072500</v>
+        <v>69835700</v>
       </c>
       <c r="G66" s="3">
-        <v>64092600</v>
+        <v>65804100</v>
       </c>
       <c r="H66" s="3">
-        <v>64538300</v>
+        <v>64813300</v>
       </c>
       <c r="I66" s="3">
-        <v>63246300</v>
+        <v>65263900</v>
       </c>
       <c r="J66" s="3">
+        <v>63957400</v>
+      </c>
+      <c r="K66" s="3">
         <v>62566500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57689300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55721300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55974500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57462600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58203700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59781700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61630800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65474900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3439100</v>
+        <v>-3408700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3582100</v>
+        <v>-3477800</v>
       </c>
       <c r="F72" s="3">
-        <v>-3350600</v>
+        <v>-3622400</v>
       </c>
       <c r="G72" s="3">
-        <v>-3237700</v>
+        <v>-3388300</v>
       </c>
       <c r="H72" s="3">
-        <v>-3400500</v>
+        <v>-3274100</v>
       </c>
       <c r="I72" s="3">
-        <v>-3705400</v>
+        <v>-3438700</v>
       </c>
       <c r="J72" s="3">
+        <v>-3747100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9902900</v>
+        <v>10083100</v>
       </c>
       <c r="E76" s="3">
-        <v>9759900</v>
+        <v>10014200</v>
       </c>
       <c r="F76" s="3">
-        <v>9991500</v>
+        <v>9869600</v>
       </c>
       <c r="G76" s="3">
-        <v>10104500</v>
+        <v>10103900</v>
       </c>
       <c r="H76" s="3">
-        <v>9941700</v>
+        <v>10218100</v>
       </c>
       <c r="I76" s="3">
-        <v>9636800</v>
+        <v>10053500</v>
       </c>
       <c r="J76" s="3">
+        <v>9745200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9598400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9060800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9074900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9166500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10769000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10563500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10578300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10309400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10672800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>115400</v>
+        <v>52400</v>
       </c>
       <c r="E81" s="3">
-        <v>-12900</v>
+        <v>116700</v>
       </c>
       <c r="F81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G81" s="3">
         <v>6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5700</v>
       </c>
-      <c r="H81" s="3">
-        <v>70200</v>
-      </c>
       <c r="I81" s="3">
-        <v>32500</v>
+        <v>71000</v>
       </c>
       <c r="J81" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-58000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>71900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-71800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="E83" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="F83" s="3">
-        <v>59400</v>
+        <v>45900</v>
       </c>
       <c r="G83" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>45800</v>
+      </c>
+      <c r="I83" s="3">
         <v>45300</v>
       </c>
-      <c r="H83" s="3">
-        <v>44800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>41900</v>
-      </c>
       <c r="J83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K83" s="3">
         <v>76900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>114000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>92900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3569000</v>
+        <v>-386400</v>
       </c>
       <c r="E89" s="3">
-        <v>841100</v>
+        <v>3609100</v>
       </c>
       <c r="F89" s="3">
-        <v>1882000</v>
+        <v>850600</v>
       </c>
       <c r="G89" s="3">
-        <v>-1237600</v>
+        <v>1903200</v>
       </c>
       <c r="H89" s="3">
-        <v>692500</v>
+        <v>-1251500</v>
       </c>
       <c r="I89" s="3">
-        <v>736500</v>
+        <v>700200</v>
       </c>
       <c r="J89" s="3">
+        <v>744800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1229300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1608400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>174300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-870300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-999700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-582700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-135700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40100</v>
+        <v>-55000</v>
       </c>
       <c r="E91" s="3">
-        <v>-66700</v>
+        <v>-40600</v>
       </c>
       <c r="F91" s="3">
-        <v>-99900</v>
+        <v>-67400</v>
       </c>
       <c r="G91" s="3">
-        <v>-33500</v>
+        <v>-101000</v>
       </c>
       <c r="H91" s="3">
-        <v>-102600</v>
+        <v>-33800</v>
       </c>
       <c r="I91" s="3">
-        <v>-53500</v>
+        <v>-103800</v>
       </c>
       <c r="J91" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-73800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-71400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-65900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>83900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-818900</v>
+        <v>-639000</v>
       </c>
       <c r="E94" s="3">
-        <v>-599600</v>
+        <v>-828100</v>
       </c>
       <c r="F94" s="3">
-        <v>-319400</v>
+        <v>-606300</v>
       </c>
       <c r="G94" s="3">
-        <v>-103900</v>
+        <v>-323000</v>
       </c>
       <c r="H94" s="3">
-        <v>239600</v>
+        <v>-105000</v>
       </c>
       <c r="I94" s="3">
-        <v>-621500</v>
+        <v>242300</v>
       </c>
       <c r="J94" s="3">
+        <v>-628400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-509700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>46200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>414000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1357200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1043800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>651700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>88900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1075700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62000</v>
+        <v>-31400</v>
       </c>
       <c r="E100" s="3">
-        <v>489400</v>
+        <v>-62700</v>
       </c>
       <c r="F100" s="3">
-        <v>211200</v>
+        <v>494900</v>
       </c>
       <c r="G100" s="3">
-        <v>-77300</v>
+        <v>213600</v>
       </c>
       <c r="H100" s="3">
-        <v>106300</v>
+        <v>-78100</v>
       </c>
       <c r="I100" s="3">
-        <v>-156200</v>
+        <v>107500</v>
       </c>
       <c r="J100" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-77000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-81900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-171400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>536300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>208900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-36100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>360300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
-        <v>10600</v>
-      </c>
       <c r="F101" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G101" s="3">
         <v>4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
-        <v>24800</v>
-      </c>
       <c r="I101" s="3">
-        <v>-15700</v>
+        <v>25100</v>
       </c>
       <c r="J101" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K101" s="3">
         <v>4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-15300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2686300</v>
+        <v>-1055900</v>
       </c>
       <c r="E102" s="3">
-        <v>741600</v>
+        <v>2716500</v>
       </c>
       <c r="F102" s="3">
-        <v>1778300</v>
+        <v>749900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1418000</v>
+        <v>1798300</v>
       </c>
       <c r="H102" s="3">
-        <v>1063100</v>
+        <v>-1434000</v>
       </c>
       <c r="I102" s="3">
-        <v>-56900</v>
+        <v>1075100</v>
       </c>
       <c r="J102" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-67400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1017800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>53200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>83400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>559000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-105900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-112200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>540200</v>
+        <v>774500</v>
       </c>
       <c r="E8" s="3">
-        <v>576700</v>
+        <v>531300</v>
       </c>
       <c r="F8" s="3">
-        <v>575700</v>
+        <v>567100</v>
       </c>
       <c r="G8" s="3">
-        <v>587800</v>
+        <v>566200</v>
       </c>
       <c r="H8" s="3">
-        <v>595700</v>
+        <v>680100</v>
       </c>
       <c r="I8" s="3">
-        <v>616500</v>
+        <v>585800</v>
       </c>
       <c r="J8" s="3">
+        <v>606300</v>
+      </c>
+      <c r="K8" s="3">
         <v>619000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>659100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>614400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>635700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>644900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>692800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>701400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>717600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>709200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>735200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,64 +1123,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-46900</v>
+        <v>-54400</v>
       </c>
       <c r="E15" s="3">
-        <v>-45900</v>
+        <v>-46200</v>
       </c>
       <c r="F15" s="3">
-        <v>-44900</v>
+        <v>-45100</v>
       </c>
       <c r="G15" s="3">
-        <v>-44600</v>
+        <v>-44200</v>
       </c>
       <c r="H15" s="3">
-        <v>-42300</v>
+        <v>-43900</v>
       </c>
       <c r="I15" s="3">
-        <v>-43900</v>
+        <v>-41600</v>
       </c>
       <c r="J15" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-42100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-62000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-57400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-54900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-54800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-28500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-27600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-28500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-27100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>287500</v>
+        <v>986500</v>
       </c>
       <c r="E17" s="3">
-        <v>425500</v>
+        <v>282800</v>
       </c>
       <c r="F17" s="3">
-        <v>498300</v>
+        <v>418400</v>
       </c>
       <c r="G17" s="3">
-        <v>424900</v>
+        <v>490100</v>
       </c>
       <c r="H17" s="3">
-        <v>453900</v>
+        <v>519800</v>
       </c>
       <c r="I17" s="3">
-        <v>456300</v>
+        <v>446300</v>
       </c>
       <c r="J17" s="3">
+        <v>448700</v>
+      </c>
+      <c r="K17" s="3">
         <v>418100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1003300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>489200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>523500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>533900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>428200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>489700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>406900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>444700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>542300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>252700</v>
+        <v>-212000</v>
       </c>
       <c r="E18" s="3">
-        <v>151200</v>
+        <v>248500</v>
       </c>
       <c r="F18" s="3">
-        <v>77400</v>
+        <v>148700</v>
       </c>
       <c r="G18" s="3">
-        <v>163000</v>
+        <v>76100</v>
       </c>
       <c r="H18" s="3">
-        <v>141900</v>
+        <v>160300</v>
       </c>
       <c r="I18" s="3">
-        <v>160300</v>
+        <v>139500</v>
       </c>
       <c r="J18" s="3">
+        <v>157600</v>
+      </c>
+      <c r="K18" s="3">
         <v>201000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-344200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>125200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>112300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>111000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>264600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>211600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>310700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>264500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>192900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-161200</v>
+        <v>180100</v>
       </c>
       <c r="E20" s="3">
-        <v>-62500</v>
+        <v>-158600</v>
       </c>
       <c r="F20" s="3">
-        <v>-88600</v>
+        <v>-61500</v>
       </c>
       <c r="G20" s="3">
-        <v>-156400</v>
+        <v>-87200</v>
       </c>
       <c r="H20" s="3">
-        <v>-117200</v>
+        <v>-140800</v>
       </c>
       <c r="I20" s="3">
-        <v>-78900</v>
+        <v>-115300</v>
       </c>
       <c r="J20" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-139900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-191900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-58400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-118800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-362000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-125100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-199100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-180000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-267300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>139400</v>
+        <v>42800</v>
       </c>
       <c r="E21" s="3">
-        <v>134200</v>
+        <v>137100</v>
       </c>
       <c r="F21" s="3">
-        <v>34700</v>
+        <v>132000</v>
       </c>
       <c r="G21" s="3">
-        <v>66500</v>
+        <v>34100</v>
       </c>
       <c r="H21" s="3">
-        <v>70500</v>
+        <v>78500</v>
       </c>
       <c r="I21" s="3">
-        <v>126700</v>
+        <v>69300</v>
       </c>
       <c r="J21" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K21" s="3">
         <v>103400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-459100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>96300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>147800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>114500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>140100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>117000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>91400</v>
+        <v>-31900</v>
       </c>
       <c r="E23" s="3">
-        <v>88700</v>
+        <v>89900</v>
       </c>
       <c r="F23" s="3">
-        <v>-11200</v>
+        <v>87200</v>
       </c>
       <c r="G23" s="3">
-        <v>6500</v>
+        <v>-11100</v>
       </c>
       <c r="H23" s="3">
-        <v>24700</v>
+        <v>19400</v>
       </c>
       <c r="I23" s="3">
-        <v>81400</v>
+        <v>24300</v>
       </c>
       <c r="J23" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K23" s="3">
         <v>61100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-536100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>120300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-97300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>86500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>111600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>84500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-74400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38900</v>
+        <v>-600</v>
       </c>
       <c r="E24" s="3">
-        <v>-28000</v>
+        <v>38300</v>
       </c>
       <c r="F24" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-200</v>
-      </c>
       <c r="H24" s="3">
-        <v>19100</v>
+        <v>3100</v>
       </c>
       <c r="I24" s="3">
-        <v>10400</v>
+        <v>18800</v>
       </c>
       <c r="J24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K24" s="3">
         <v>28200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-535200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>48500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-72500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>52500</v>
+        <v>-31300</v>
       </c>
       <c r="E26" s="3">
-        <v>116700</v>
+        <v>51600</v>
       </c>
       <c r="F26" s="3">
-        <v>-13000</v>
+        <v>114800</v>
       </c>
       <c r="G26" s="3">
-        <v>6700</v>
+        <v>-12800</v>
       </c>
       <c r="H26" s="3">
-        <v>5600</v>
+        <v>16300</v>
       </c>
       <c r="I26" s="3">
-        <v>71000</v>
+        <v>5500</v>
       </c>
       <c r="J26" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K26" s="3">
         <v>32900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-58000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>71800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-71800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>79400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>52400</v>
+        <v>-31400</v>
       </c>
       <c r="E27" s="3">
-        <v>116700</v>
+        <v>51600</v>
       </c>
       <c r="F27" s="3">
-        <v>-13100</v>
+        <v>114700</v>
       </c>
       <c r="G27" s="3">
-        <v>6400</v>
+        <v>-12800</v>
       </c>
       <c r="H27" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I27" s="3">
         <v>5700</v>
       </c>
-      <c r="I27" s="3">
-        <v>71000</v>
-      </c>
       <c r="J27" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K27" s="3">
         <v>32900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-58000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>71900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-71800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>79400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>53000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,38 +1903,41 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-77800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>25500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>161200</v>
+        <v>-180100</v>
       </c>
       <c r="E32" s="3">
-        <v>62500</v>
+        <v>158600</v>
       </c>
       <c r="F32" s="3">
-        <v>88600</v>
+        <v>61500</v>
       </c>
       <c r="G32" s="3">
-        <v>156400</v>
+        <v>87200</v>
       </c>
       <c r="H32" s="3">
-        <v>117200</v>
+        <v>140800</v>
       </c>
       <c r="I32" s="3">
-        <v>78900</v>
+        <v>115300</v>
       </c>
       <c r="J32" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K32" s="3">
         <v>139900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>191900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>58400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>118800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>362000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>125100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>199100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>180000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>267300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>52400</v>
+        <v>-31400</v>
       </c>
       <c r="E33" s="3">
-        <v>116700</v>
+        <v>51600</v>
       </c>
       <c r="F33" s="3">
-        <v>-13100</v>
+        <v>114700</v>
       </c>
       <c r="G33" s="3">
-        <v>6400</v>
+        <v>-12800</v>
       </c>
       <c r="H33" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I33" s="3">
         <v>5700</v>
       </c>
-      <c r="I33" s="3">
-        <v>71000</v>
-      </c>
       <c r="J33" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K33" s="3">
         <v>32900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-58000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>71900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-71800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>52400</v>
+        <v>-31400</v>
       </c>
       <c r="E35" s="3">
-        <v>116700</v>
+        <v>51600</v>
       </c>
       <c r="F35" s="3">
-        <v>-13100</v>
+        <v>114700</v>
       </c>
       <c r="G35" s="3">
-        <v>6400</v>
+        <v>-12800</v>
       </c>
       <c r="H35" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I35" s="3">
         <v>5700</v>
       </c>
-      <c r="I35" s="3">
-        <v>71000</v>
-      </c>
       <c r="J35" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K35" s="3">
         <v>32900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-58000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>71900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-71800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9435300</v>
+        <v>12006200</v>
       </c>
       <c r="E41" s="3">
-        <v>10347100</v>
+        <v>9279100</v>
       </c>
       <c r="F41" s="3">
-        <v>8828700</v>
+        <v>10175800</v>
       </c>
       <c r="G41" s="3">
-        <v>6412900</v>
+        <v>8682600</v>
       </c>
       <c r="H41" s="3">
-        <v>5315500</v>
+        <v>6306700</v>
       </c>
       <c r="I41" s="3">
-        <v>6363600</v>
+        <v>5227500</v>
       </c>
       <c r="J41" s="3">
+        <v>6258200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5157800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5238700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4986500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3912100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3816300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3713200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3312200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3375300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3587700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4089400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1692100</v>
+        <v>1691400</v>
       </c>
       <c r="E42" s="3">
-        <v>1629200</v>
+        <v>1664100</v>
       </c>
       <c r="F42" s="3">
-        <v>1447700</v>
+        <v>1602200</v>
       </c>
       <c r="G42" s="3">
-        <v>1296100</v>
+        <v>1423700</v>
       </c>
       <c r="H42" s="3">
-        <v>1518100</v>
+        <v>1274600</v>
       </c>
       <c r="I42" s="3">
-        <v>1241100</v>
+        <v>1493000</v>
       </c>
       <c r="J42" s="3">
+        <v>1220500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1022700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>918300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>761600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>847700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>793300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>708200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2022100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2800900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3328000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3899000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +2751,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37200</v>
+        <v>36100</v>
       </c>
       <c r="E47" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>19600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>20200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>16400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>18200</v>
+      </c>
+      <c r="L47" s="3">
+        <v>27400</v>
+      </c>
+      <c r="M47" s="3">
+        <v>21000</v>
+      </c>
+      <c r="N47" s="3">
         <v>19900</v>
       </c>
-      <c r="F47" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>16000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>16700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>17400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>18200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>27400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>21000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>19900</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1599700</v>
+        <v>1607200</v>
       </c>
       <c r="E48" s="3">
-        <v>1602500</v>
+        <v>1573300</v>
       </c>
       <c r="F48" s="3">
-        <v>1617100</v>
+        <v>1576000</v>
       </c>
       <c r="G48" s="3">
-        <v>1600700</v>
+        <v>1590300</v>
       </c>
       <c r="H48" s="3">
-        <v>1661100</v>
+        <v>1574200</v>
       </c>
       <c r="I48" s="3">
-        <v>1670800</v>
+        <v>1633600</v>
       </c>
       <c r="J48" s="3">
+        <v>1643200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1635600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1452400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1424200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1453100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1472500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1568500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1569200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1558900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1652800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>694500</v>
+        <v>708000</v>
       </c>
       <c r="E49" s="3">
-        <v>623700</v>
+        <v>683000</v>
       </c>
       <c r="F49" s="3">
-        <v>624800</v>
+        <v>613300</v>
       </c>
       <c r="G49" s="3">
-        <v>588900</v>
+        <v>614400</v>
       </c>
       <c r="H49" s="3">
-        <v>571100</v>
+        <v>579200</v>
       </c>
       <c r="I49" s="3">
-        <v>562300</v>
+        <v>561600</v>
       </c>
       <c r="J49" s="3">
+        <v>553000</v>
+      </c>
+      <c r="K49" s="3">
         <v>531400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>513500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>459600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>444200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>439000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>437400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>427800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>420300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>414300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>435900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6672700</v>
+        <v>6509000</v>
       </c>
       <c r="E52" s="3">
-        <v>7023900</v>
+        <v>6562200</v>
       </c>
       <c r="F52" s="3">
-        <v>7003400</v>
+        <v>6907600</v>
       </c>
       <c r="G52" s="3">
-        <v>6863600</v>
+        <v>6887500</v>
       </c>
       <c r="H52" s="3">
-        <v>6937500</v>
+        <v>6750000</v>
       </c>
       <c r="I52" s="3">
-        <v>6358700</v>
+        <v>6822700</v>
       </c>
       <c r="J52" s="3">
+        <v>6253400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6624100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6580200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5876500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5314100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5421200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5183100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5058300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5057200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5642600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6038400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>82018000</v>
+        <v>82414700</v>
       </c>
       <c r="E54" s="3">
-        <v>82085400</v>
+        <v>80660400</v>
       </c>
       <c r="F54" s="3">
-        <v>79705300</v>
+        <v>80726700</v>
       </c>
       <c r="G54" s="3">
-        <v>75908000</v>
+        <v>78386000</v>
       </c>
       <c r="H54" s="3">
-        <v>75031400</v>
+        <v>74651500</v>
       </c>
       <c r="I54" s="3">
-        <v>75317400</v>
+        <v>73789500</v>
       </c>
       <c r="J54" s="3">
+        <v>74070700</v>
+      </c>
+      <c r="K54" s="3">
         <v>73702600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72164900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66750100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64796100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65141000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68231600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68767200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70360000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71940200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76147700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3387,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122100</v>
+        <v>82500</v>
       </c>
       <c r="E59" s="3">
-        <v>132900</v>
+        <v>120100</v>
       </c>
       <c r="F59" s="3">
-        <v>108200</v>
+        <v>130700</v>
       </c>
       <c r="G59" s="3">
-        <v>47700</v>
+        <v>106400</v>
       </c>
       <c r="H59" s="3">
-        <v>22700</v>
+        <v>46900</v>
       </c>
       <c r="I59" s="3">
-        <v>33800</v>
+        <v>22300</v>
       </c>
       <c r="J59" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K59" s="3">
         <v>24400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>39600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,120 +3505,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1717000</v>
+        <v>1438600</v>
       </c>
       <c r="E61" s="3">
-        <v>1788400</v>
+        <v>1688600</v>
       </c>
       <c r="F61" s="3">
-        <v>1818100</v>
+        <v>1758800</v>
       </c>
       <c r="G61" s="3">
-        <v>1302300</v>
+        <v>1788000</v>
       </c>
       <c r="H61" s="3">
-        <v>1059400</v>
+        <v>1280700</v>
       </c>
       <c r="I61" s="3">
-        <v>1118900</v>
+        <v>1041800</v>
       </c>
       <c r="J61" s="3">
+        <v>1100400</v>
+      </c>
+      <c r="K61" s="3">
         <v>992000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1115900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1099000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1153800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1250000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>735500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>527800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>567000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>635100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>724100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>941700</v>
+        <v>979900</v>
       </c>
       <c r="E62" s="3">
-        <v>900300</v>
+        <v>926100</v>
       </c>
       <c r="F62" s="3">
-        <v>881900</v>
+        <v>885400</v>
       </c>
       <c r="G62" s="3">
-        <v>865000</v>
+        <v>867300</v>
       </c>
       <c r="H62" s="3">
-        <v>883400</v>
+        <v>850700</v>
       </c>
       <c r="I62" s="3">
-        <v>835700</v>
+        <v>868700</v>
       </c>
       <c r="J62" s="3">
+        <v>821800</v>
+      </c>
+      <c r="K62" s="3">
         <v>812400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>750400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>730600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>722300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>626900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>524200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>524000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>939800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>987300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71934800</v>
+        <v>72646100</v>
       </c>
       <c r="E66" s="3">
-        <v>72071200</v>
+        <v>70744100</v>
       </c>
       <c r="F66" s="3">
-        <v>69835700</v>
+        <v>70878200</v>
       </c>
       <c r="G66" s="3">
-        <v>65804100</v>
+        <v>68679800</v>
       </c>
       <c r="H66" s="3">
-        <v>64813300</v>
+        <v>64714900</v>
       </c>
       <c r="I66" s="3">
-        <v>65263900</v>
+        <v>63740500</v>
       </c>
       <c r="J66" s="3">
+        <v>64183600</v>
+      </c>
+      <c r="K66" s="3">
         <v>63957400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62566500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57689300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55721300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55974500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57462600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58203700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59781700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61630800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>65474900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3408700</v>
+        <v>-3499800</v>
       </c>
       <c r="E72" s="3">
-        <v>-3477800</v>
+        <v>-3352300</v>
       </c>
       <c r="F72" s="3">
-        <v>-3622400</v>
+        <v>-3420200</v>
       </c>
       <c r="G72" s="3">
-        <v>-3388300</v>
+        <v>-3562400</v>
       </c>
       <c r="H72" s="3">
-        <v>-3274100</v>
+        <v>-3332200</v>
       </c>
       <c r="I72" s="3">
-        <v>-3438700</v>
+        <v>-3219900</v>
       </c>
       <c r="J72" s="3">
+        <v>-3381800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3747100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10083100</v>
+        <v>9768600</v>
       </c>
       <c r="E76" s="3">
-        <v>10014200</v>
+        <v>9916200</v>
       </c>
       <c r="F76" s="3">
-        <v>9869600</v>
+        <v>9848500</v>
       </c>
       <c r="G76" s="3">
-        <v>10103900</v>
+        <v>9706200</v>
       </c>
       <c r="H76" s="3">
-        <v>10218100</v>
+        <v>9936600</v>
       </c>
       <c r="I76" s="3">
-        <v>10053500</v>
+        <v>10049000</v>
       </c>
       <c r="J76" s="3">
+        <v>9887100</v>
+      </c>
+      <c r="K76" s="3">
         <v>9745200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9598400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9060800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9074900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9166500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10769000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10563500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10578300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10309400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10672800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>52400</v>
+        <v>-31400</v>
       </c>
       <c r="E81" s="3">
-        <v>116700</v>
+        <v>51600</v>
       </c>
       <c r="F81" s="3">
-        <v>-13100</v>
+        <v>114700</v>
       </c>
       <c r="G81" s="3">
-        <v>6400</v>
+        <v>-12800</v>
       </c>
       <c r="H81" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I81" s="3">
         <v>5700</v>
       </c>
-      <c r="I81" s="3">
-        <v>71000</v>
-      </c>
       <c r="J81" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K81" s="3">
         <v>32900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-58000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>71900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-71800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48000</v>
+        <v>74700</v>
       </c>
       <c r="E83" s="3">
-        <v>45500</v>
+        <v>47200</v>
       </c>
       <c r="F83" s="3">
-        <v>45900</v>
+        <v>44800</v>
       </c>
       <c r="G83" s="3">
-        <v>60000</v>
+        <v>45100</v>
       </c>
       <c r="H83" s="3">
-        <v>45800</v>
+        <v>59000</v>
       </c>
       <c r="I83" s="3">
-        <v>45300</v>
+        <v>45000</v>
       </c>
       <c r="J83" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K83" s="3">
         <v>42400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>76900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>114000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>92900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-386400</v>
+        <v>2590100</v>
       </c>
       <c r="E89" s="3">
-        <v>3609100</v>
+        <v>-380000</v>
       </c>
       <c r="F89" s="3">
-        <v>850600</v>
+        <v>3549400</v>
       </c>
       <c r="G89" s="3">
-        <v>1903200</v>
+        <v>836500</v>
       </c>
       <c r="H89" s="3">
-        <v>-1251500</v>
+        <v>1871700</v>
       </c>
       <c r="I89" s="3">
-        <v>700200</v>
+        <v>-1230800</v>
       </c>
       <c r="J89" s="3">
+        <v>688700</v>
+      </c>
+      <c r="K89" s="3">
         <v>744800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1229300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1608400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>174300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-870300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-999700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-582700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-135700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55000</v>
+        <v>-27500</v>
       </c>
       <c r="E91" s="3">
-        <v>-40600</v>
+        <v>-54100</v>
       </c>
       <c r="F91" s="3">
-        <v>-67400</v>
+        <v>-39900</v>
       </c>
       <c r="G91" s="3">
-        <v>-101000</v>
+        <v>-66300</v>
       </c>
       <c r="H91" s="3">
-        <v>-33800</v>
+        <v>-99400</v>
       </c>
       <c r="I91" s="3">
-        <v>-103800</v>
+        <v>-33300</v>
       </c>
       <c r="J91" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-54100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-73800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-71400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-65900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>83900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-639000</v>
+        <v>779400</v>
       </c>
       <c r="E94" s="3">
-        <v>-828100</v>
+        <v>-628400</v>
       </c>
       <c r="F94" s="3">
-        <v>-606300</v>
+        <v>-814400</v>
       </c>
       <c r="G94" s="3">
-        <v>-323000</v>
+        <v>-596300</v>
       </c>
       <c r="H94" s="3">
-        <v>-105000</v>
+        <v>-317700</v>
       </c>
       <c r="I94" s="3">
-        <v>242300</v>
+        <v>-103300</v>
       </c>
       <c r="J94" s="3">
+        <v>238300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-628400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-509700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>46200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>414000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1357200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1043800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>651700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>88900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1075700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31400</v>
+        <v>-342900</v>
       </c>
       <c r="E100" s="3">
-        <v>-62700</v>
+        <v>-30900</v>
       </c>
       <c r="F100" s="3">
-        <v>494900</v>
+        <v>-61600</v>
       </c>
       <c r="G100" s="3">
-        <v>213600</v>
+        <v>486700</v>
       </c>
       <c r="H100" s="3">
-        <v>-78100</v>
+        <v>210000</v>
       </c>
       <c r="I100" s="3">
-        <v>107500</v>
+        <v>-76800</v>
       </c>
       <c r="J100" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-158000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-77000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-81900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-171400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>536300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>208900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-50000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-62800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>360300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>900</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="L101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>10700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>25100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-15300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1055900</v>
+        <v>3027400</v>
       </c>
       <c r="E102" s="3">
-        <v>2716500</v>
+        <v>-1038400</v>
       </c>
       <c r="F102" s="3">
-        <v>749900</v>
+        <v>2671500</v>
       </c>
       <c r="G102" s="3">
-        <v>1798300</v>
+        <v>737500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1434000</v>
+        <v>1768500</v>
       </c>
       <c r="I102" s="3">
-        <v>1075100</v>
+        <v>-1410200</v>
       </c>
       <c r="J102" s="3">
+        <v>1057300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-57600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-67400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1017800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>53200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>83400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>559000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-105900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-112200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-16900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>774500</v>
+        <v>648900</v>
       </c>
       <c r="E8" s="3">
-        <v>531300</v>
+        <v>806500</v>
       </c>
       <c r="F8" s="3">
-        <v>567100</v>
+        <v>553200</v>
       </c>
       <c r="G8" s="3">
-        <v>566200</v>
+        <v>590600</v>
       </c>
       <c r="H8" s="3">
-        <v>680100</v>
+        <v>619000</v>
       </c>
       <c r="I8" s="3">
-        <v>585800</v>
+        <v>708200</v>
       </c>
       <c r="J8" s="3">
+        <v>610000</v>
+      </c>
+      <c r="K8" s="3">
         <v>606300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>619000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>659100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>614400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>635700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>644900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>692800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>701400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>717600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>709200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>735200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-54400</v>
+        <v>-52800</v>
       </c>
       <c r="E15" s="3">
-        <v>-46200</v>
+        <v>-56700</v>
       </c>
       <c r="F15" s="3">
-        <v>-45100</v>
+        <v>-48100</v>
       </c>
       <c r="G15" s="3">
-        <v>-44200</v>
+        <v>-47000</v>
       </c>
       <c r="H15" s="3">
-        <v>-43900</v>
+        <v>-46000</v>
       </c>
       <c r="I15" s="3">
-        <v>-41600</v>
+        <v>-45700</v>
       </c>
       <c r="J15" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-43200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-42100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-62000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-57400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-54900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-54800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-27300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-27600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-28500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-27100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>986500</v>
+        <v>644600</v>
       </c>
       <c r="E17" s="3">
-        <v>282800</v>
+        <v>1027300</v>
       </c>
       <c r="F17" s="3">
-        <v>418400</v>
+        <v>294500</v>
       </c>
       <c r="G17" s="3">
-        <v>490100</v>
+        <v>435700</v>
       </c>
       <c r="H17" s="3">
-        <v>519800</v>
+        <v>539700</v>
       </c>
       <c r="I17" s="3">
-        <v>446300</v>
+        <v>541300</v>
       </c>
       <c r="J17" s="3">
+        <v>464800</v>
+      </c>
+      <c r="K17" s="3">
         <v>448700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>418100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1003300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>489200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>523500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>533900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>428200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>489700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>406900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>444700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>542300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-212000</v>
+        <v>4300</v>
       </c>
       <c r="E18" s="3">
-        <v>248500</v>
+        <v>-220700</v>
       </c>
       <c r="F18" s="3">
-        <v>148700</v>
+        <v>258700</v>
       </c>
       <c r="G18" s="3">
-        <v>76100</v>
+        <v>154900</v>
       </c>
       <c r="H18" s="3">
-        <v>160300</v>
+        <v>79300</v>
       </c>
       <c r="I18" s="3">
-        <v>139500</v>
+        <v>166900</v>
       </c>
       <c r="J18" s="3">
+        <v>145300</v>
+      </c>
+      <c r="K18" s="3">
         <v>157600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>201000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-344200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>125200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>111000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>264600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>211600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>310700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>264500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>192900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>180100</v>
+        <v>-321200</v>
       </c>
       <c r="E20" s="3">
-        <v>-158600</v>
+        <v>187500</v>
       </c>
       <c r="F20" s="3">
-        <v>-61500</v>
+        <v>-165100</v>
       </c>
       <c r="G20" s="3">
-        <v>-87200</v>
+        <v>-64000</v>
       </c>
       <c r="H20" s="3">
-        <v>-140800</v>
+        <v>-93600</v>
       </c>
       <c r="I20" s="3">
-        <v>-115300</v>
+        <v>-146700</v>
       </c>
       <c r="J20" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-77600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-139900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-191900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-58400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-118800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-362000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-125100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-199100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-180000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-267300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42800</v>
+        <v>-213400</v>
       </c>
       <c r="E21" s="3">
-        <v>137100</v>
+        <v>44600</v>
       </c>
       <c r="F21" s="3">
-        <v>132000</v>
+        <v>142700</v>
       </c>
       <c r="G21" s="3">
-        <v>34100</v>
+        <v>137500</v>
       </c>
       <c r="H21" s="3">
-        <v>78500</v>
+        <v>32700</v>
       </c>
       <c r="I21" s="3">
-        <v>69300</v>
+        <v>81700</v>
       </c>
       <c r="J21" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K21" s="3">
         <v>124600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>103400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-459100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>96300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>147800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>114500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>140100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>117000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-31900</v>
+        <v>-316900</v>
       </c>
       <c r="E23" s="3">
-        <v>89900</v>
+        <v>-33200</v>
       </c>
       <c r="F23" s="3">
-        <v>87200</v>
+        <v>93600</v>
       </c>
       <c r="G23" s="3">
-        <v>-11100</v>
+        <v>90800</v>
       </c>
       <c r="H23" s="3">
-        <v>19400</v>
+        <v>-14200</v>
       </c>
       <c r="I23" s="3">
-        <v>24300</v>
+        <v>20200</v>
       </c>
       <c r="J23" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K23" s="3">
         <v>80100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-536100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>66800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>120300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-97300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>86500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>111600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>84500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-74400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
-        <v>38300</v>
-      </c>
       <c r="F24" s="3">
-        <v>-27500</v>
+        <v>39900</v>
       </c>
       <c r="G24" s="3">
-        <v>1700</v>
+        <v>-28700</v>
       </c>
       <c r="H24" s="3">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="I24" s="3">
-        <v>18800</v>
+        <v>3200</v>
       </c>
       <c r="J24" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K24" s="3">
         <v>10200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-535200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>48500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-72500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31300</v>
+        <v>-345600</v>
       </c>
       <c r="E26" s="3">
-        <v>51600</v>
+        <v>-32600</v>
       </c>
       <c r="F26" s="3">
-        <v>114800</v>
+        <v>53800</v>
       </c>
       <c r="G26" s="3">
-        <v>-12800</v>
+        <v>119500</v>
       </c>
       <c r="H26" s="3">
-        <v>16300</v>
+        <v>-15300</v>
       </c>
       <c r="I26" s="3">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="J26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K26" s="3">
         <v>69800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-58000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>71800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>79400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31400</v>
+        <v>-345700</v>
       </c>
       <c r="E27" s="3">
-        <v>51600</v>
+        <v>-32700</v>
       </c>
       <c r="F27" s="3">
-        <v>114700</v>
+        <v>53700</v>
       </c>
       <c r="G27" s="3">
-        <v>-12800</v>
+        <v>119500</v>
       </c>
       <c r="H27" s="3">
-        <v>16100</v>
+        <v>-15400</v>
       </c>
       <c r="I27" s="3">
-        <v>5700</v>
+        <v>16700</v>
       </c>
       <c r="J27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K27" s="3">
         <v>69800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-58000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>71900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>79400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>53000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,38 +1967,41 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-77800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>25500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-180100</v>
+        <v>321200</v>
       </c>
       <c r="E32" s="3">
-        <v>158600</v>
+        <v>-187500</v>
       </c>
       <c r="F32" s="3">
-        <v>61500</v>
+        <v>165100</v>
       </c>
       <c r="G32" s="3">
-        <v>87200</v>
+        <v>64000</v>
       </c>
       <c r="H32" s="3">
-        <v>140800</v>
+        <v>93600</v>
       </c>
       <c r="I32" s="3">
-        <v>115300</v>
+        <v>146700</v>
       </c>
       <c r="J32" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K32" s="3">
         <v>77600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>139900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>191900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>58400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>118800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>362000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>125100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>199100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>180000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>267300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31400</v>
+        <v>-345700</v>
       </c>
       <c r="E33" s="3">
-        <v>51600</v>
+        <v>-32700</v>
       </c>
       <c r="F33" s="3">
-        <v>114700</v>
+        <v>53700</v>
       </c>
       <c r="G33" s="3">
-        <v>-12800</v>
+        <v>119500</v>
       </c>
       <c r="H33" s="3">
-        <v>16100</v>
+        <v>-15400</v>
       </c>
       <c r="I33" s="3">
-        <v>5700</v>
+        <v>16700</v>
       </c>
       <c r="J33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K33" s="3">
         <v>69800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-58000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>71900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>54000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31400</v>
+        <v>-345700</v>
       </c>
       <c r="E35" s="3">
-        <v>51600</v>
+        <v>-32700</v>
       </c>
       <c r="F35" s="3">
-        <v>114700</v>
+        <v>53700</v>
       </c>
       <c r="G35" s="3">
-        <v>-12800</v>
+        <v>119500</v>
       </c>
       <c r="H35" s="3">
-        <v>16100</v>
+        <v>-15400</v>
       </c>
       <c r="I35" s="3">
-        <v>5700</v>
+        <v>16700</v>
       </c>
       <c r="J35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K35" s="3">
         <v>69800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-58000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>71900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>54000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12006200</v>
+        <v>14366700</v>
       </c>
       <c r="E41" s="3">
-        <v>9279100</v>
+        <v>12502100</v>
       </c>
       <c r="F41" s="3">
-        <v>10175800</v>
+        <v>9662400</v>
       </c>
       <c r="G41" s="3">
-        <v>8682600</v>
+        <v>10596100</v>
       </c>
       <c r="H41" s="3">
-        <v>6306700</v>
+        <v>9041200</v>
       </c>
       <c r="I41" s="3">
-        <v>5227500</v>
+        <v>6567200</v>
       </c>
       <c r="J41" s="3">
+        <v>5443500</v>
+      </c>
+      <c r="K41" s="3">
         <v>6258200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5157800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5238700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4986500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3912100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3816300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3713200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3312200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3375300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3587700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4089400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1691400</v>
+        <v>1552300</v>
       </c>
       <c r="E42" s="3">
-        <v>1664100</v>
+        <v>1761200</v>
       </c>
       <c r="F42" s="3">
-        <v>1602200</v>
+        <v>1732900</v>
       </c>
       <c r="G42" s="3">
-        <v>1423700</v>
+        <v>1668400</v>
       </c>
       <c r="H42" s="3">
-        <v>1274600</v>
+        <v>1482500</v>
       </c>
       <c r="I42" s="3">
-        <v>1493000</v>
+        <v>1327300</v>
       </c>
       <c r="J42" s="3">
+        <v>1554700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1220500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1022700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>918300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>761600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>847700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>793300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>708200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2022100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2800900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3328000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3899000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,25 +2856,28 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36100</v>
+        <v>37400</v>
       </c>
       <c r="E47" s="3">
-        <v>36600</v>
+        <v>37600</v>
       </c>
       <c r="F47" s="3">
-        <v>19600</v>
+        <v>38100</v>
       </c>
       <c r="G47" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="H47" s="3">
-        <v>15700</v>
+        <v>21000</v>
       </c>
       <c r="I47" s="3">
         <v>16400</v>
@@ -2781,158 +2886,167 @@
         <v>17100</v>
       </c>
       <c r="K47" s="3">
+        <v>17100</v>
+      </c>
+      <c r="L47" s="3">
         <v>18200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>23800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1607200</v>
+        <v>1641600</v>
       </c>
       <c r="E48" s="3">
-        <v>1573300</v>
+        <v>1673600</v>
       </c>
       <c r="F48" s="3">
-        <v>1576000</v>
+        <v>1638200</v>
       </c>
       <c r="G48" s="3">
-        <v>1590300</v>
+        <v>1641100</v>
       </c>
       <c r="H48" s="3">
-        <v>1574200</v>
+        <v>1656000</v>
       </c>
       <c r="I48" s="3">
-        <v>1633600</v>
+        <v>1639200</v>
       </c>
       <c r="J48" s="3">
+        <v>1701100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1643200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1635600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1452400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1424200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1453100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1472500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1568500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1569200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1558900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1652800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>708000</v>
+        <v>674100</v>
       </c>
       <c r="E49" s="3">
-        <v>683000</v>
+        <v>737200</v>
       </c>
       <c r="F49" s="3">
-        <v>613300</v>
+        <v>711200</v>
       </c>
       <c r="G49" s="3">
-        <v>614400</v>
+        <v>638700</v>
       </c>
       <c r="H49" s="3">
-        <v>579200</v>
+        <v>639800</v>
       </c>
       <c r="I49" s="3">
-        <v>561600</v>
+        <v>603100</v>
       </c>
       <c r="J49" s="3">
+        <v>584800</v>
+      </c>
+      <c r="K49" s="3">
         <v>553000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>531400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>513500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>459600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>444200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>439000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>437400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>427800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>420300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>414300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>435900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6509000</v>
+        <v>6633400</v>
       </c>
       <c r="E52" s="3">
-        <v>6562200</v>
+        <v>6777800</v>
       </c>
       <c r="F52" s="3">
-        <v>6907600</v>
+        <v>6833300</v>
       </c>
       <c r="G52" s="3">
-        <v>6887500</v>
+        <v>7192900</v>
       </c>
       <c r="H52" s="3">
-        <v>6750000</v>
+        <v>7172000</v>
       </c>
       <c r="I52" s="3">
-        <v>6822700</v>
+        <v>7028800</v>
       </c>
       <c r="J52" s="3">
+        <v>7104500</v>
+      </c>
+      <c r="K52" s="3">
         <v>6253400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6624100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6580200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5876500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5314100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5421200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5183100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5058300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5057200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5642600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6038400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>82414700</v>
+        <v>87180400</v>
       </c>
       <c r="E54" s="3">
-        <v>80660400</v>
+        <v>85818800</v>
       </c>
       <c r="F54" s="3">
-        <v>80726700</v>
+        <v>83992000</v>
       </c>
       <c r="G54" s="3">
-        <v>78386000</v>
+        <v>84061000</v>
       </c>
       <c r="H54" s="3">
-        <v>74651500</v>
+        <v>81623700</v>
       </c>
       <c r="I54" s="3">
-        <v>73789500</v>
+        <v>77735000</v>
       </c>
       <c r="J54" s="3">
+        <v>76837300</v>
+      </c>
+      <c r="K54" s="3">
         <v>74070700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73702600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72164900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66750100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>64796100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65141000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68231600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68767200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70360000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71940200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76147700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,67 +3524,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82500</v>
+        <v>101700</v>
       </c>
       <c r="E59" s="3">
-        <v>120100</v>
+        <v>85900</v>
       </c>
       <c r="F59" s="3">
-        <v>130700</v>
+        <v>125100</v>
       </c>
       <c r="G59" s="3">
-        <v>106400</v>
+        <v>136100</v>
       </c>
       <c r="H59" s="3">
-        <v>46900</v>
+        <v>110800</v>
       </c>
       <c r="I59" s="3">
-        <v>22300</v>
+        <v>48800</v>
       </c>
       <c r="J59" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K59" s="3">
         <v>33200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>44500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>39200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>39600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,126 +3648,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1438600</v>
+        <v>2056400</v>
       </c>
       <c r="E61" s="3">
-        <v>1688600</v>
+        <v>1498000</v>
       </c>
       <c r="F61" s="3">
-        <v>1758800</v>
+        <v>1758400</v>
       </c>
       <c r="G61" s="3">
-        <v>1788000</v>
+        <v>1831500</v>
       </c>
       <c r="H61" s="3">
-        <v>1280700</v>
+        <v>1861900</v>
       </c>
       <c r="I61" s="3">
-        <v>1041800</v>
+        <v>1333600</v>
       </c>
       <c r="J61" s="3">
+        <v>1084900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1100400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>992000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1115900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1099000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1153800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1250000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>735500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>527800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>567000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>635100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>724100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>979900</v>
+        <v>1189700</v>
       </c>
       <c r="E62" s="3">
-        <v>926100</v>
+        <v>1020400</v>
       </c>
       <c r="F62" s="3">
-        <v>885400</v>
+        <v>964300</v>
       </c>
       <c r="G62" s="3">
-        <v>867300</v>
+        <v>922000</v>
       </c>
       <c r="H62" s="3">
-        <v>850700</v>
+        <v>903100</v>
       </c>
       <c r="I62" s="3">
-        <v>868700</v>
+        <v>885800</v>
       </c>
       <c r="J62" s="3">
+        <v>904600</v>
+      </c>
+      <c r="K62" s="3">
         <v>821800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>812400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>750400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>730600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>722300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>626900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>524200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>524000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>939800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>987300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72646100</v>
+        <v>77430500</v>
       </c>
       <c r="E66" s="3">
-        <v>70744100</v>
+        <v>75646700</v>
       </c>
       <c r="F66" s="3">
-        <v>70878200</v>
+        <v>73666200</v>
       </c>
       <c r="G66" s="3">
-        <v>68679800</v>
+        <v>73805800</v>
       </c>
       <c r="H66" s="3">
-        <v>64714900</v>
+        <v>71516500</v>
       </c>
       <c r="I66" s="3">
-        <v>63740500</v>
+        <v>67387900</v>
       </c>
       <c r="J66" s="3">
+        <v>66373200</v>
+      </c>
+      <c r="K66" s="3">
         <v>64183600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63957400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62566500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57689300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55721300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55974500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57462600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58203700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59781700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61630800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>65474900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3499800</v>
+        <v>-4069000</v>
       </c>
       <c r="E72" s="3">
-        <v>-3352300</v>
+        <v>-3644400</v>
       </c>
       <c r="F72" s="3">
-        <v>-3420200</v>
+        <v>-3490800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3562400</v>
+        <v>-3561500</v>
       </c>
       <c r="H72" s="3">
-        <v>-3332200</v>
+        <v>-3709600</v>
       </c>
       <c r="I72" s="3">
-        <v>-3219900</v>
+        <v>-3469900</v>
       </c>
       <c r="J72" s="3">
+        <v>-3352900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3747100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9768600</v>
+        <v>9750000</v>
       </c>
       <c r="E76" s="3">
-        <v>9916200</v>
+        <v>10172100</v>
       </c>
       <c r="F76" s="3">
-        <v>9848500</v>
+        <v>10325800</v>
       </c>
       <c r="G76" s="3">
-        <v>9706200</v>
+        <v>10255200</v>
       </c>
       <c r="H76" s="3">
-        <v>9936600</v>
+        <v>10107100</v>
       </c>
       <c r="I76" s="3">
-        <v>10049000</v>
+        <v>10347000</v>
       </c>
       <c r="J76" s="3">
+        <v>10464100</v>
+      </c>
+      <c r="K76" s="3">
         <v>9887100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9745200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9598400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9060800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9074900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9166500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10769000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10563500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10578300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10309400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10672800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31400</v>
+        <v>-345700</v>
       </c>
       <c r="E81" s="3">
-        <v>51600</v>
+        <v>-32700</v>
       </c>
       <c r="F81" s="3">
-        <v>114700</v>
+        <v>53700</v>
       </c>
       <c r="G81" s="3">
-        <v>-12800</v>
+        <v>119500</v>
       </c>
       <c r="H81" s="3">
-        <v>16100</v>
+        <v>-15400</v>
       </c>
       <c r="I81" s="3">
-        <v>5700</v>
+        <v>16700</v>
       </c>
       <c r="J81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K81" s="3">
         <v>69800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-58000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>71900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>54000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74700</v>
+        <v>103500</v>
       </c>
       <c r="E83" s="3">
-        <v>47200</v>
+        <v>77800</v>
       </c>
       <c r="F83" s="3">
-        <v>44800</v>
+        <v>49100</v>
       </c>
       <c r="G83" s="3">
-        <v>45100</v>
+        <v>46600</v>
       </c>
       <c r="H83" s="3">
-        <v>59000</v>
+        <v>47000</v>
       </c>
       <c r="I83" s="3">
-        <v>45000</v>
+        <v>61500</v>
       </c>
       <c r="J83" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K83" s="3">
         <v>44500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>76900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>114000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>92900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2590100</v>
+        <v>1656200</v>
       </c>
       <c r="E89" s="3">
-        <v>-380000</v>
+        <v>2697100</v>
       </c>
       <c r="F89" s="3">
-        <v>3549400</v>
+        <v>-395700</v>
       </c>
       <c r="G89" s="3">
-        <v>836500</v>
+        <v>3696000</v>
       </c>
       <c r="H89" s="3">
-        <v>1871700</v>
+        <v>871100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1230800</v>
+        <v>1949000</v>
       </c>
       <c r="J89" s="3">
+        <v>-1281600</v>
+      </c>
+      <c r="K89" s="3">
         <v>688700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>744800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1229300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1608400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>174300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-870300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-999700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-582700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-135700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27500</v>
+        <v>-33200</v>
       </c>
       <c r="E91" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-54100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-39900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-66300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-99400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-33300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-102100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-73800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-71400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-65900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>83900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>779400</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
+        <v>811600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-654300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-848000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-620900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-330800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-107500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>238300</v>
+      </c>
+      <c r="L94" s="3">
         <v>-628400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-814400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-596300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-317700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-103300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>238300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-628400</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-509700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>46200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>414000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1357200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1043800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>651700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>88900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1075700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-342900</v>
+        <v>543800</v>
       </c>
       <c r="E100" s="3">
-        <v>-30900</v>
+        <v>-357100</v>
       </c>
       <c r="F100" s="3">
-        <v>-61600</v>
+        <v>-32200</v>
       </c>
       <c r="G100" s="3">
-        <v>486700</v>
+        <v>-64200</v>
       </c>
       <c r="H100" s="3">
-        <v>210000</v>
+        <v>506800</v>
       </c>
       <c r="I100" s="3">
-        <v>-76800</v>
+        <v>218700</v>
       </c>
       <c r="J100" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="K100" s="3">
         <v>105700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-158000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-77000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-81900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-171400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>536300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>208900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-36100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-50000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-62800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>360300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>900</v>
-      </c>
       <c r="F101" s="3">
-        <v>-1900</v>
+        <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>10600</v>
+        <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>4400</v>
+        <v>11000</v>
       </c>
       <c r="I101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>24700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-15300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3027400</v>
+        <v>2204100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1038400</v>
+        <v>3152400</v>
       </c>
       <c r="F102" s="3">
-        <v>2671500</v>
+        <v>-1081300</v>
       </c>
       <c r="G102" s="3">
-        <v>737500</v>
+        <v>2781900</v>
       </c>
       <c r="H102" s="3">
-        <v>1768500</v>
+        <v>768000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1410200</v>
+        <v>1841500</v>
       </c>
       <c r="J102" s="3">
+        <v>-1468500</v>
+      </c>
+      <c r="K102" s="3">
         <v>1057300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-57600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-67400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1017800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>53200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>83400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>559000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-20100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-105900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-112200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>648900</v>
+        <v>618400</v>
       </c>
       <c r="E8" s="3">
-        <v>806500</v>
+        <v>768600</v>
       </c>
       <c r="F8" s="3">
-        <v>553200</v>
+        <v>527200</v>
       </c>
       <c r="G8" s="3">
-        <v>590600</v>
+        <v>562800</v>
       </c>
       <c r="H8" s="3">
-        <v>619000</v>
+        <v>589900</v>
       </c>
       <c r="I8" s="3">
-        <v>708200</v>
+        <v>674900</v>
       </c>
       <c r="J8" s="3">
-        <v>610000</v>
+        <v>581400</v>
       </c>
       <c r="K8" s="3">
         <v>606300</v>
@@ -1155,25 +1155,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-52800</v>
+        <v>-50300</v>
       </c>
       <c r="E15" s="3">
-        <v>-56700</v>
+        <v>-54000</v>
       </c>
       <c r="F15" s="3">
-        <v>-48100</v>
+        <v>-45800</v>
       </c>
       <c r="G15" s="3">
-        <v>-47000</v>
+        <v>-44800</v>
       </c>
       <c r="H15" s="3">
-        <v>-46000</v>
+        <v>-43800</v>
       </c>
       <c r="I15" s="3">
-        <v>-45700</v>
+        <v>-43500</v>
       </c>
       <c r="J15" s="3">
-        <v>-43300</v>
+        <v>-41300</v>
       </c>
       <c r="K15" s="3">
         <v>-43200</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>644600</v>
+        <v>614300</v>
       </c>
       <c r="E17" s="3">
-        <v>1027300</v>
+        <v>979000</v>
       </c>
       <c r="F17" s="3">
-        <v>294500</v>
+        <v>280600</v>
       </c>
       <c r="G17" s="3">
-        <v>435700</v>
+        <v>415200</v>
       </c>
       <c r="H17" s="3">
-        <v>539700</v>
+        <v>514300</v>
       </c>
       <c r="I17" s="3">
-        <v>541300</v>
+        <v>515800</v>
       </c>
       <c r="J17" s="3">
-        <v>464800</v>
+        <v>442900</v>
       </c>
       <c r="K17" s="3">
         <v>448700</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E18" s="3">
-        <v>-220700</v>
+        <v>-210400</v>
       </c>
       <c r="F18" s="3">
-        <v>258700</v>
+        <v>246600</v>
       </c>
       <c r="G18" s="3">
-        <v>154900</v>
+        <v>147600</v>
       </c>
       <c r="H18" s="3">
-        <v>79300</v>
+        <v>75600</v>
       </c>
       <c r="I18" s="3">
-        <v>166900</v>
+        <v>159100</v>
       </c>
       <c r="J18" s="3">
-        <v>145300</v>
+        <v>138400</v>
       </c>
       <c r="K18" s="3">
         <v>157600</v>
@@ -1386,25 +1386,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-321200</v>
+        <v>-306100</v>
       </c>
       <c r="E20" s="3">
-        <v>187500</v>
+        <v>178700</v>
       </c>
       <c r="F20" s="3">
-        <v>-165100</v>
+        <v>-157400</v>
       </c>
       <c r="G20" s="3">
-        <v>-64000</v>
+        <v>-61000</v>
       </c>
       <c r="H20" s="3">
-        <v>-93600</v>
+        <v>-89200</v>
       </c>
       <c r="I20" s="3">
-        <v>-146700</v>
+        <v>-139800</v>
       </c>
       <c r="J20" s="3">
-        <v>-120000</v>
+        <v>-114400</v>
       </c>
       <c r="K20" s="3">
         <v>-77600</v>
@@ -1448,25 +1448,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-213400</v>
+        <v>-203400</v>
       </c>
       <c r="E21" s="3">
-        <v>44600</v>
+        <v>42500</v>
       </c>
       <c r="F21" s="3">
-        <v>142700</v>
+        <v>136000</v>
       </c>
       <c r="G21" s="3">
-        <v>137500</v>
+        <v>131000</v>
       </c>
       <c r="H21" s="3">
-        <v>32700</v>
+        <v>31200</v>
       </c>
       <c r="I21" s="3">
-        <v>81700</v>
+        <v>77900</v>
       </c>
       <c r="J21" s="3">
-        <v>72200</v>
+        <v>68800</v>
       </c>
       <c r="K21" s="3">
         <v>124600</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-316900</v>
+        <v>-302000</v>
       </c>
       <c r="E23" s="3">
-        <v>-33200</v>
+        <v>-31600</v>
       </c>
       <c r="F23" s="3">
-        <v>93600</v>
+        <v>89200</v>
       </c>
       <c r="G23" s="3">
-        <v>90800</v>
+        <v>86600</v>
       </c>
       <c r="H23" s="3">
-        <v>-14200</v>
+        <v>-13600</v>
       </c>
       <c r="I23" s="3">
-        <v>20200</v>
+        <v>19300</v>
       </c>
       <c r="J23" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="K23" s="3">
         <v>80100</v>
@@ -1634,25 +1634,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28700</v>
+        <v>27300</v>
       </c>
       <c r="E24" s="3">
         <v>-600</v>
       </c>
       <c r="F24" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="G24" s="3">
-        <v>-28700</v>
+        <v>-27300</v>
       </c>
       <c r="H24" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J24" s="3">
-        <v>19500</v>
+        <v>18600</v>
       </c>
       <c r="K24" s="3">
         <v>10200</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-345600</v>
+        <v>-329300</v>
       </c>
       <c r="E26" s="3">
-        <v>-32600</v>
+        <v>-31100</v>
       </c>
       <c r="F26" s="3">
-        <v>53800</v>
+        <v>51200</v>
       </c>
       <c r="G26" s="3">
-        <v>119500</v>
+        <v>113900</v>
       </c>
       <c r="H26" s="3">
-        <v>-15300</v>
+        <v>-14600</v>
       </c>
       <c r="I26" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="J26" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K26" s="3">
         <v>69800</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-345700</v>
+        <v>-329500</v>
       </c>
       <c r="E27" s="3">
-        <v>-32700</v>
+        <v>-31200</v>
       </c>
       <c r="F27" s="3">
-        <v>53700</v>
+        <v>51200</v>
       </c>
       <c r="G27" s="3">
-        <v>119500</v>
+        <v>113900</v>
       </c>
       <c r="H27" s="3">
-        <v>-15400</v>
+        <v>-14700</v>
       </c>
       <c r="I27" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="J27" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="K27" s="3">
         <v>69800</v>
@@ -2130,25 +2130,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>321200</v>
+        <v>306100</v>
       </c>
       <c r="E32" s="3">
-        <v>-187500</v>
+        <v>-178700</v>
       </c>
       <c r="F32" s="3">
-        <v>165100</v>
+        <v>157400</v>
       </c>
       <c r="G32" s="3">
-        <v>64000</v>
+        <v>61000</v>
       </c>
       <c r="H32" s="3">
-        <v>93600</v>
+        <v>89200</v>
       </c>
       <c r="I32" s="3">
-        <v>146700</v>
+        <v>139800</v>
       </c>
       <c r="J32" s="3">
-        <v>120000</v>
+        <v>114400</v>
       </c>
       <c r="K32" s="3">
         <v>77600</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-345700</v>
+        <v>-329500</v>
       </c>
       <c r="E33" s="3">
-        <v>-32700</v>
+        <v>-31200</v>
       </c>
       <c r="F33" s="3">
-        <v>53700</v>
+        <v>51200</v>
       </c>
       <c r="G33" s="3">
-        <v>119500</v>
+        <v>113900</v>
       </c>
       <c r="H33" s="3">
-        <v>-15400</v>
+        <v>-14700</v>
       </c>
       <c r="I33" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="J33" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="K33" s="3">
         <v>69800</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-345700</v>
+        <v>-329500</v>
       </c>
       <c r="E35" s="3">
-        <v>-32700</v>
+        <v>-31200</v>
       </c>
       <c r="F35" s="3">
-        <v>53700</v>
+        <v>51200</v>
       </c>
       <c r="G35" s="3">
-        <v>119500</v>
+        <v>113900</v>
       </c>
       <c r="H35" s="3">
-        <v>-15400</v>
+        <v>-14700</v>
       </c>
       <c r="I35" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="J35" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="K35" s="3">
         <v>69800</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14366700</v>
+        <v>13691400</v>
       </c>
       <c r="E41" s="3">
-        <v>12502100</v>
+        <v>11914400</v>
       </c>
       <c r="F41" s="3">
-        <v>9662400</v>
+        <v>9208200</v>
       </c>
       <c r="G41" s="3">
-        <v>10596100</v>
+        <v>10098000</v>
       </c>
       <c r="H41" s="3">
-        <v>9041200</v>
+        <v>8616200</v>
       </c>
       <c r="I41" s="3">
-        <v>6567200</v>
+        <v>6258500</v>
       </c>
       <c r="J41" s="3">
-        <v>5443500</v>
+        <v>5187600</v>
       </c>
       <c r="K41" s="3">
         <v>6258200</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1552300</v>
+        <v>1479300</v>
       </c>
       <c r="E42" s="3">
-        <v>1761200</v>
+        <v>1678500</v>
       </c>
       <c r="F42" s="3">
-        <v>1732900</v>
+        <v>1651400</v>
       </c>
       <c r="G42" s="3">
-        <v>1668400</v>
+        <v>1590000</v>
       </c>
       <c r="H42" s="3">
-        <v>1482500</v>
+        <v>1412800</v>
       </c>
       <c r="I42" s="3">
-        <v>1327300</v>
+        <v>1264900</v>
       </c>
       <c r="J42" s="3">
-        <v>1554700</v>
+        <v>1481600</v>
       </c>
       <c r="K42" s="3">
         <v>1220500</v>
@@ -2865,25 +2865,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37400</v>
+        <v>35600</v>
       </c>
       <c r="E47" s="3">
-        <v>37600</v>
+        <v>35900</v>
       </c>
       <c r="F47" s="3">
-        <v>38100</v>
+        <v>36300</v>
       </c>
       <c r="G47" s="3">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="H47" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="I47" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="J47" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="K47" s="3">
         <v>17100</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1641600</v>
+        <v>1564400</v>
       </c>
       <c r="E48" s="3">
-        <v>1673600</v>
+        <v>1594900</v>
       </c>
       <c r="F48" s="3">
-        <v>1638200</v>
+        <v>1561200</v>
       </c>
       <c r="G48" s="3">
-        <v>1641100</v>
+        <v>1564000</v>
       </c>
       <c r="H48" s="3">
-        <v>1656000</v>
+        <v>1578100</v>
       </c>
       <c r="I48" s="3">
-        <v>1639200</v>
+        <v>1562200</v>
       </c>
       <c r="J48" s="3">
-        <v>1701100</v>
+        <v>1621100</v>
       </c>
       <c r="K48" s="3">
         <v>1643200</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>674100</v>
+        <v>642400</v>
       </c>
       <c r="E49" s="3">
-        <v>737200</v>
+        <v>702600</v>
       </c>
       <c r="F49" s="3">
-        <v>711200</v>
+        <v>677800</v>
       </c>
       <c r="G49" s="3">
-        <v>638700</v>
+        <v>608600</v>
       </c>
       <c r="H49" s="3">
-        <v>639800</v>
+        <v>609700</v>
       </c>
       <c r="I49" s="3">
-        <v>603100</v>
+        <v>574800</v>
       </c>
       <c r="J49" s="3">
-        <v>584800</v>
+        <v>557300</v>
       </c>
       <c r="K49" s="3">
         <v>553000</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6633400</v>
+        <v>6321600</v>
       </c>
       <c r="E52" s="3">
-        <v>6777800</v>
+        <v>6459200</v>
       </c>
       <c r="F52" s="3">
-        <v>6833300</v>
+        <v>6512100</v>
       </c>
       <c r="G52" s="3">
-        <v>7192900</v>
+        <v>6854800</v>
       </c>
       <c r="H52" s="3">
-        <v>7172000</v>
+        <v>6834800</v>
       </c>
       <c r="I52" s="3">
-        <v>7028800</v>
+        <v>6698400</v>
       </c>
       <c r="J52" s="3">
-        <v>7104500</v>
+        <v>6770600</v>
       </c>
       <c r="K52" s="3">
         <v>6253400</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>87180400</v>
+        <v>83082600</v>
       </c>
       <c r="E54" s="3">
-        <v>85818800</v>
+        <v>81784900</v>
       </c>
       <c r="F54" s="3">
-        <v>83992000</v>
+        <v>80044000</v>
       </c>
       <c r="G54" s="3">
-        <v>84061000</v>
+        <v>80109800</v>
       </c>
       <c r="H54" s="3">
-        <v>81623700</v>
+        <v>77787000</v>
       </c>
       <c r="I54" s="3">
-        <v>77735000</v>
+        <v>74081100</v>
       </c>
       <c r="J54" s="3">
-        <v>76837300</v>
+        <v>73225600</v>
       </c>
       <c r="K54" s="3">
         <v>74070700</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>101700</v>
+        <v>96900</v>
       </c>
       <c r="E59" s="3">
-        <v>85900</v>
+        <v>81900</v>
       </c>
       <c r="F59" s="3">
-        <v>125100</v>
+        <v>119200</v>
       </c>
       <c r="G59" s="3">
-        <v>136100</v>
+        <v>129700</v>
       </c>
       <c r="H59" s="3">
-        <v>110800</v>
+        <v>105600</v>
       </c>
       <c r="I59" s="3">
-        <v>48800</v>
+        <v>46500</v>
       </c>
       <c r="J59" s="3">
-        <v>23200</v>
+        <v>22100</v>
       </c>
       <c r="K59" s="3">
         <v>33200</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2056400</v>
+        <v>1959700</v>
       </c>
       <c r="E61" s="3">
-        <v>1498000</v>
+        <v>1427600</v>
       </c>
       <c r="F61" s="3">
-        <v>1758400</v>
+        <v>1675700</v>
       </c>
       <c r="G61" s="3">
-        <v>1831500</v>
+        <v>1745400</v>
       </c>
       <c r="H61" s="3">
-        <v>1861900</v>
+        <v>1774400</v>
       </c>
       <c r="I61" s="3">
-        <v>1333600</v>
+        <v>1271000</v>
       </c>
       <c r="J61" s="3">
-        <v>1084900</v>
+        <v>1033900</v>
       </c>
       <c r="K61" s="3">
         <v>1100400</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1189700</v>
+        <v>1133800</v>
       </c>
       <c r="E62" s="3">
-        <v>1020400</v>
+        <v>972400</v>
       </c>
       <c r="F62" s="3">
-        <v>964300</v>
+        <v>919000</v>
       </c>
       <c r="G62" s="3">
-        <v>922000</v>
+        <v>878600</v>
       </c>
       <c r="H62" s="3">
-        <v>903100</v>
+        <v>860600</v>
       </c>
       <c r="I62" s="3">
-        <v>885800</v>
+        <v>844200</v>
       </c>
       <c r="J62" s="3">
-        <v>904600</v>
+        <v>862100</v>
       </c>
       <c r="K62" s="3">
         <v>821800</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>77430500</v>
+        <v>73790900</v>
       </c>
       <c r="E66" s="3">
-        <v>75646700</v>
+        <v>72090900</v>
       </c>
       <c r="F66" s="3">
-        <v>73666200</v>
+        <v>70203500</v>
       </c>
       <c r="G66" s="3">
-        <v>73805800</v>
+        <v>70336600</v>
       </c>
       <c r="H66" s="3">
-        <v>71516500</v>
+        <v>68154900</v>
       </c>
       <c r="I66" s="3">
-        <v>67387900</v>
+        <v>64220400</v>
       </c>
       <c r="J66" s="3">
-        <v>66373200</v>
+        <v>63253400</v>
       </c>
       <c r="K66" s="3">
         <v>64183600</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4069000</v>
+        <v>-3877700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3644400</v>
+        <v>-3473100</v>
       </c>
       <c r="F72" s="3">
-        <v>-3490800</v>
+        <v>-3326700</v>
       </c>
       <c r="G72" s="3">
-        <v>-3561500</v>
+        <v>-3394100</v>
       </c>
       <c r="H72" s="3">
-        <v>-3709600</v>
+        <v>-3535200</v>
       </c>
       <c r="I72" s="3">
-        <v>-3469900</v>
+        <v>-3306800</v>
       </c>
       <c r="J72" s="3">
-        <v>-3352900</v>
+        <v>-3195300</v>
       </c>
       <c r="K72" s="3">
         <v>-3381800</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9750000</v>
+        <v>9291700</v>
       </c>
       <c r="E76" s="3">
-        <v>10172100</v>
+        <v>9694000</v>
       </c>
       <c r="F76" s="3">
-        <v>10325800</v>
+        <v>9840400</v>
       </c>
       <c r="G76" s="3">
-        <v>10255200</v>
+        <v>9773200</v>
       </c>
       <c r="H76" s="3">
-        <v>10107100</v>
+        <v>9632100</v>
       </c>
       <c r="I76" s="3">
-        <v>10347000</v>
+        <v>9860700</v>
       </c>
       <c r="J76" s="3">
-        <v>10464100</v>
+        <v>9972200</v>
       </c>
       <c r="K76" s="3">
         <v>9887100</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-345700</v>
+        <v>-329500</v>
       </c>
       <c r="E81" s="3">
-        <v>-32700</v>
+        <v>-31200</v>
       </c>
       <c r="F81" s="3">
-        <v>53700</v>
+        <v>51200</v>
       </c>
       <c r="G81" s="3">
-        <v>119500</v>
+        <v>113900</v>
       </c>
       <c r="H81" s="3">
-        <v>-15400</v>
+        <v>-14700</v>
       </c>
       <c r="I81" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="J81" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="K81" s="3">
         <v>69800</v>
@@ -4826,25 +4826,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>103500</v>
+        <v>98600</v>
       </c>
       <c r="E83" s="3">
-        <v>77800</v>
+        <v>74100</v>
       </c>
       <c r="F83" s="3">
-        <v>49100</v>
+        <v>46800</v>
       </c>
       <c r="G83" s="3">
-        <v>46600</v>
+        <v>44400</v>
       </c>
       <c r="H83" s="3">
-        <v>47000</v>
+        <v>44800</v>
       </c>
       <c r="I83" s="3">
-        <v>61500</v>
+        <v>58600</v>
       </c>
       <c r="J83" s="3">
-        <v>46900</v>
+        <v>44700</v>
       </c>
       <c r="K83" s="3">
         <v>44500</v>
@@ -5198,25 +5198,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1656200</v>
+        <v>1578400</v>
       </c>
       <c r="E89" s="3">
-        <v>2697100</v>
+        <v>2570400</v>
       </c>
       <c r="F89" s="3">
-        <v>-395700</v>
+        <v>-377100</v>
       </c>
       <c r="G89" s="3">
-        <v>3696000</v>
+        <v>3522300</v>
       </c>
       <c r="H89" s="3">
-        <v>871100</v>
+        <v>830100</v>
       </c>
       <c r="I89" s="3">
-        <v>1949000</v>
+        <v>1857400</v>
       </c>
       <c r="J89" s="3">
-        <v>-1281600</v>
+        <v>-1221400</v>
       </c>
       <c r="K89" s="3">
         <v>688700</v>
@@ -5284,25 +5284,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33200</v>
+        <v>-31600</v>
       </c>
       <c r="E91" s="3">
-        <v>-28700</v>
+        <v>-27300</v>
       </c>
       <c r="F91" s="3">
-        <v>-56300</v>
+        <v>-53700</v>
       </c>
       <c r="G91" s="3">
-        <v>-41600</v>
+        <v>-39600</v>
       </c>
       <c r="H91" s="3">
-        <v>-69100</v>
+        <v>-65800</v>
       </c>
       <c r="I91" s="3">
-        <v>-103500</v>
+        <v>-98600</v>
       </c>
       <c r="J91" s="3">
-        <v>-34600</v>
+        <v>-33000</v>
       </c>
       <c r="K91" s="3">
         <v>-102100</v>
@@ -5473,22 +5473,22 @@
         <v>-900</v>
       </c>
       <c r="E94" s="3">
-        <v>811600</v>
+        <v>773400</v>
       </c>
       <c r="F94" s="3">
-        <v>-654300</v>
+        <v>-623600</v>
       </c>
       <c r="G94" s="3">
-        <v>-848000</v>
+        <v>-808100</v>
       </c>
       <c r="H94" s="3">
-        <v>-620900</v>
+        <v>-591700</v>
       </c>
       <c r="I94" s="3">
-        <v>-330800</v>
+        <v>-315200</v>
       </c>
       <c r="J94" s="3">
-        <v>-107500</v>
+        <v>-102500</v>
       </c>
       <c r="K94" s="3">
         <v>238300</v>
@@ -5804,25 +5804,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>543800</v>
+        <v>518200</v>
       </c>
       <c r="E100" s="3">
-        <v>-357100</v>
+        <v>-340300</v>
       </c>
       <c r="F100" s="3">
-        <v>-32200</v>
+        <v>-30700</v>
       </c>
       <c r="G100" s="3">
-        <v>-64200</v>
+        <v>-61200</v>
       </c>
       <c r="H100" s="3">
-        <v>506800</v>
+        <v>483000</v>
       </c>
       <c r="I100" s="3">
-        <v>218700</v>
+        <v>208400</v>
       </c>
       <c r="J100" s="3">
-        <v>-80000</v>
+        <v>-76200</v>
       </c>
       <c r="K100" s="3">
         <v>105700</v>
@@ -5866,22 +5866,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H101" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="I101" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
@@ -5928,25 +5928,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2204100</v>
+        <v>2100500</v>
       </c>
       <c r="E102" s="3">
-        <v>3152400</v>
+        <v>3004200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1081300</v>
+        <v>-1030500</v>
       </c>
       <c r="G102" s="3">
-        <v>2781900</v>
+        <v>2651100</v>
       </c>
       <c r="H102" s="3">
-        <v>768000</v>
+        <v>731900</v>
       </c>
       <c r="I102" s="3">
-        <v>1841500</v>
+        <v>1755000</v>
       </c>
       <c r="J102" s="3">
-        <v>-1468500</v>
+        <v>-1399400</v>
       </c>
       <c r="K102" s="3">
         <v>1057300</v>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>618400</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>768600</v>
+        <v>556200</v>
       </c>
       <c r="F8" s="3">
-        <v>527200</v>
+        <v>598100</v>
       </c>
       <c r="G8" s="3">
-        <v>562800</v>
+        <v>743400</v>
       </c>
       <c r="H8" s="3">
-        <v>589900</v>
+        <v>509900</v>
       </c>
       <c r="I8" s="3">
+        <v>615500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>570500</v>
+      </c>
+      <c r="K8" s="3">
         <v>674900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>581400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>606300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>619000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>659100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>614400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>635700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>644900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>692800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>701400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>717600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>709200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>735200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,70 +1189,82 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-50300</v>
+        <v>-43000</v>
       </c>
       <c r="E15" s="3">
-        <v>-54000</v>
+        <v>-42300</v>
       </c>
       <c r="F15" s="3">
-        <v>-45800</v>
+        <v>-48700</v>
       </c>
       <c r="G15" s="3">
-        <v>-44800</v>
+        <v>-52200</v>
       </c>
       <c r="H15" s="3">
-        <v>-43800</v>
+        <v>-44300</v>
       </c>
       <c r="I15" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-43500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-41300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-43200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-42100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-62000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-57400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-54900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-28500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-27300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-27600</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="U15" s="3">
-        <v>-27100</v>
       </c>
       <c r="V15" s="3">
         <v>-28500</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="X15" s="3">
+        <v>-28500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>614300</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>979000</v>
+        <v>288800</v>
       </c>
       <c r="F17" s="3">
-        <v>280600</v>
+        <v>594100</v>
       </c>
       <c r="G17" s="3">
-        <v>415200</v>
+        <v>946900</v>
       </c>
       <c r="H17" s="3">
-        <v>514300</v>
+        <v>271400</v>
       </c>
       <c r="I17" s="3">
+        <v>472800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>497400</v>
+      </c>
+      <c r="K17" s="3">
         <v>515800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>442900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>448700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>418100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1003300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>489200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>523500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>533900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>428200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>489700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>406900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>444700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>542300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>4100</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-210400</v>
+        <v>267400</v>
       </c>
       <c r="F18" s="3">
-        <v>246600</v>
+        <v>3900</v>
       </c>
       <c r="G18" s="3">
-        <v>147600</v>
+        <v>-203500</v>
       </c>
       <c r="H18" s="3">
-        <v>75600</v>
+        <v>238500</v>
       </c>
       <c r="I18" s="3">
+        <v>142700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K18" s="3">
         <v>159100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>138400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>157600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>201000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-344200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>125200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>112300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>111000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>264600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>211600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>310700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>264500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>192900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-306100</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>178700</v>
+        <v>-2546700</v>
       </c>
       <c r="F20" s="3">
-        <v>-157400</v>
+        <v>-296000</v>
       </c>
       <c r="G20" s="3">
-        <v>-61000</v>
+        <v>172800</v>
       </c>
       <c r="H20" s="3">
-        <v>-89200</v>
+        <v>-152200</v>
       </c>
       <c r="I20" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-139800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-114400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-77600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-139900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-191900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-58400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-118800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>9300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-362000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-125100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-199100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-180000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-267300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-203400</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>42500</v>
+        <v>-2234800</v>
       </c>
       <c r="F21" s="3">
-        <v>136000</v>
+        <v>-196700</v>
       </c>
       <c r="G21" s="3">
-        <v>131000</v>
+        <v>41100</v>
       </c>
       <c r="H21" s="3">
-        <v>31200</v>
+        <v>131600</v>
       </c>
       <c r="I21" s="3">
+        <v>133100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K21" s="3">
         <v>77900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>68800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>124600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>103400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-459100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>96300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>29400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>147800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>16700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>114500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>140100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>117000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>20300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-302000</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>-31600</v>
+        <v>-2279200</v>
       </c>
       <c r="F23" s="3">
-        <v>89200</v>
+        <v>-292100</v>
       </c>
       <c r="G23" s="3">
-        <v>86600</v>
+        <v>-30600</v>
       </c>
       <c r="H23" s="3">
-        <v>-13600</v>
+        <v>86300</v>
       </c>
       <c r="I23" s="3">
+        <v>90100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K23" s="3">
         <v>19300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>80100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>61100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-536100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>66800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>120300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-97300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>86500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>111600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>84500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-74400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>27300</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>-600</v>
+        <v>29200</v>
       </c>
       <c r="F24" s="3">
-        <v>38000</v>
+        <v>26400</v>
       </c>
       <c r="G24" s="3">
-        <v>-27300</v>
+        <v>-500</v>
       </c>
       <c r="H24" s="3">
+        <v>36700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>18600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>10200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>28200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-535200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>21200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>51400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>48500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-25500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>46600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>32200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>31500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-72500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-329300</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>-31100</v>
+        <v>-2308400</v>
       </c>
       <c r="F26" s="3">
-        <v>51200</v>
+        <v>-318500</v>
       </c>
       <c r="G26" s="3">
-        <v>113900</v>
+        <v>-30100</v>
       </c>
       <c r="H26" s="3">
-        <v>-14600</v>
+        <v>49600</v>
       </c>
       <c r="I26" s="3">
+        <v>114900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K26" s="3">
         <v>16200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>69800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>32900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>45600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-58000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>71800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-71800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>39900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>79400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>53000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-329500</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>-31200</v>
+        <v>-2308300</v>
       </c>
       <c r="F27" s="3">
-        <v>51200</v>
+        <v>-318700</v>
       </c>
       <c r="G27" s="3">
-        <v>113900</v>
+        <v>-30200</v>
       </c>
       <c r="H27" s="3">
-        <v>-14700</v>
+        <v>49500</v>
       </c>
       <c r="I27" s="3">
+        <v>114900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>69800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>32900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>45600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-58000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>71900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-71800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>39900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>79400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>53000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,14 +2092,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -1989,19 +2111,25 @@
         <v>5</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-77800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>1000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>25500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>306100</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-178700</v>
+        <v>2546700</v>
       </c>
       <c r="F32" s="3">
-        <v>157400</v>
+        <v>296000</v>
       </c>
       <c r="G32" s="3">
-        <v>61000</v>
+        <v>-172800</v>
       </c>
       <c r="H32" s="3">
-        <v>89200</v>
+        <v>152200</v>
       </c>
       <c r="I32" s="3">
+        <v>52600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>86300</v>
+      </c>
+      <c r="K32" s="3">
         <v>139800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>114400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>77600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>139900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>191900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>58400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>118800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>362000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>125100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>199100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>180000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>267300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-329500</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>-31200</v>
+        <v>-2308300</v>
       </c>
       <c r="F33" s="3">
-        <v>51200</v>
+        <v>-318700</v>
       </c>
       <c r="G33" s="3">
-        <v>113900</v>
+        <v>-30200</v>
       </c>
       <c r="H33" s="3">
-        <v>-14700</v>
+        <v>49500</v>
       </c>
       <c r="I33" s="3">
+        <v>114900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>69800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>32900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>45600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-58000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>71900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-71800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>39900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>54000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>23600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-329500</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>-31200</v>
+        <v>-2308300</v>
       </c>
       <c r="F35" s="3">
-        <v>51200</v>
+        <v>-318700</v>
       </c>
       <c r="G35" s="3">
-        <v>113900</v>
+        <v>-30200</v>
       </c>
       <c r="H35" s="3">
-        <v>-14700</v>
+        <v>49500</v>
       </c>
       <c r="I35" s="3">
+        <v>114900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>69800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>32900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>45600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-58000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>71900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-71800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>39900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>54000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>23600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2659,146 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13691400</v>
+        <v>16474900</v>
       </c>
       <c r="E41" s="3">
-        <v>11914400</v>
+        <v>14280500</v>
       </c>
       <c r="F41" s="3">
-        <v>9208200</v>
+        <v>13237400</v>
       </c>
       <c r="G41" s="3">
-        <v>10098000</v>
+        <v>11523400</v>
       </c>
       <c r="H41" s="3">
-        <v>8616200</v>
+        <v>8906000</v>
       </c>
       <c r="I41" s="3">
+        <v>9766700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8333500</v>
+      </c>
+      <c r="K41" s="3">
         <v>6258500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5187600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6258200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5157800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5238700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4986500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3912100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3816300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3713200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3312200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3375300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3587700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4089400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1479300</v>
+        <v>1387000</v>
       </c>
       <c r="E42" s="3">
-        <v>1678500</v>
+        <v>1413700</v>
       </c>
       <c r="F42" s="3">
-        <v>1651400</v>
+        <v>1435400</v>
       </c>
       <c r="G42" s="3">
-        <v>1590000</v>
+        <v>1623400</v>
       </c>
       <c r="H42" s="3">
-        <v>1412800</v>
+        <v>1597200</v>
       </c>
       <c r="I42" s="3">
+        <v>1537800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1366400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1264900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1481600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1220500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1022700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>918300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>761600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>847700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>793300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>708200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2022100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2800900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>3328000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>3899000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,194 +3063,218 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35600</v>
+        <v>69600</v>
       </c>
       <c r="E47" s="3">
-        <v>35900</v>
+        <v>68800</v>
       </c>
       <c r="F47" s="3">
-        <v>36300</v>
+        <v>34500</v>
       </c>
       <c r="G47" s="3">
-        <v>19500</v>
+        <v>34700</v>
       </c>
       <c r="H47" s="3">
-        <v>20000</v>
+        <v>35100</v>
       </c>
       <c r="I47" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K47" s="3">
         <v>15600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>16300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>17100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>18200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>27400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>21000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>19900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>20300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>21200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>22400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>22300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>23800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>25600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1564400</v>
+        <v>1475500</v>
       </c>
       <c r="E48" s="3">
-        <v>1594900</v>
+        <v>1486500</v>
       </c>
       <c r="F48" s="3">
-        <v>1561200</v>
+        <v>1513100</v>
       </c>
       <c r="G48" s="3">
-        <v>1564000</v>
+        <v>1542600</v>
       </c>
       <c r="H48" s="3">
-        <v>1578100</v>
+        <v>1510000</v>
       </c>
       <c r="I48" s="3">
+        <v>1512600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1526300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1562200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1621100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1643200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1635600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1452400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1400700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1424200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1453100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1472500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1568500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1569200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1558900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1652800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>642400</v>
+        <v>525900</v>
       </c>
       <c r="E49" s="3">
-        <v>702600</v>
+        <v>531500</v>
       </c>
       <c r="F49" s="3">
-        <v>677800</v>
+        <v>621300</v>
       </c>
       <c r="G49" s="3">
-        <v>608600</v>
+        <v>679500</v>
       </c>
       <c r="H49" s="3">
-        <v>609700</v>
+        <v>655500</v>
       </c>
       <c r="I49" s="3">
+        <v>588700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>589700</v>
+      </c>
+      <c r="K49" s="3">
         <v>574800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>557300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>553000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>531400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>513500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>459600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>444200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>439000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>437400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>427800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>420300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>414300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>435900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6321600</v>
+        <v>8047100</v>
       </c>
       <c r="E52" s="3">
-        <v>6459200</v>
+        <v>6093800</v>
       </c>
       <c r="F52" s="3">
-        <v>6512100</v>
+        <v>6114200</v>
       </c>
       <c r="G52" s="3">
-        <v>6854800</v>
+        <v>6247300</v>
       </c>
       <c r="H52" s="3">
-        <v>6834800</v>
+        <v>6298400</v>
       </c>
       <c r="I52" s="3">
+        <v>6629900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6610600</v>
+      </c>
+      <c r="K52" s="3">
         <v>6698400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6770600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6253400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6624100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6580200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5876500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5314100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5421200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5183100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5058300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>5057200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>5642600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>6038400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>83082600</v>
+        <v>82509300</v>
       </c>
       <c r="E54" s="3">
-        <v>81784900</v>
+        <v>79565700</v>
       </c>
       <c r="F54" s="3">
-        <v>80044000</v>
+        <v>80356100</v>
       </c>
       <c r="G54" s="3">
-        <v>80109800</v>
+        <v>79101000</v>
       </c>
       <c r="H54" s="3">
-        <v>77787000</v>
+        <v>77417200</v>
       </c>
       <c r="I54" s="3">
+        <v>77480900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>75234300</v>
+      </c>
+      <c r="K54" s="3">
         <v>74081100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>73225600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>74070700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>73702600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>72164900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>66750100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>64796100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>65141000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>68231600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>68767200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>70360000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>71940200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>76147700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3727,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,70 +3795,82 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96900</v>
+        <v>61400</v>
       </c>
       <c r="E59" s="3">
-        <v>81900</v>
+        <v>117900</v>
       </c>
       <c r="F59" s="3">
-        <v>119200</v>
+        <v>93700</v>
       </c>
       <c r="G59" s="3">
-        <v>129700</v>
+        <v>79200</v>
       </c>
       <c r="H59" s="3">
-        <v>105600</v>
+        <v>115300</v>
       </c>
       <c r="I59" s="3">
+        <v>125500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K59" s="3">
         <v>46500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>22100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>33200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>24400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>48800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>44500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>47800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>30900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>48000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>39200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>31900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>26600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>39600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,132 +3931,150 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1959700</v>
+        <v>2469200</v>
       </c>
       <c r="E61" s="3">
-        <v>1427600</v>
+        <v>1901800</v>
       </c>
       <c r="F61" s="3">
-        <v>1675700</v>
+        <v>1895400</v>
       </c>
       <c r="G61" s="3">
-        <v>1745400</v>
+        <v>1380700</v>
       </c>
       <c r="H61" s="3">
-        <v>1774400</v>
+        <v>1620700</v>
       </c>
       <c r="I61" s="3">
+        <v>1688100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1716100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1271000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1033900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1100400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>992000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1115900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1099000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1153800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1250000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>735500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>527800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>567000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>635100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>724100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1133800</v>
+        <v>1096900</v>
       </c>
       <c r="E62" s="3">
-        <v>972400</v>
+        <v>1054800</v>
       </c>
       <c r="F62" s="3">
-        <v>919000</v>
+        <v>1096500</v>
       </c>
       <c r="G62" s="3">
-        <v>878600</v>
+        <v>940500</v>
       </c>
       <c r="H62" s="3">
-        <v>860600</v>
+        <v>888900</v>
       </c>
       <c r="I62" s="3">
+        <v>849800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K62" s="3">
         <v>844200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>862100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>821800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>812400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>750400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>700500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>730600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>722300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>626900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>524200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>524000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>939800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>987300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73790900</v>
+        <v>75153900</v>
       </c>
       <c r="E66" s="3">
-        <v>72090900</v>
+        <v>72789400</v>
       </c>
       <c r="F66" s="3">
-        <v>70203500</v>
+        <v>71369400</v>
       </c>
       <c r="G66" s="3">
-        <v>70336600</v>
+        <v>69725200</v>
       </c>
       <c r="H66" s="3">
-        <v>68154900</v>
+        <v>67899700</v>
       </c>
       <c r="I66" s="3">
+        <v>68028400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>65918300</v>
+      </c>
+      <c r="K66" s="3">
         <v>64220400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>63253400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>64183600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>63957400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>62566500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>57689300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>55721300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>55974500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>57462600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>58203700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>59781700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>61630800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>65474900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3877700</v>
+        <v>-6285000</v>
       </c>
       <c r="E72" s="3">
-        <v>-3473100</v>
+        <v>-5960900</v>
       </c>
       <c r="F72" s="3">
-        <v>-3326700</v>
+        <v>-3750500</v>
       </c>
       <c r="G72" s="3">
-        <v>-3394100</v>
+        <v>-3359100</v>
       </c>
       <c r="H72" s="3">
-        <v>-3535200</v>
+        <v>-3217500</v>
       </c>
       <c r="I72" s="3">
+        <v>-3282700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-3419200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3306800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3195300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3747100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9291700</v>
+        <v>7355400</v>
       </c>
       <c r="E76" s="3">
-        <v>9694000</v>
+        <v>6776300</v>
       </c>
       <c r="F76" s="3">
-        <v>9840400</v>
+        <v>8986700</v>
       </c>
       <c r="G76" s="3">
-        <v>9773200</v>
+        <v>9375800</v>
       </c>
       <c r="H76" s="3">
-        <v>9632100</v>
+        <v>9517500</v>
       </c>
       <c r="I76" s="3">
+        <v>9452500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9316000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9860700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9972200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9887100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9745200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9598400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9060800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9074900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9166500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>10769000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10563500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10578300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>10309400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>10672800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-329500</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>-31200</v>
+        <v>-2308300</v>
       </c>
       <c r="F81" s="3">
-        <v>51200</v>
+        <v>-318700</v>
       </c>
       <c r="G81" s="3">
-        <v>113900</v>
+        <v>-30200</v>
       </c>
       <c r="H81" s="3">
-        <v>-14700</v>
+        <v>49500</v>
       </c>
       <c r="I81" s="3">
+        <v>114900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>69800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>32900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>45600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-58000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>71900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-71800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>39900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>54000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>23600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>98600</v>
+        <v>42900</v>
       </c>
       <c r="E83" s="3">
-        <v>74100</v>
+        <v>44400</v>
       </c>
       <c r="F83" s="3">
-        <v>46800</v>
+        <v>95400</v>
       </c>
       <c r="G83" s="3">
-        <v>44400</v>
+        <v>71700</v>
       </c>
       <c r="H83" s="3">
-        <v>44800</v>
+        <v>45300</v>
       </c>
       <c r="I83" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K83" s="3">
         <v>58600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>44700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>44500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>42400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>76900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>29500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>35800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>27700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>114000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>28000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>28500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>32500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>92900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1578400</v>
+        <v>1380900</v>
       </c>
       <c r="E89" s="3">
-        <v>2570400</v>
+        <v>1444600</v>
       </c>
       <c r="F89" s="3">
-        <v>-377100</v>
+        <v>1526600</v>
       </c>
       <c r="G89" s="3">
-        <v>3522300</v>
+        <v>2486000</v>
       </c>
       <c r="H89" s="3">
-        <v>830100</v>
+        <v>-364800</v>
       </c>
       <c r="I89" s="3">
+        <v>3406700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>802900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1857400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1221400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>688700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>744800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1229300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1608400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>174300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-870300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-999700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-582700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-135700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31600</v>
+        <v>-15700</v>
       </c>
       <c r="E91" s="3">
-        <v>-27300</v>
+        <v>-21900</v>
       </c>
       <c r="F91" s="3">
-        <v>-53700</v>
+        <v>-30600</v>
       </c>
       <c r="G91" s="3">
-        <v>-39600</v>
+        <v>-26400</v>
       </c>
       <c r="H91" s="3">
-        <v>-65800</v>
+        <v>-51900</v>
       </c>
       <c r="I91" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-98600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-33000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-102100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-54100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-73800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-48800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-38100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-71400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-65900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-22800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>83900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-900</v>
+        <v>-623200</v>
       </c>
       <c r="E94" s="3">
-        <v>773400</v>
+        <v>-278600</v>
       </c>
       <c r="F94" s="3">
-        <v>-623600</v>
+        <v>-800</v>
       </c>
       <c r="G94" s="3">
-        <v>-808100</v>
+        <v>748000</v>
       </c>
       <c r="H94" s="3">
-        <v>-591700</v>
+        <v>-603100</v>
       </c>
       <c r="I94" s="3">
+        <v>-781600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-572300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-315200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-102500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>238300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-628400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-509700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>46200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>414000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1357200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>1043800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>651700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>88900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>1075700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>518200</v>
+        <v>1336600</v>
       </c>
       <c r="E100" s="3">
-        <v>-340300</v>
+        <v>65700</v>
       </c>
       <c r="F100" s="3">
-        <v>-30700</v>
+        <v>501200</v>
       </c>
       <c r="G100" s="3">
-        <v>-61200</v>
+        <v>-329100</v>
       </c>
       <c r="H100" s="3">
-        <v>483000</v>
+        <v>-29700</v>
       </c>
       <c r="I100" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>467100</v>
+      </c>
+      <c r="K100" s="3">
         <v>208400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-76200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>105700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-158000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-77000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-81900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-171400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>536300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>208900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-36100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-50000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-62800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>360300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4800</v>
+        <v>7300</v>
       </c>
       <c r="E101" s="3">
-        <v>800</v>
+        <v>-7700</v>
       </c>
       <c r="F101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>10500</v>
-      </c>
       <c r="I101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K101" s="3">
         <v>4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>24700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-15900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-7400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-6200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-15300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>2100500</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>3004200</v>
+        <v>1224100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1030500</v>
+        <v>2031600</v>
       </c>
       <c r="G102" s="3">
-        <v>2651100</v>
+        <v>2905700</v>
       </c>
       <c r="H102" s="3">
-        <v>731900</v>
+        <v>-996700</v>
       </c>
       <c r="I102" s="3">
+        <v>2564100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>707900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1755000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1399400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1057300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-57600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-67400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1017800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>53200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>83400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>559000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-20100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-105900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-112200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-16900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -766,26 +766,26 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>486400</v>
       </c>
       <c r="E8" s="3">
-        <v>556200</v>
+        <v>537400</v>
       </c>
       <c r="F8" s="3">
-        <v>598100</v>
+        <v>577900</v>
       </c>
       <c r="G8" s="3">
-        <v>743400</v>
+        <v>718300</v>
       </c>
       <c r="H8" s="3">
-        <v>509900</v>
+        <v>561900</v>
       </c>
       <c r="I8" s="3">
-        <v>615500</v>
+        <v>594700</v>
       </c>
       <c r="J8" s="3">
-        <v>570500</v>
+        <v>551200</v>
       </c>
       <c r="K8" s="3">
         <v>674900</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-43000</v>
+        <v>-41500</v>
       </c>
       <c r="E15" s="3">
-        <v>-42300</v>
+        <v>-40800</v>
       </c>
       <c r="F15" s="3">
-        <v>-48700</v>
+        <v>-47000</v>
       </c>
       <c r="G15" s="3">
-        <v>-52200</v>
+        <v>-50500</v>
       </c>
       <c r="H15" s="3">
-        <v>-44300</v>
+        <v>-42800</v>
       </c>
       <c r="I15" s="3">
-        <v>-43300</v>
+        <v>-41900</v>
       </c>
       <c r="J15" s="3">
-        <v>-42400</v>
+        <v>-40900</v>
       </c>
       <c r="K15" s="3">
         <v>-43500</v>
@@ -1291,26 +1291,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>618400</v>
       </c>
       <c r="E17" s="3">
-        <v>288800</v>
+        <v>279000</v>
       </c>
       <c r="F17" s="3">
-        <v>594100</v>
+        <v>574000</v>
       </c>
       <c r="G17" s="3">
-        <v>946900</v>
+        <v>914800</v>
       </c>
       <c r="H17" s="3">
-        <v>271400</v>
+        <v>331500</v>
       </c>
       <c r="I17" s="3">
-        <v>472800</v>
+        <v>456800</v>
       </c>
       <c r="J17" s="3">
-        <v>497400</v>
+        <v>480600</v>
       </c>
       <c r="K17" s="3">
         <v>515800</v>
@@ -1359,26 +1359,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-131900</v>
       </c>
       <c r="E18" s="3">
-        <v>267400</v>
+        <v>258400</v>
       </c>
       <c r="F18" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G18" s="3">
-        <v>-203500</v>
+        <v>-196600</v>
       </c>
       <c r="H18" s="3">
-        <v>238500</v>
+        <v>230400</v>
       </c>
       <c r="I18" s="3">
-        <v>142700</v>
+        <v>137900</v>
       </c>
       <c r="J18" s="3">
-        <v>73100</v>
+        <v>70700</v>
       </c>
       <c r="K18" s="3">
         <v>159100</v>
@@ -1453,26 +1453,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-128300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2546700</v>
+        <v>-2460500</v>
       </c>
       <c r="F20" s="3">
-        <v>-296000</v>
+        <v>-286000</v>
       </c>
       <c r="G20" s="3">
-        <v>172800</v>
+        <v>167000</v>
       </c>
       <c r="H20" s="3">
-        <v>-152200</v>
+        <v>-146400</v>
       </c>
       <c r="I20" s="3">
-        <v>-52600</v>
+        <v>-50800</v>
       </c>
       <c r="J20" s="3">
-        <v>-86300</v>
+        <v>-83300</v>
       </c>
       <c r="K20" s="3">
         <v>-139800</v>
@@ -1521,26 +1521,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-218800</v>
       </c>
       <c r="E21" s="3">
-        <v>-2234800</v>
+        <v>-2159300</v>
       </c>
       <c r="F21" s="3">
-        <v>-196700</v>
+        <v>-190100</v>
       </c>
       <c r="G21" s="3">
-        <v>41100</v>
+        <v>39700</v>
       </c>
       <c r="H21" s="3">
-        <v>131600</v>
+        <v>127700</v>
       </c>
       <c r="I21" s="3">
-        <v>133100</v>
+        <v>128600</v>
       </c>
       <c r="J21" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="K21" s="3">
         <v>77900</v>
@@ -1657,26 +1657,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-260200</v>
       </c>
       <c r="E23" s="3">
-        <v>-2279200</v>
+        <v>-2202200</v>
       </c>
       <c r="F23" s="3">
-        <v>-292100</v>
+        <v>-282200</v>
       </c>
       <c r="G23" s="3">
-        <v>-30600</v>
+        <v>-29600</v>
       </c>
       <c r="H23" s="3">
-        <v>86300</v>
+        <v>84000</v>
       </c>
       <c r="I23" s="3">
-        <v>90100</v>
+        <v>87000</v>
       </c>
       <c r="J23" s="3">
-        <v>-13100</v>
+        <v>-12700</v>
       </c>
       <c r="K23" s="3">
         <v>19300</v>
@@ -1725,23 +1725,23 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>-73300</v>
       </c>
       <c r="E24" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="F24" s="3">
-        <v>26400</v>
+        <v>25500</v>
       </c>
       <c r="G24" s="3">
         <v>-500</v>
       </c>
       <c r="H24" s="3">
-        <v>36700</v>
+        <v>35700</v>
       </c>
       <c r="I24" s="3">
-        <v>-24800</v>
+        <v>-24000</v>
       </c>
       <c r="J24" s="3">
         <v>1000</v>
@@ -1861,26 +1861,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-186800</v>
       </c>
       <c r="E26" s="3">
-        <v>-2308400</v>
+        <v>-2230300</v>
       </c>
       <c r="F26" s="3">
-        <v>-318500</v>
+        <v>-307800</v>
       </c>
       <c r="G26" s="3">
-        <v>-30100</v>
+        <v>-29100</v>
       </c>
       <c r="H26" s="3">
-        <v>49600</v>
+        <v>48300</v>
       </c>
       <c r="I26" s="3">
-        <v>114900</v>
+        <v>111000</v>
       </c>
       <c r="J26" s="3">
-        <v>-14100</v>
+        <v>-13700</v>
       </c>
       <c r="K26" s="3">
         <v>16200</v>
@@ -1929,26 +1929,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-186800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2308300</v>
+        <v>-2230300</v>
       </c>
       <c r="F27" s="3">
-        <v>-318700</v>
+        <v>-307900</v>
       </c>
       <c r="G27" s="3">
-        <v>-30200</v>
+        <v>-29100</v>
       </c>
       <c r="H27" s="3">
-        <v>49500</v>
+        <v>48300</v>
       </c>
       <c r="I27" s="3">
-        <v>114900</v>
+        <v>111000</v>
       </c>
       <c r="J27" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K27" s="3">
         <v>16000</v>
@@ -2269,26 +2269,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>128300</v>
       </c>
       <c r="E32" s="3">
-        <v>2546700</v>
+        <v>2460500</v>
       </c>
       <c r="F32" s="3">
-        <v>296000</v>
+        <v>286000</v>
       </c>
       <c r="G32" s="3">
-        <v>-172800</v>
+        <v>-167000</v>
       </c>
       <c r="H32" s="3">
-        <v>152200</v>
+        <v>146400</v>
       </c>
       <c r="I32" s="3">
-        <v>52600</v>
+        <v>50800</v>
       </c>
       <c r="J32" s="3">
-        <v>86300</v>
+        <v>83300</v>
       </c>
       <c r="K32" s="3">
         <v>139800</v>
@@ -2337,26 +2337,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-186800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2308300</v>
+        <v>-2230300</v>
       </c>
       <c r="F33" s="3">
-        <v>-318700</v>
+        <v>-307900</v>
       </c>
       <c r="G33" s="3">
-        <v>-30200</v>
+        <v>-29100</v>
       </c>
       <c r="H33" s="3">
-        <v>49500</v>
+        <v>48300</v>
       </c>
       <c r="I33" s="3">
-        <v>114900</v>
+        <v>111000</v>
       </c>
       <c r="J33" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K33" s="3">
         <v>16000</v>
@@ -2473,26 +2473,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-186800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2308300</v>
+        <v>-2230300</v>
       </c>
       <c r="F35" s="3">
-        <v>-318700</v>
+        <v>-307900</v>
       </c>
       <c r="G35" s="3">
-        <v>-30200</v>
+        <v>-29100</v>
       </c>
       <c r="H35" s="3">
-        <v>49500</v>
+        <v>48300</v>
       </c>
       <c r="I35" s="3">
-        <v>114900</v>
+        <v>111000</v>
       </c>
       <c r="J35" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K35" s="3">
         <v>16000</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16474900</v>
+        <v>15912100</v>
       </c>
       <c r="E41" s="3">
-        <v>14280500</v>
+        <v>13797400</v>
       </c>
       <c r="F41" s="3">
-        <v>13237400</v>
+        <v>12789700</v>
       </c>
       <c r="G41" s="3">
-        <v>11523400</v>
+        <v>11133700</v>
       </c>
       <c r="H41" s="3">
-        <v>8906000</v>
+        <v>8604800</v>
       </c>
       <c r="I41" s="3">
-        <v>9766700</v>
+        <v>9436300</v>
       </c>
       <c r="J41" s="3">
-        <v>8333500</v>
+        <v>8051600</v>
       </c>
       <c r="K41" s="3">
         <v>6258500</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1387000</v>
+        <v>1345700</v>
       </c>
       <c r="E42" s="3">
-        <v>1413700</v>
+        <v>1365800</v>
       </c>
       <c r="F42" s="3">
-        <v>1435400</v>
+        <v>1386900</v>
       </c>
       <c r="G42" s="3">
-        <v>1623400</v>
+        <v>1568500</v>
       </c>
       <c r="H42" s="3">
-        <v>1597200</v>
+        <v>1543200</v>
       </c>
       <c r="I42" s="3">
-        <v>1537800</v>
+        <v>1485800</v>
       </c>
       <c r="J42" s="3">
-        <v>1366400</v>
+        <v>1320200</v>
       </c>
       <c r="K42" s="3">
         <v>1264900</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69600</v>
+        <v>67300</v>
       </c>
       <c r="E47" s="3">
-        <v>68800</v>
+        <v>66500</v>
       </c>
       <c r="F47" s="3">
-        <v>34500</v>
+        <v>33300</v>
       </c>
       <c r="G47" s="3">
-        <v>34700</v>
+        <v>33500</v>
       </c>
       <c r="H47" s="3">
-        <v>35100</v>
+        <v>33900</v>
       </c>
       <c r="I47" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="J47" s="3">
-        <v>19400</v>
+        <v>18700</v>
       </c>
       <c r="K47" s="3">
         <v>15600</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1475500</v>
+        <v>1425600</v>
       </c>
       <c r="E48" s="3">
-        <v>1486500</v>
+        <v>1436200</v>
       </c>
       <c r="F48" s="3">
-        <v>1513100</v>
+        <v>1461900</v>
       </c>
       <c r="G48" s="3">
-        <v>1542600</v>
+        <v>1490400</v>
       </c>
       <c r="H48" s="3">
-        <v>1510000</v>
+        <v>1458900</v>
       </c>
       <c r="I48" s="3">
-        <v>1512600</v>
+        <v>1461500</v>
       </c>
       <c r="J48" s="3">
-        <v>1526300</v>
+        <v>1474700</v>
       </c>
       <c r="K48" s="3">
         <v>1562200</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>525900</v>
+        <v>508100</v>
       </c>
       <c r="E49" s="3">
-        <v>531500</v>
+        <v>513500</v>
       </c>
       <c r="F49" s="3">
-        <v>621300</v>
+        <v>600300</v>
       </c>
       <c r="G49" s="3">
-        <v>679500</v>
+        <v>656500</v>
       </c>
       <c r="H49" s="3">
-        <v>655500</v>
+        <v>633400</v>
       </c>
       <c r="I49" s="3">
-        <v>588700</v>
+        <v>568800</v>
       </c>
       <c r="J49" s="3">
-        <v>589700</v>
+        <v>569800</v>
       </c>
       <c r="K49" s="3">
         <v>574800</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8047100</v>
+        <v>7774900</v>
       </c>
       <c r="E52" s="3">
-        <v>6093800</v>
+        <v>5887600</v>
       </c>
       <c r="F52" s="3">
-        <v>6114200</v>
+        <v>5907400</v>
       </c>
       <c r="G52" s="3">
-        <v>6247300</v>
+        <v>6036000</v>
       </c>
       <c r="H52" s="3">
-        <v>6298400</v>
+        <v>6085400</v>
       </c>
       <c r="I52" s="3">
-        <v>6629900</v>
+        <v>6405600</v>
       </c>
       <c r="J52" s="3">
-        <v>6610600</v>
+        <v>6387000</v>
       </c>
       <c r="K52" s="3">
         <v>6698400</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>82509300</v>
+        <v>79718500</v>
       </c>
       <c r="E54" s="3">
-        <v>79565700</v>
+        <v>76874500</v>
       </c>
       <c r="F54" s="3">
-        <v>80356100</v>
+        <v>77638200</v>
       </c>
       <c r="G54" s="3">
-        <v>79101000</v>
+        <v>76425600</v>
       </c>
       <c r="H54" s="3">
-        <v>77417200</v>
+        <v>74798700</v>
       </c>
       <c r="I54" s="3">
-        <v>77480900</v>
+        <v>74860200</v>
       </c>
       <c r="J54" s="3">
-        <v>75234300</v>
+        <v>72689600</v>
       </c>
       <c r="K54" s="3">
         <v>74081100</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>61400</v>
+        <v>59300</v>
       </c>
       <c r="E59" s="3">
-        <v>117900</v>
+        <v>113900</v>
       </c>
       <c r="F59" s="3">
-        <v>93700</v>
+        <v>90500</v>
       </c>
       <c r="G59" s="3">
-        <v>79200</v>
+        <v>76500</v>
       </c>
       <c r="H59" s="3">
-        <v>115300</v>
+        <v>111400</v>
       </c>
       <c r="I59" s="3">
-        <v>125500</v>
+        <v>121200</v>
       </c>
       <c r="J59" s="3">
-        <v>102100</v>
+        <v>98700</v>
       </c>
       <c r="K59" s="3">
         <v>46500</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2469200</v>
+        <v>2385700</v>
       </c>
       <c r="E61" s="3">
-        <v>1901800</v>
+        <v>1837500</v>
       </c>
       <c r="F61" s="3">
-        <v>1895400</v>
+        <v>1831300</v>
       </c>
       <c r="G61" s="3">
-        <v>1380700</v>
+        <v>1334000</v>
       </c>
       <c r="H61" s="3">
-        <v>1620700</v>
+        <v>1565900</v>
       </c>
       <c r="I61" s="3">
-        <v>1688100</v>
+        <v>1631000</v>
       </c>
       <c r="J61" s="3">
-        <v>1716100</v>
+        <v>1658100</v>
       </c>
       <c r="K61" s="3">
         <v>1271000</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1096900</v>
+        <v>1059800</v>
       </c>
       <c r="E62" s="3">
-        <v>1054800</v>
+        <v>1019100</v>
       </c>
       <c r="F62" s="3">
-        <v>1096500</v>
+        <v>1059500</v>
       </c>
       <c r="G62" s="3">
-        <v>940500</v>
+        <v>908700</v>
       </c>
       <c r="H62" s="3">
-        <v>888900</v>
+        <v>858800</v>
       </c>
       <c r="I62" s="3">
-        <v>849800</v>
+        <v>821100</v>
       </c>
       <c r="J62" s="3">
-        <v>832400</v>
+        <v>804200</v>
       </c>
       <c r="K62" s="3">
         <v>844200</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75153900</v>
+        <v>72611900</v>
       </c>
       <c r="E66" s="3">
-        <v>72789400</v>
+        <v>70327400</v>
       </c>
       <c r="F66" s="3">
-        <v>71369400</v>
+        <v>68955400</v>
       </c>
       <c r="G66" s="3">
-        <v>69725200</v>
+        <v>67366900</v>
       </c>
       <c r="H66" s="3">
-        <v>67899700</v>
+        <v>65603100</v>
       </c>
       <c r="I66" s="3">
-        <v>68028400</v>
+        <v>65727500</v>
       </c>
       <c r="J66" s="3">
-        <v>65918300</v>
+        <v>63688800</v>
       </c>
       <c r="K66" s="3">
         <v>64220400</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6285000</v>
+        <v>-6072400</v>
       </c>
       <c r="E72" s="3">
-        <v>-5960900</v>
+        <v>-5759300</v>
       </c>
       <c r="F72" s="3">
-        <v>-3750500</v>
+        <v>-3623600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3359100</v>
+        <v>-3245500</v>
       </c>
       <c r="H72" s="3">
-        <v>-3217500</v>
+        <v>-3108700</v>
       </c>
       <c r="I72" s="3">
-        <v>-3282700</v>
+        <v>-3171600</v>
       </c>
       <c r="J72" s="3">
-        <v>-3419200</v>
+        <v>-3303500</v>
       </c>
       <c r="K72" s="3">
         <v>-3306800</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7355400</v>
+        <v>7106600</v>
       </c>
       <c r="E76" s="3">
-        <v>6776300</v>
+        <v>6547100</v>
       </c>
       <c r="F76" s="3">
-        <v>8986700</v>
+        <v>8682800</v>
       </c>
       <c r="G76" s="3">
-        <v>9375800</v>
+        <v>9058700</v>
       </c>
       <c r="H76" s="3">
-        <v>9517500</v>
+        <v>9195600</v>
       </c>
       <c r="I76" s="3">
-        <v>9452500</v>
+        <v>9132800</v>
       </c>
       <c r="J76" s="3">
-        <v>9316000</v>
+        <v>9000900</v>
       </c>
       <c r="K76" s="3">
         <v>9860700</v>
@@ -5129,26 +5129,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-186800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2308300</v>
+        <v>-2230300</v>
       </c>
       <c r="F81" s="3">
-        <v>-318700</v>
+        <v>-307900</v>
       </c>
       <c r="G81" s="3">
-        <v>-30200</v>
+        <v>-29100</v>
       </c>
       <c r="H81" s="3">
-        <v>49500</v>
+        <v>48300</v>
       </c>
       <c r="I81" s="3">
-        <v>114900</v>
+        <v>111000</v>
       </c>
       <c r="J81" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K81" s="3">
         <v>16000</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E83" s="3">
         <v>42900</v>
       </c>
-      <c r="E83" s="3">
-        <v>44400</v>
-      </c>
       <c r="F83" s="3">
-        <v>95400</v>
+        <v>92200</v>
       </c>
       <c r="G83" s="3">
-        <v>71700</v>
+        <v>69300</v>
       </c>
       <c r="H83" s="3">
-        <v>45300</v>
+        <v>43700</v>
       </c>
       <c r="I83" s="3">
-        <v>43000</v>
+        <v>41500</v>
       </c>
       <c r="J83" s="3">
-        <v>43300</v>
+        <v>41900</v>
       </c>
       <c r="K83" s="3">
         <v>58600</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1380900</v>
+        <v>1334200</v>
       </c>
       <c r="E89" s="3">
-        <v>1444600</v>
+        <v>1395800</v>
       </c>
       <c r="F89" s="3">
-        <v>1526600</v>
+        <v>1475000</v>
       </c>
       <c r="G89" s="3">
-        <v>2486000</v>
+        <v>2401900</v>
       </c>
       <c r="H89" s="3">
-        <v>-364800</v>
+        <v>-352400</v>
       </c>
       <c r="I89" s="3">
-        <v>3406700</v>
+        <v>3291400</v>
       </c>
       <c r="J89" s="3">
-        <v>802900</v>
+        <v>775700</v>
       </c>
       <c r="K89" s="3">
         <v>1857400</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15700</v>
+        <v>-15200</v>
       </c>
       <c r="E91" s="3">
-        <v>-21900</v>
+        <v>-21100</v>
       </c>
       <c r="F91" s="3">
-        <v>-30600</v>
+        <v>-29600</v>
       </c>
       <c r="G91" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="H91" s="3">
-        <v>-51900</v>
+        <v>-50100</v>
       </c>
       <c r="I91" s="3">
-        <v>-38300</v>
+        <v>-37000</v>
       </c>
       <c r="J91" s="3">
-        <v>-63600</v>
+        <v>-61500</v>
       </c>
       <c r="K91" s="3">
         <v>-98600</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-623200</v>
+        <v>-602100</v>
       </c>
       <c r="E94" s="3">
-        <v>-278600</v>
+        <v>-269200</v>
       </c>
       <c r="F94" s="3">
         <v>-800</v>
       </c>
       <c r="G94" s="3">
-        <v>748000</v>
+        <v>722700</v>
       </c>
       <c r="H94" s="3">
-        <v>-603100</v>
+        <v>-582700</v>
       </c>
       <c r="I94" s="3">
-        <v>-781600</v>
+        <v>-755200</v>
       </c>
       <c r="J94" s="3">
-        <v>-572300</v>
+        <v>-552900</v>
       </c>
       <c r="K94" s="3">
         <v>-315200</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1336600</v>
+        <v>1291400</v>
       </c>
       <c r="E100" s="3">
-        <v>65700</v>
+        <v>63500</v>
       </c>
       <c r="F100" s="3">
-        <v>501200</v>
+        <v>484300</v>
       </c>
       <c r="G100" s="3">
-        <v>-329100</v>
+        <v>-318000</v>
       </c>
       <c r="H100" s="3">
-        <v>-29700</v>
+        <v>-28700</v>
       </c>
       <c r="I100" s="3">
-        <v>-59100</v>
+        <v>-57100</v>
       </c>
       <c r="J100" s="3">
-        <v>467100</v>
+        <v>451300</v>
       </c>
       <c r="K100" s="3">
         <v>208400</v>
@@ -6364,13 +6364,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E101" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="F101" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G101" s="3">
         <v>700</v>
@@ -6379,10 +6379,10 @@
         <v>900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J101" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="K101" s="3">
         <v>4400</v>
@@ -6431,26 +6431,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>2030400</v>
       </c>
       <c r="E102" s="3">
-        <v>1224100</v>
+        <v>1182700</v>
       </c>
       <c r="F102" s="3">
-        <v>2031600</v>
+        <v>1962900</v>
       </c>
       <c r="G102" s="3">
-        <v>2905700</v>
+        <v>2807400</v>
       </c>
       <c r="H102" s="3">
-        <v>-996700</v>
+        <v>-962900</v>
       </c>
       <c r="I102" s="3">
-        <v>2564100</v>
+        <v>2477400</v>
       </c>
       <c r="J102" s="3">
-        <v>707900</v>
+        <v>683900</v>
       </c>
       <c r="K102" s="3">
         <v>1755000</v>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>486400</v>
+        <v>543400</v>
       </c>
       <c r="E8" s="3">
-        <v>537400</v>
+        <v>462800</v>
       </c>
       <c r="F8" s="3">
-        <v>577900</v>
+        <v>511300</v>
       </c>
       <c r="G8" s="3">
-        <v>718300</v>
+        <v>549800</v>
       </c>
       <c r="H8" s="3">
-        <v>561900</v>
+        <v>577100</v>
       </c>
       <c r="I8" s="3">
-        <v>594700</v>
+        <v>534600</v>
       </c>
       <c r="J8" s="3">
+        <v>565800</v>
+      </c>
+      <c r="K8" s="3">
         <v>551200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>674900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>581400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>606300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>619000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>659100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>614400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>635700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>644900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>692800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>701400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>717600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>709200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>735200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,76 +1214,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-41500</v>
+        <v>-39900</v>
       </c>
       <c r="E15" s="3">
-        <v>-40800</v>
+        <v>-39500</v>
       </c>
       <c r="F15" s="3">
-        <v>-47000</v>
+        <v>-38900</v>
       </c>
       <c r="G15" s="3">
-        <v>-50500</v>
+        <v>-44800</v>
       </c>
       <c r="H15" s="3">
-        <v>-42800</v>
+        <v>-45500</v>
       </c>
       <c r="I15" s="3">
-        <v>-41900</v>
+        <v>-40700</v>
       </c>
       <c r="J15" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="K15" s="3">
         <v>-40900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-43500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-41300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-43200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-42100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-62000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-57400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-54900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-54800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-28500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-27300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-27600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-28500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-27100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>618400</v>
+        <v>723200</v>
       </c>
       <c r="E17" s="3">
-        <v>279000</v>
+        <v>588300</v>
       </c>
       <c r="F17" s="3">
-        <v>574000</v>
+        <v>265400</v>
       </c>
       <c r="G17" s="3">
-        <v>914800</v>
+        <v>546200</v>
       </c>
       <c r="H17" s="3">
-        <v>331500</v>
+        <v>778400</v>
       </c>
       <c r="I17" s="3">
-        <v>456800</v>
+        <v>315400</v>
       </c>
       <c r="J17" s="3">
+        <v>434600</v>
+      </c>
+      <c r="K17" s="3">
         <v>480600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>515800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>442900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>448700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>418100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1003300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>489200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>523500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>533900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>428200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>489700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>406900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>444700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>542300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-131900</v>
+        <v>-179800</v>
       </c>
       <c r="E18" s="3">
-        <v>258400</v>
+        <v>-125500</v>
       </c>
       <c r="F18" s="3">
-        <v>3800</v>
+        <v>245800</v>
       </c>
       <c r="G18" s="3">
-        <v>-196600</v>
+        <v>3600</v>
       </c>
       <c r="H18" s="3">
-        <v>230400</v>
+        <v>-201300</v>
       </c>
       <c r="I18" s="3">
-        <v>137900</v>
+        <v>219200</v>
       </c>
       <c r="J18" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K18" s="3">
         <v>70700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>159100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>138400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>157600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>201000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-344200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>125200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>112300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>111000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>264600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>211600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>310700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>264500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>192900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-128300</v>
+        <v>-248800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2460500</v>
+        <v>-122000</v>
       </c>
       <c r="F20" s="3">
-        <v>-286000</v>
+        <v>-2341000</v>
       </c>
       <c r="G20" s="3">
-        <v>167000</v>
+        <v>-272100</v>
       </c>
       <c r="H20" s="3">
-        <v>-146400</v>
+        <v>166200</v>
       </c>
       <c r="I20" s="3">
-        <v>-50800</v>
+        <v>-139300</v>
       </c>
       <c r="J20" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-83300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-139800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-114400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-77600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-139900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-191900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-58400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-118800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-362000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-125100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-199100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-180000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-267300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-218800</v>
+        <v>-321800</v>
       </c>
       <c r="E21" s="3">
-        <v>-2159300</v>
+        <v>-208100</v>
       </c>
       <c r="F21" s="3">
-        <v>-190100</v>
+        <v>-2054300</v>
       </c>
       <c r="G21" s="3">
-        <v>39700</v>
+        <v>-180800</v>
       </c>
       <c r="H21" s="3">
-        <v>127700</v>
+        <v>28300</v>
       </c>
       <c r="I21" s="3">
-        <v>128600</v>
+        <v>121500</v>
       </c>
       <c r="J21" s="3">
+        <v>122300</v>
+      </c>
+      <c r="K21" s="3">
         <v>29200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>77900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>68800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>124600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>103400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-459100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>96300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>147800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>114500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>140100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>117000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-260200</v>
+        <v>-428500</v>
       </c>
       <c r="E23" s="3">
-        <v>-2202200</v>
+        <v>-247500</v>
       </c>
       <c r="F23" s="3">
-        <v>-282200</v>
+        <v>-2095100</v>
       </c>
       <c r="G23" s="3">
-        <v>-29600</v>
+        <v>-268500</v>
       </c>
       <c r="H23" s="3">
-        <v>84000</v>
+        <v>-35100</v>
       </c>
       <c r="I23" s="3">
-        <v>87000</v>
+        <v>79900</v>
       </c>
       <c r="J23" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>80100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-536100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>120300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-97300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>86500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>111600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>84500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-74400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-73300</v>
+        <v>-39200</v>
       </c>
       <c r="E24" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>26800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>24300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>33900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>18600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="O24" s="3">
         <v>28200</v>
       </c>
-      <c r="F24" s="3">
-        <v>25500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>35700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-24000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>18600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>10200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>28200</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-535200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-25500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>32200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>31500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-72500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-186800</v>
+        <v>-389300</v>
       </c>
       <c r="E26" s="3">
-        <v>-2230300</v>
+        <v>-177700</v>
       </c>
       <c r="F26" s="3">
-        <v>-307800</v>
+        <v>-2122000</v>
       </c>
       <c r="G26" s="3">
-        <v>-29100</v>
+        <v>-292800</v>
       </c>
       <c r="H26" s="3">
-        <v>48300</v>
+        <v>-33500</v>
       </c>
       <c r="I26" s="3">
-        <v>111000</v>
+        <v>46000</v>
       </c>
       <c r="J26" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>69800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-58000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>71800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-71800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>79400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-186800</v>
+        <v>-389300</v>
       </c>
       <c r="E27" s="3">
-        <v>-2230300</v>
+        <v>-177700</v>
       </c>
       <c r="F27" s="3">
-        <v>-307900</v>
+        <v>-2121900</v>
       </c>
       <c r="G27" s="3">
-        <v>-29100</v>
+        <v>-292900</v>
       </c>
       <c r="H27" s="3">
-        <v>48300</v>
+        <v>-33600</v>
       </c>
       <c r="I27" s="3">
-        <v>111000</v>
+        <v>45900</v>
       </c>
       <c r="J27" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>69800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-58000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>71900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-71800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>79400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>53000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,31 +2117,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-34400</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2098,38 +2158,41 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-77800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>25500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>128300</v>
+        <v>248800</v>
       </c>
       <c r="E32" s="3">
-        <v>2460500</v>
+        <v>122000</v>
       </c>
       <c r="F32" s="3">
-        <v>286000</v>
+        <v>2341000</v>
       </c>
       <c r="G32" s="3">
-        <v>-167000</v>
+        <v>272100</v>
       </c>
       <c r="H32" s="3">
-        <v>146400</v>
+        <v>-166200</v>
       </c>
       <c r="I32" s="3">
-        <v>50800</v>
+        <v>139300</v>
       </c>
       <c r="J32" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K32" s="3">
         <v>83300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>139800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>114400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>77600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>139900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>191900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>58400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>118800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>362000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>125100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>199100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>180000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>267300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-186800</v>
+        <v>-423700</v>
       </c>
       <c r="E33" s="3">
-        <v>-2230300</v>
+        <v>-177700</v>
       </c>
       <c r="F33" s="3">
-        <v>-307900</v>
+        <v>-2121900</v>
       </c>
       <c r="G33" s="3">
-        <v>-29100</v>
+        <v>-292900</v>
       </c>
       <c r="H33" s="3">
-        <v>48300</v>
+        <v>-30700</v>
       </c>
       <c r="I33" s="3">
-        <v>111000</v>
+        <v>45900</v>
       </c>
       <c r="J33" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>69800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-58000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>71900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-71800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>54000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-186800</v>
+        <v>-423700</v>
       </c>
       <c r="E35" s="3">
-        <v>-2230300</v>
+        <v>-177700</v>
       </c>
       <c r="F35" s="3">
-        <v>-307900</v>
+        <v>-2121900</v>
       </c>
       <c r="G35" s="3">
-        <v>-29100</v>
+        <v>-292900</v>
       </c>
       <c r="H35" s="3">
-        <v>48300</v>
+        <v>-30700</v>
       </c>
       <c r="I35" s="3">
-        <v>111000</v>
+        <v>45900</v>
       </c>
       <c r="J35" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>69800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-58000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>71900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-71800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>54000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2746,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15912100</v>
+        <v>15322100</v>
       </c>
       <c r="E41" s="3">
-        <v>13797400</v>
+        <v>15138900</v>
       </c>
       <c r="F41" s="3">
-        <v>12789700</v>
+        <v>13127000</v>
       </c>
       <c r="G41" s="3">
-        <v>11133700</v>
+        <v>12168200</v>
       </c>
       <c r="H41" s="3">
-        <v>8604800</v>
+        <v>10592700</v>
       </c>
       <c r="I41" s="3">
-        <v>9436300</v>
+        <v>8186700</v>
       </c>
       <c r="J41" s="3">
+        <v>8977800</v>
+      </c>
+      <c r="K41" s="3">
         <v>8051600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6258500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5187600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6258200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5157800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5238700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4986500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3912100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3816300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3713200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3312200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3375300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3587700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4089400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1345700</v>
+        <v>1250300</v>
       </c>
       <c r="E42" s="3">
-        <v>1365800</v>
+        <v>1280300</v>
       </c>
       <c r="F42" s="3">
-        <v>1386900</v>
+        <v>1299500</v>
       </c>
       <c r="G42" s="3">
-        <v>1568500</v>
+        <v>1319500</v>
       </c>
       <c r="H42" s="3">
-        <v>1543200</v>
+        <v>1492300</v>
       </c>
       <c r="I42" s="3">
-        <v>1485800</v>
+        <v>1468200</v>
       </c>
       <c r="J42" s="3">
+        <v>1413600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1320200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1264900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1481600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1220500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1022700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>918300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>761600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>847700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>793300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>708200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2022100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2800900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3328000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3899000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,212 +3170,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>67300</v>
+        <v>70900</v>
       </c>
       <c r="E47" s="3">
-        <v>66500</v>
+        <v>64000</v>
       </c>
       <c r="F47" s="3">
-        <v>33300</v>
+        <v>63200</v>
       </c>
       <c r="G47" s="3">
-        <v>33500</v>
+        <v>31700</v>
       </c>
       <c r="H47" s="3">
-        <v>33900</v>
+        <v>31900</v>
       </c>
       <c r="I47" s="3">
+        <v>32300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K47" s="3">
+        <v>18700</v>
+      </c>
+      <c r="L47" s="3">
+        <v>15600</v>
+      </c>
+      <c r="M47" s="3">
+        <v>16300</v>
+      </c>
+      <c r="N47" s="3">
+        <v>17100</v>
+      </c>
+      <c r="O47" s="3">
         <v>18200</v>
       </c>
-      <c r="J47" s="3">
-        <v>18700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>15600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>16300</v>
-      </c>
-      <c r="M47" s="3">
-        <v>17100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>18200</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>21200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>23800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>25600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1425600</v>
+        <v>1207300</v>
       </c>
       <c r="E48" s="3">
-        <v>1436200</v>
+        <v>1356300</v>
       </c>
       <c r="F48" s="3">
-        <v>1461900</v>
+        <v>1366400</v>
       </c>
       <c r="G48" s="3">
-        <v>1490400</v>
+        <v>1390900</v>
       </c>
       <c r="H48" s="3">
-        <v>1458900</v>
+        <v>1418000</v>
       </c>
       <c r="I48" s="3">
-        <v>1461500</v>
+        <v>1388000</v>
       </c>
       <c r="J48" s="3">
+        <v>1390500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1474700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1562200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1621100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1643200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1635600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1452400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1400700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1424200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1453100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1472500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1568500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1569200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1558900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1652800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>508100</v>
+        <v>496300</v>
       </c>
       <c r="E49" s="3">
+        <v>483400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>488500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>571100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>624600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>602600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>541100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>569800</v>
+      </c>
+      <c r="L49" s="3">
+        <v>574800</v>
+      </c>
+      <c r="M49" s="3">
+        <v>557300</v>
+      </c>
+      <c r="N49" s="3">
+        <v>553000</v>
+      </c>
+      <c r="O49" s="3">
+        <v>531400</v>
+      </c>
+      <c r="P49" s="3">
         <v>513500</v>
       </c>
-      <c r="F49" s="3">
-        <v>600300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>656500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>633400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>568800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>569800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>574800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>557300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>553000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>531400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>513500</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>459600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>444200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>439000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>437400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>427800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>420300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>414300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>435900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7774900</v>
+        <v>7119000</v>
       </c>
       <c r="E52" s="3">
-        <v>5887600</v>
+        <v>7397100</v>
       </c>
       <c r="F52" s="3">
-        <v>5907400</v>
+        <v>5601600</v>
       </c>
       <c r="G52" s="3">
-        <v>6036000</v>
+        <v>5620300</v>
       </c>
       <c r="H52" s="3">
-        <v>6085400</v>
+        <v>5742700</v>
       </c>
       <c r="I52" s="3">
-        <v>6405600</v>
+        <v>5789700</v>
       </c>
       <c r="J52" s="3">
+        <v>6094400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6387000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6698400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6770600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6253400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6624100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6580200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5876500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5314100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5421200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5183100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5058300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5057200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5642600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6038400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79718500</v>
+        <v>76136100</v>
       </c>
       <c r="E54" s="3">
-        <v>76874500</v>
+        <v>75844800</v>
       </c>
       <c r="F54" s="3">
-        <v>77638200</v>
+        <v>73139000</v>
       </c>
       <c r="G54" s="3">
-        <v>76425600</v>
+        <v>73865600</v>
       </c>
       <c r="H54" s="3">
-        <v>74798700</v>
+        <v>72711900</v>
       </c>
       <c r="I54" s="3">
-        <v>74860200</v>
+        <v>71164100</v>
       </c>
       <c r="J54" s="3">
+        <v>71222600</v>
+      </c>
+      <c r="K54" s="3">
         <v>72689600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>74081100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73225600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74070700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73702600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72164900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66750100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>64796100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65141000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68231600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>68767200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>70360000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71940200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>76147700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,76 +3934,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59300</v>
+        <v>61800</v>
       </c>
       <c r="E59" s="3">
-        <v>113900</v>
+        <v>56500</v>
       </c>
       <c r="F59" s="3">
-        <v>90500</v>
+        <v>108400</v>
       </c>
       <c r="G59" s="3">
-        <v>76500</v>
+        <v>86100</v>
       </c>
       <c r="H59" s="3">
-        <v>111400</v>
+        <v>72800</v>
       </c>
       <c r="I59" s="3">
-        <v>121200</v>
+        <v>106000</v>
       </c>
       <c r="J59" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K59" s="3">
         <v>98700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>44500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>39200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>31900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>26600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>39600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,144 +4076,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2385700</v>
+        <v>2691300</v>
       </c>
       <c r="E61" s="3">
-        <v>1837500</v>
+        <v>2269800</v>
       </c>
       <c r="F61" s="3">
-        <v>1831300</v>
+        <v>1748200</v>
       </c>
       <c r="G61" s="3">
-        <v>1334000</v>
+        <v>1742300</v>
       </c>
       <c r="H61" s="3">
-        <v>1565900</v>
+        <v>1269200</v>
       </c>
       <c r="I61" s="3">
-        <v>1631000</v>
+        <v>1489800</v>
       </c>
       <c r="J61" s="3">
+        <v>1551800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1658100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1271000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1033900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1100400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>992000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1115900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1099000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1153800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1250000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>735500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>527800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>567000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>635100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>724100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1059800</v>
+        <v>1550800</v>
       </c>
       <c r="E62" s="3">
-        <v>1019100</v>
+        <v>1008300</v>
       </c>
       <c r="F62" s="3">
-        <v>1059500</v>
+        <v>969600</v>
       </c>
       <c r="G62" s="3">
-        <v>908700</v>
+        <v>1008000</v>
       </c>
       <c r="H62" s="3">
-        <v>858800</v>
+        <v>864500</v>
       </c>
       <c r="I62" s="3">
-        <v>821100</v>
+        <v>817100</v>
       </c>
       <c r="J62" s="3">
+        <v>781200</v>
+      </c>
+      <c r="K62" s="3">
         <v>804200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>844200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>862100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>821800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>812400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>750400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>730600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>722300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>626900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>524200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>524000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>939800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>987300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72611900</v>
+        <v>69856800</v>
       </c>
       <c r="E66" s="3">
-        <v>70327400</v>
+        <v>69083500</v>
       </c>
       <c r="F66" s="3">
-        <v>68955400</v>
+        <v>66910100</v>
       </c>
       <c r="G66" s="3">
-        <v>67366900</v>
+        <v>65604700</v>
       </c>
       <c r="H66" s="3">
-        <v>65603100</v>
+        <v>64093300</v>
       </c>
       <c r="I66" s="3">
-        <v>65727500</v>
+        <v>62415300</v>
       </c>
       <c r="J66" s="3">
+        <v>62533600</v>
+      </c>
+      <c r="K66" s="3">
         <v>63688800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64220400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63253400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64183600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63957400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62566500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57689300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55721300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55974500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57462600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>58203700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>59781700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>61630800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>65474900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6072400</v>
+        <v>-6274700</v>
       </c>
       <c r="E72" s="3">
-        <v>-5759300</v>
+        <v>-5777300</v>
       </c>
       <c r="F72" s="3">
-        <v>-3623600</v>
+        <v>-5479400</v>
       </c>
       <c r="G72" s="3">
-        <v>-3245500</v>
+        <v>-3447500</v>
       </c>
       <c r="H72" s="3">
-        <v>-3108700</v>
+        <v>-3087800</v>
       </c>
       <c r="I72" s="3">
-        <v>-3171600</v>
+        <v>-2957600</v>
       </c>
       <c r="J72" s="3">
+        <v>-3017500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3303500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3306800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3195300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3747100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7106600</v>
+        <v>6279400</v>
       </c>
       <c r="E76" s="3">
-        <v>6547100</v>
+        <v>6761300</v>
       </c>
       <c r="F76" s="3">
-        <v>8682800</v>
+        <v>6229000</v>
       </c>
       <c r="G76" s="3">
-        <v>9058700</v>
+        <v>8260900</v>
       </c>
       <c r="H76" s="3">
-        <v>9195600</v>
+        <v>8618500</v>
       </c>
       <c r="I76" s="3">
-        <v>9132800</v>
+        <v>8748800</v>
       </c>
       <c r="J76" s="3">
+        <v>8689000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9000900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9860700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9972200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9887100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9745200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9598400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9060800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9074900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9166500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10769000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10563500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10578300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10309400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10672800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-186800</v>
+        <v>-423700</v>
       </c>
       <c r="E81" s="3">
-        <v>-2230300</v>
+        <v>-177700</v>
       </c>
       <c r="F81" s="3">
-        <v>-307900</v>
+        <v>-2121900</v>
       </c>
       <c r="G81" s="3">
-        <v>-29100</v>
+        <v>-292900</v>
       </c>
       <c r="H81" s="3">
-        <v>48300</v>
+        <v>-30700</v>
       </c>
       <c r="I81" s="3">
-        <v>111000</v>
+        <v>45900</v>
       </c>
       <c r="J81" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>69800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-58000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>71900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-71800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>54000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41400</v>
+        <v>106700</v>
       </c>
       <c r="E83" s="3">
-        <v>42900</v>
+        <v>39400</v>
       </c>
       <c r="F83" s="3">
-        <v>92200</v>
+        <v>40800</v>
       </c>
       <c r="G83" s="3">
-        <v>69300</v>
+        <v>87700</v>
       </c>
       <c r="H83" s="3">
-        <v>43700</v>
+        <v>65900</v>
       </c>
       <c r="I83" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="J83" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K83" s="3">
         <v>41900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>76900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>114000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>92900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1334200</v>
+        <v>-253700</v>
       </c>
       <c r="E89" s="3">
-        <v>1395800</v>
+        <v>1269400</v>
       </c>
       <c r="F89" s="3">
-        <v>1475000</v>
+        <v>1327900</v>
       </c>
       <c r="G89" s="3">
-        <v>2401900</v>
+        <v>1403300</v>
       </c>
       <c r="H89" s="3">
-        <v>-352400</v>
+        <v>2285200</v>
       </c>
       <c r="I89" s="3">
-        <v>3291400</v>
+        <v>-335300</v>
       </c>
       <c r="J89" s="3">
+        <v>3131500</v>
+      </c>
+      <c r="K89" s="3">
         <v>775700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1857400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1221400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>688700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>744800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1229300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1608400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>174300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-870300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-999700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-582700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-135700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15200</v>
+        <v>-104100</v>
       </c>
       <c r="E91" s="3">
-        <v>-21100</v>
+        <v>-14400</v>
       </c>
       <c r="F91" s="3">
-        <v>-29600</v>
+        <v>-20100</v>
       </c>
       <c r="G91" s="3">
-        <v>-25500</v>
+        <v>-28100</v>
       </c>
       <c r="H91" s="3">
-        <v>-50100</v>
+        <v>-22500</v>
       </c>
       <c r="I91" s="3">
-        <v>-37000</v>
+        <v>-47700</v>
       </c>
       <c r="J91" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-61500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-98600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-102100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-73800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-71400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-65900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>83900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-602100</v>
+        <v>32100</v>
       </c>
       <c r="E94" s="3">
-        <v>-269200</v>
+        <v>-572900</v>
       </c>
       <c r="F94" s="3">
+        <v>-256100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
-        <v>722700</v>
-      </c>
       <c r="H94" s="3">
-        <v>-582700</v>
+        <v>687600</v>
       </c>
       <c r="I94" s="3">
-        <v>-755200</v>
+        <v>-554400</v>
       </c>
       <c r="J94" s="3">
+        <v>-718500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-552900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-315200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-102500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>238300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-628400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-509700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>46200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>414000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1357200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1043800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>651700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>88900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1075700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1291400</v>
+        <v>368100</v>
       </c>
       <c r="E100" s="3">
-        <v>63500</v>
+        <v>1228600</v>
       </c>
       <c r="F100" s="3">
-        <v>484300</v>
+        <v>60400</v>
       </c>
       <c r="G100" s="3">
-        <v>-318000</v>
+        <v>460700</v>
       </c>
       <c r="H100" s="3">
-        <v>-28700</v>
+        <v>-302500</v>
       </c>
       <c r="I100" s="3">
-        <v>-57100</v>
+        <v>-27300</v>
       </c>
       <c r="J100" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="K100" s="3">
         <v>451300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>208400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-76200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>105700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-158000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-77000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-81900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-171400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>536300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>208900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-36100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-50000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-62800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>360300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
+        <v>-7900</v>
       </c>
       <c r="E101" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>700</v>
+      </c>
+      <c r="N101" s="3">
+        <v>24700</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T101" s="3">
         <v>-7400</v>
       </c>
-      <c r="F101" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>24700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>3400</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-15300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2030400</v>
+        <v>138600</v>
       </c>
       <c r="E102" s="3">
-        <v>1182700</v>
+        <v>1931800</v>
       </c>
       <c r="F102" s="3">
-        <v>1962900</v>
+        <v>1125200</v>
       </c>
       <c r="G102" s="3">
-        <v>2807400</v>
+        <v>1867500</v>
       </c>
       <c r="H102" s="3">
-        <v>-962900</v>
+        <v>2671000</v>
       </c>
       <c r="I102" s="3">
-        <v>2477400</v>
+        <v>-916200</v>
       </c>
       <c r="J102" s="3">
+        <v>2357000</v>
+      </c>
+      <c r="K102" s="3">
         <v>683900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1755000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1399400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1057300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-57600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-67400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1017800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>53200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>83400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>559000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-20100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-105900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-112200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-16900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,192 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>543400</v>
+        <v>444400</v>
       </c>
       <c r="E8" s="3">
-        <v>462800</v>
+        <v>424000</v>
       </c>
       <c r="F8" s="3">
-        <v>511300</v>
+        <v>522200</v>
       </c>
       <c r="G8" s="3">
-        <v>549800</v>
+        <v>444700</v>
       </c>
       <c r="H8" s="3">
-        <v>577100</v>
+        <v>486900</v>
       </c>
       <c r="I8" s="3">
+        <v>524300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>554600</v>
+      </c>
+      <c r="K8" s="3">
         <v>534600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>565800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>551200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>674900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>581400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>606300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>619000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>659100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>614400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>635700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>644900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>692800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>701400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>717600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>709200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>735200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,79 +1257,91 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-39900</v>
+        <v>-38800</v>
       </c>
       <c r="E15" s="3">
-        <v>-39500</v>
+        <v>-40200</v>
       </c>
       <c r="F15" s="3">
-        <v>-38900</v>
+        <v>-38300</v>
       </c>
       <c r="G15" s="3">
-        <v>-44800</v>
+        <v>-38000</v>
       </c>
       <c r="H15" s="3">
-        <v>-45500</v>
+        <v>-36900</v>
       </c>
       <c r="I15" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-40700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-39800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-40900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-43500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-41300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-43200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-42100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-57400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-54900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-54800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-28500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-27300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-27600</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="X15" s="3">
-        <v>-27100</v>
       </c>
       <c r="Y15" s="3">
         <v>-28500</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>-28500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>723200</v>
+        <v>421100</v>
       </c>
       <c r="E17" s="3">
-        <v>588300</v>
+        <v>241800</v>
       </c>
       <c r="F17" s="3">
-        <v>265400</v>
+        <v>695000</v>
       </c>
       <c r="G17" s="3">
-        <v>546200</v>
+        <v>565400</v>
       </c>
       <c r="H17" s="3">
-        <v>778400</v>
+        <v>257400</v>
       </c>
       <c r="I17" s="3">
+        <v>523000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>748000</v>
+      </c>
+      <c r="K17" s="3">
         <v>315400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>434600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>480600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>515800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>442900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>448700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>418100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1003300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>489200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>523500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>533900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>428200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>489700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>406900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>444700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>542300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-179800</v>
+        <v>23300</v>
       </c>
       <c r="E18" s="3">
-        <v>-125500</v>
+        <v>182200</v>
       </c>
       <c r="F18" s="3">
-        <v>245800</v>
+        <v>-172700</v>
       </c>
       <c r="G18" s="3">
-        <v>3600</v>
+        <v>-120600</v>
       </c>
       <c r="H18" s="3">
-        <v>-201300</v>
+        <v>229500</v>
       </c>
       <c r="I18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-193400</v>
+      </c>
+      <c r="K18" s="3">
         <v>219200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>131200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>70700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>159100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>138400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>157600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>201000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-344200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>125200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>112300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>111000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>264600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>211600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>310700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>264500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>192900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1547,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-248800</v>
+        <v>150200</v>
       </c>
       <c r="E20" s="3">
-        <v>-122000</v>
+        <v>-20000</v>
       </c>
       <c r="F20" s="3">
-        <v>-2341000</v>
+        <v>-239100</v>
       </c>
       <c r="G20" s="3">
-        <v>-272100</v>
+        <v>-117300</v>
       </c>
       <c r="H20" s="3">
-        <v>166200</v>
+        <v>-2242800</v>
       </c>
       <c r="I20" s="3">
+        <v>-254700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>159700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-139300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-48400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-83300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-139800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-114400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-77600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-139900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-191900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-58400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-118800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>9300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-362000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-125100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-199100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-180000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-267300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-321800</v>
+        <v>226700</v>
       </c>
       <c r="E21" s="3">
-        <v>-208100</v>
+        <v>202200</v>
       </c>
       <c r="F21" s="3">
-        <v>-2054300</v>
+        <v>-309200</v>
       </c>
       <c r="G21" s="3">
-        <v>-180800</v>
+        <v>-198600</v>
       </c>
       <c r="H21" s="3">
-        <v>28300</v>
+        <v>-1974700</v>
       </c>
       <c r="I21" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K21" s="3">
         <v>121500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>122300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>29200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>77900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>68800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>124600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>103400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-459100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>96300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>29400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>147800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>16700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>114500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>140100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>117000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>20300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1774,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-428500</v>
+        <v>173600</v>
       </c>
       <c r="E23" s="3">
-        <v>-247500</v>
+        <v>162200</v>
       </c>
       <c r="F23" s="3">
-        <v>-2095100</v>
+        <v>-411800</v>
       </c>
       <c r="G23" s="3">
-        <v>-268500</v>
+        <v>-237900</v>
       </c>
       <c r="H23" s="3">
-        <v>-35100</v>
+        <v>-2013300</v>
       </c>
       <c r="I23" s="3">
+        <v>-253400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K23" s="3">
         <v>79900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>82800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>19300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>24100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>80100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>61100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-536100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>66800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>120300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-97300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>86500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>111600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>84500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-74400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-39200</v>
+        <v>59900</v>
       </c>
       <c r="E24" s="3">
-        <v>-69800</v>
+        <v>41000</v>
       </c>
       <c r="F24" s="3">
-        <v>26800</v>
+        <v>-37700</v>
       </c>
       <c r="G24" s="3">
-        <v>24300</v>
+        <v>-67100</v>
       </c>
       <c r="H24" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>33900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-22800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>18600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>28200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-535200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>21200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>51400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>48500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-25500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>46600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>32200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>31500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-72500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-389300</v>
+        <v>113700</v>
       </c>
       <c r="E26" s="3">
-        <v>-177700</v>
+        <v>121200</v>
       </c>
       <c r="F26" s="3">
-        <v>-2122000</v>
+        <v>-374100</v>
       </c>
       <c r="G26" s="3">
-        <v>-292800</v>
+        <v>-170800</v>
       </c>
       <c r="H26" s="3">
-        <v>-33500</v>
+        <v>-2039000</v>
       </c>
       <c r="I26" s="3">
+        <v>-277600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K26" s="3">
         <v>46000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>105600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-13700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>16200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>69800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>32900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>45600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-58000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>71800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-71800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>39900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>79400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>53000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-389300</v>
+        <v>113700</v>
       </c>
       <c r="E27" s="3">
-        <v>-177700</v>
+        <v>121200</v>
       </c>
       <c r="F27" s="3">
-        <v>-2121900</v>
+        <v>-374200</v>
       </c>
       <c r="G27" s="3">
-        <v>-292900</v>
+        <v>-170800</v>
       </c>
       <c r="H27" s="3">
-        <v>-33600</v>
+        <v>-2039000</v>
       </c>
       <c r="I27" s="3">
+        <v>-277700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="K27" s="3">
         <v>45900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>105600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-13700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>69800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>32900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>45600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-58000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>71900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-71800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>39900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>79400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>53000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,37 +2236,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+        <v>3300</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-33100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2161,14 +2283,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2180,19 +2302,25 @@
         <v>5</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-77800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>1000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>25500</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>248800</v>
+        <v>-150200</v>
       </c>
       <c r="E32" s="3">
-        <v>122000</v>
+        <v>20000</v>
       </c>
       <c r="F32" s="3">
-        <v>2341000</v>
+        <v>239100</v>
       </c>
       <c r="G32" s="3">
-        <v>272100</v>
+        <v>117300</v>
       </c>
       <c r="H32" s="3">
-        <v>-166200</v>
+        <v>2242800</v>
       </c>
       <c r="I32" s="3">
+        <v>254700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="K32" s="3">
         <v>139300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>48400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>83300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>139800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>114400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>77600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>139900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>191900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>58400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>118800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-9300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>362000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>125100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>199100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>180000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>267300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-423700</v>
+        <v>117000</v>
       </c>
       <c r="E33" s="3">
-        <v>-177700</v>
+        <v>124900</v>
       </c>
       <c r="F33" s="3">
-        <v>-2121900</v>
+        <v>-407200</v>
       </c>
       <c r="G33" s="3">
-        <v>-292900</v>
+        <v>-170800</v>
       </c>
       <c r="H33" s="3">
-        <v>-30700</v>
+        <v>-2039300</v>
       </c>
       <c r="I33" s="3">
+        <v>-281300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K33" s="3">
         <v>45900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>105600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-13700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>69800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>32900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>45600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-58000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>71900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-71800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>39900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>54000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>23600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-423700</v>
+        <v>117000</v>
       </c>
       <c r="E35" s="3">
-        <v>-177700</v>
+        <v>124900</v>
       </c>
       <c r="F35" s="3">
-        <v>-2121900</v>
+        <v>-407200</v>
       </c>
       <c r="G35" s="3">
-        <v>-292900</v>
+        <v>-170800</v>
       </c>
       <c r="H35" s="3">
-        <v>-30700</v>
+        <v>-2039300</v>
       </c>
       <c r="I35" s="3">
+        <v>-281300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K35" s="3">
         <v>45900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>105600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-13700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>69800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>32900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>45600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-58000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>71900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-71800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>39900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>54000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>23600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,150 +2919,164 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15322100</v>
+        <v>13084100</v>
       </c>
       <c r="E41" s="3">
-        <v>15138900</v>
+        <v>13556800</v>
       </c>
       <c r="F41" s="3">
-        <v>13127000</v>
+        <v>14724200</v>
       </c>
       <c r="G41" s="3">
-        <v>12168200</v>
+        <v>14548200</v>
       </c>
       <c r="H41" s="3">
-        <v>10592700</v>
+        <v>12614800</v>
       </c>
       <c r="I41" s="3">
+        <v>11693400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>10179300</v>
+      </c>
+      <c r="K41" s="3">
         <v>8186700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8977800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8051600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6258500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5187600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6258200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5157800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5238700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4986500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3912100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3816300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3713200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3312200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3375300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3587700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4089400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1250300</v>
+        <v>1916900</v>
       </c>
       <c r="E42" s="3">
-        <v>1280300</v>
+        <v>1386600</v>
       </c>
       <c r="F42" s="3">
-        <v>1299500</v>
+        <v>1201500</v>
       </c>
       <c r="G42" s="3">
-        <v>1319500</v>
+        <v>1230300</v>
       </c>
       <c r="H42" s="3">
-        <v>1492300</v>
+        <v>1248800</v>
       </c>
       <c r="I42" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1468200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1413600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1320200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1264900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1481600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1220500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1022700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>918300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>761600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>847700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>793300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>708200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2022100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>2800900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3328000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>3899000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3300,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,221 +3377,245 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70900</v>
+        <v>99900</v>
       </c>
       <c r="E47" s="3">
-        <v>64000</v>
+        <v>67000</v>
       </c>
       <c r="F47" s="3">
-        <v>63200</v>
+        <v>68100</v>
       </c>
       <c r="G47" s="3">
-        <v>31700</v>
+        <v>61500</v>
       </c>
       <c r="H47" s="3">
-        <v>31900</v>
+        <v>60800</v>
       </c>
       <c r="I47" s="3">
+        <v>30400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K47" s="3">
         <v>32300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>17300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>18700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>15600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>16300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>17100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>18200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>27400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>21000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>19900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>20300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>21200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>22400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>22300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>23800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>25600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1207300</v>
+        <v>1107700</v>
       </c>
       <c r="E48" s="3">
-        <v>1356300</v>
+        <v>1143100</v>
       </c>
       <c r="F48" s="3">
-        <v>1366400</v>
+        <v>1160200</v>
       </c>
       <c r="G48" s="3">
-        <v>1390900</v>
+        <v>1303400</v>
       </c>
       <c r="H48" s="3">
-        <v>1418000</v>
+        <v>1313100</v>
       </c>
       <c r="I48" s="3">
+        <v>1336600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1362700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1388000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1390500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1474700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1562200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1621100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1643200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1635600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1452400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1400700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1424200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1453100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1472500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1568500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1569200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1558900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1652800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>496300</v>
+        <v>466000</v>
       </c>
       <c r="E49" s="3">
-        <v>483400</v>
+        <v>476600</v>
       </c>
       <c r="F49" s="3">
-        <v>488500</v>
+        <v>476900</v>
       </c>
       <c r="G49" s="3">
-        <v>571100</v>
+        <v>464600</v>
       </c>
       <c r="H49" s="3">
-        <v>624600</v>
+        <v>469500</v>
       </c>
       <c r="I49" s="3">
+        <v>548800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>600300</v>
+      </c>
+      <c r="K49" s="3">
         <v>602600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>541100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>569800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>574800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>557300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>553000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>531400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>513500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>459600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>444200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>439000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>437400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>427800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>420300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>414300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>435900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7119000</v>
+        <v>7204000</v>
       </c>
       <c r="E52" s="3">
-        <v>7397100</v>
+        <v>6731600</v>
       </c>
       <c r="F52" s="3">
-        <v>5601600</v>
+        <v>6841200</v>
       </c>
       <c r="G52" s="3">
-        <v>5620300</v>
+        <v>7108500</v>
       </c>
       <c r="H52" s="3">
-        <v>5742700</v>
+        <v>5383000</v>
       </c>
       <c r="I52" s="3">
+        <v>5401000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5518600</v>
+      </c>
+      <c r="K52" s="3">
         <v>5789700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6094400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6387000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6698400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6770600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>6253400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6624100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6580200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5876500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5314100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>5421200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>5183100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>5058300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5057200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>5642600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>6038400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76136100</v>
+        <v>75585000</v>
       </c>
       <c r="E54" s="3">
-        <v>75844800</v>
+        <v>73214700</v>
       </c>
       <c r="F54" s="3">
-        <v>73139000</v>
+        <v>73165200</v>
       </c>
       <c r="G54" s="3">
-        <v>73865600</v>
+        <v>72885300</v>
       </c>
       <c r="H54" s="3">
-        <v>72711900</v>
+        <v>70285100</v>
       </c>
       <c r="I54" s="3">
+        <v>70983200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>69874600</v>
+      </c>
+      <c r="K54" s="3">
         <v>71164100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>71222600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>72689600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>74081100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>73225600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>74070700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>73702600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>72164900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>66750100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>64796100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>65141000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>68231600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>68767200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>70360000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>71940200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>76147700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,31 +4128,37 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>209900</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3937,79 +4205,91 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>61800</v>
+        <v>30800</v>
       </c>
       <c r="E59" s="3">
-        <v>56500</v>
+        <v>20600</v>
       </c>
       <c r="F59" s="3">
-        <v>108400</v>
+        <v>59400</v>
       </c>
       <c r="G59" s="3">
-        <v>86100</v>
+        <v>54300</v>
       </c>
       <c r="H59" s="3">
-        <v>72800</v>
+        <v>104200</v>
       </c>
       <c r="I59" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K59" s="3">
         <v>106000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>115400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>98700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>46500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>22100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>33200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>24400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>48800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>44500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>47800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>30900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>48000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>39200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>31900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>26600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>39600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,150 +4359,168 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2691300</v>
+        <v>2471400</v>
       </c>
       <c r="E61" s="3">
-        <v>2269800</v>
+        <v>2513700</v>
       </c>
       <c r="F61" s="3">
-        <v>1748200</v>
+        <v>2586300</v>
       </c>
       <c r="G61" s="3">
-        <v>1742300</v>
+        <v>2181200</v>
       </c>
       <c r="H61" s="3">
-        <v>1269200</v>
+        <v>1680000</v>
       </c>
       <c r="I61" s="3">
+        <v>1674300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1219700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1489800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1551800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1658100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1271000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1033900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1100400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>992000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1115900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1099000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1153800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1250000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>735500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>527800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>567000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>635100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>724100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1550800</v>
+        <v>1413700</v>
       </c>
       <c r="E62" s="3">
-        <v>1008300</v>
+        <v>1464500</v>
       </c>
       <c r="F62" s="3">
-        <v>969600</v>
+        <v>1490300</v>
       </c>
       <c r="G62" s="3">
-        <v>1008000</v>
+        <v>968900</v>
       </c>
       <c r="H62" s="3">
-        <v>864500</v>
+        <v>931800</v>
       </c>
       <c r="I62" s="3">
+        <v>968600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>830800</v>
+      </c>
+      <c r="K62" s="3">
         <v>817100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>781200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>804200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>844200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>862100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>821800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>812400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>750400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>700500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>730600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>722300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>626900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>524200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>524000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>939800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>987300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69856800</v>
+        <v>69462600</v>
       </c>
       <c r="E66" s="3">
-        <v>69083500</v>
+        <v>67139300</v>
       </c>
       <c r="F66" s="3">
-        <v>66910100</v>
+        <v>67130900</v>
       </c>
       <c r="G66" s="3">
-        <v>65604700</v>
+        <v>66387800</v>
       </c>
       <c r="H66" s="3">
-        <v>64093300</v>
+        <v>64299200</v>
       </c>
       <c r="I66" s="3">
+        <v>63044700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>61592300</v>
+      </c>
+      <c r="K66" s="3">
         <v>62415300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>62533600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>63688800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>64220400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>63253400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>64183600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>63957400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>62566500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>57689300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>55721300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>55974500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>57462600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>58203700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>59781700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>61630800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>65474900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6274700</v>
+        <v>163600</v>
       </c>
       <c r="E72" s="3">
-        <v>-5777300</v>
+        <v>-5974600</v>
       </c>
       <c r="F72" s="3">
-        <v>-5479400</v>
+        <v>-6029900</v>
       </c>
       <c r="G72" s="3">
-        <v>-3447500</v>
+        <v>-5551900</v>
       </c>
       <c r="H72" s="3">
-        <v>-3087800</v>
+        <v>-5265600</v>
       </c>
       <c r="I72" s="3">
+        <v>-3313000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2967300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2957600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3017500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3303500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3306800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3195300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3747100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6279400</v>
+        <v>6122400</v>
       </c>
       <c r="E76" s="3">
-        <v>6761300</v>
+        <v>6075300</v>
       </c>
       <c r="F76" s="3">
-        <v>6229000</v>
+        <v>6034300</v>
       </c>
       <c r="G76" s="3">
-        <v>8260900</v>
+        <v>6497500</v>
       </c>
       <c r="H76" s="3">
-        <v>8618500</v>
+        <v>5985900</v>
       </c>
       <c r="I76" s="3">
+        <v>7938500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8282200</v>
+      </c>
+      <c r="K76" s="3">
         <v>8748800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8689000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9000900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9860700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9972200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9887100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9745200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9598400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9060800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>9074900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>9166500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>10769000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>10563500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>10578300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>10309400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>10672800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-423700</v>
+        <v>117000</v>
       </c>
       <c r="E81" s="3">
-        <v>-177700</v>
+        <v>124900</v>
       </c>
       <c r="F81" s="3">
-        <v>-2121900</v>
+        <v>-407200</v>
       </c>
       <c r="G81" s="3">
-        <v>-292900</v>
+        <v>-170800</v>
       </c>
       <c r="H81" s="3">
-        <v>-30700</v>
+        <v>-2039300</v>
       </c>
       <c r="I81" s="3">
+        <v>-281300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K81" s="3">
         <v>45900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>105600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-13700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>69800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>32900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>45600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-58000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>71900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-71800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>39900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>54000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>23600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>106700</v>
+        <v>53100</v>
       </c>
       <c r="E83" s="3">
-        <v>39400</v>
+        <v>40000</v>
       </c>
       <c r="F83" s="3">
-        <v>40800</v>
+        <v>102600</v>
       </c>
       <c r="G83" s="3">
-        <v>87700</v>
+        <v>37900</v>
       </c>
       <c r="H83" s="3">
-        <v>65900</v>
+        <v>39200</v>
       </c>
       <c r="I83" s="3">
+        <v>84300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K83" s="3">
         <v>41600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>39500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>41900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>58600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>44700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>44500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>42400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>76900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>29500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>35800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>27700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>114000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>28000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>28500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>32500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>92900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-253700</v>
+        <v>1322800</v>
       </c>
       <c r="E89" s="3">
-        <v>1269400</v>
+        <v>-498400</v>
       </c>
       <c r="F89" s="3">
-        <v>1327900</v>
+        <v>-243800</v>
       </c>
       <c r="G89" s="3">
-        <v>1403300</v>
+        <v>1219800</v>
       </c>
       <c r="H89" s="3">
-        <v>2285200</v>
+        <v>1276100</v>
       </c>
       <c r="I89" s="3">
+        <v>1348500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2196000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-335300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3131500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>775700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1857400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1221400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>688700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>744800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1229300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1608400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>174300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-870300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-999700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-582700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-135700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-104100</v>
+        <v>-25400</v>
       </c>
       <c r="E91" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="F91" s="3">
-        <v>-20100</v>
+        <v>-100000</v>
       </c>
       <c r="G91" s="3">
-        <v>-28100</v>
+        <v>-13900</v>
       </c>
       <c r="H91" s="3">
-        <v>-22500</v>
+        <v>-19300</v>
       </c>
       <c r="I91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-47700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-35200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-61500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-98600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-33000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-102100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-54100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-73800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-48800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-38100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-36100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-71400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-65900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-22800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>83900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>32100</v>
+        <v>-1371200</v>
       </c>
       <c r="E94" s="3">
-        <v>-572900</v>
+        <v>-388800</v>
       </c>
       <c r="F94" s="3">
-        <v>-256100</v>
+        <v>30800</v>
       </c>
       <c r="G94" s="3">
-        <v>-800</v>
+        <v>-550500</v>
       </c>
       <c r="H94" s="3">
-        <v>687600</v>
+        <v>-246100</v>
       </c>
       <c r="I94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>660800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-554400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-718500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-552900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-315200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-102500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>238300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-628400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-509700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>46200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>414000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1357200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>1043800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>651700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>88900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1075700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>368100</v>
+        <v>-81700</v>
       </c>
       <c r="E100" s="3">
-        <v>1228600</v>
+        <v>-69300</v>
       </c>
       <c r="F100" s="3">
-        <v>60400</v>
+        <v>353700</v>
       </c>
       <c r="G100" s="3">
-        <v>460700</v>
+        <v>1180700</v>
       </c>
       <c r="H100" s="3">
-        <v>-302500</v>
+        <v>57300</v>
       </c>
       <c r="I100" s="3">
+        <v>443500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-290700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-27300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-54400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>451300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>208400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-76200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>105700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-158000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-81900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-171400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>536300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>208900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-36100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-50000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-62800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>360300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7900</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>6700</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>-7000</v>
+        <v>-7600</v>
       </c>
       <c r="G101" s="3">
-        <v>4200</v>
+        <v>6400</v>
       </c>
       <c r="H101" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>9800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>24700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-15900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-7400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-6200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>2300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-2600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>138600</v>
+        <v>-129400</v>
       </c>
       <c r="E102" s="3">
-        <v>1931800</v>
+        <v>-956300</v>
       </c>
       <c r="F102" s="3">
-        <v>1125200</v>
+        <v>133200</v>
       </c>
       <c r="G102" s="3">
-        <v>1867500</v>
+        <v>1856400</v>
       </c>
       <c r="H102" s="3">
-        <v>2671000</v>
+        <v>1081300</v>
       </c>
       <c r="I102" s="3">
+        <v>1794600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2566700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-916200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2357000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>683900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1755000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1399400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1057300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-57600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-67400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1017800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>53200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>83400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>559000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-20100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-105900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-112200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-16900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>444400</v>
+        <v>487500</v>
       </c>
       <c r="E8" s="3">
-        <v>424000</v>
+        <v>404700</v>
       </c>
       <c r="F8" s="3">
-        <v>522200</v>
+        <v>387300</v>
       </c>
       <c r="G8" s="3">
-        <v>444700</v>
+        <v>382300</v>
       </c>
       <c r="H8" s="3">
-        <v>486900</v>
+        <v>450500</v>
       </c>
       <c r="I8" s="3">
-        <v>524300</v>
+        <v>1035000</v>
       </c>
       <c r="J8" s="3">
+        <v>536600</v>
+      </c>
+      <c r="K8" s="3">
         <v>554600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>534600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>565800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>551200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>674900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>581400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>606300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>619000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>659100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>614400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>635700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>644900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>692800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>701400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>717600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>709200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>735200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,85 +1283,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-38800</v>
+        <v>-38700</v>
       </c>
       <c r="E15" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="F15" s="3">
-        <v>-38300</v>
+        <v>-41100</v>
       </c>
       <c r="G15" s="3">
-        <v>-38000</v>
+        <v>-39200</v>
       </c>
       <c r="H15" s="3">
-        <v>-36900</v>
+        <v>-38200</v>
       </c>
       <c r="I15" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="R15" s="3">
         <v>-42100</v>
       </c>
-      <c r="J15" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-39800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-40900</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-43500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-42100</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-62000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-57400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-54900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-54800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-28500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-27300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-27600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-28500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-27100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>421100</v>
+        <v>229100</v>
       </c>
       <c r="E17" s="3">
-        <v>241800</v>
+        <v>373600</v>
       </c>
       <c r="F17" s="3">
-        <v>695000</v>
+        <v>198700</v>
       </c>
       <c r="G17" s="3">
-        <v>565400</v>
+        <v>558400</v>
       </c>
       <c r="H17" s="3">
-        <v>257400</v>
+        <v>578400</v>
       </c>
       <c r="I17" s="3">
-        <v>523000</v>
+        <v>798700</v>
       </c>
       <c r="J17" s="3">
+        <v>535300</v>
+      </c>
+      <c r="K17" s="3">
         <v>748000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>315400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>434600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>480600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>515800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>442900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>448700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>418100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1003300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>489200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>523500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>533900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>428200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>489700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>406900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>444700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>542300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23300</v>
+        <v>258400</v>
       </c>
       <c r="E18" s="3">
-        <v>182200</v>
+        <v>31100</v>
       </c>
       <c r="F18" s="3">
-        <v>-172700</v>
+        <v>188600</v>
       </c>
       <c r="G18" s="3">
-        <v>-120600</v>
+        <v>-176200</v>
       </c>
       <c r="H18" s="3">
-        <v>229500</v>
+        <v>-127900</v>
       </c>
       <c r="I18" s="3">
+        <v>236200</v>
+      </c>
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-193400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>219200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>131200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>159100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>138400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>157600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>201000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-344200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>125200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>112300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>111000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>264600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>211600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>310700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>264500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>192900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>150200</v>
+        <v>-55700</v>
       </c>
       <c r="E20" s="3">
-        <v>-20000</v>
+        <v>146500</v>
       </c>
       <c r="F20" s="3">
-        <v>-239100</v>
+        <v>-22600</v>
       </c>
       <c r="G20" s="3">
-        <v>-117300</v>
+        <v>-245300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2242800</v>
+        <v>-117200</v>
       </c>
       <c r="I20" s="3">
-        <v>-254700</v>
+        <v>-2556100</v>
       </c>
       <c r="J20" s="3">
+        <v>-260700</v>
+      </c>
+      <c r="K20" s="3">
         <v>159700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-139300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-48400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-83300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-139800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-114400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-77600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-139900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-191900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-58400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-118800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-362000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-125100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-199100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-180000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-267300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>226700</v>
+        <v>277800</v>
       </c>
       <c r="E21" s="3">
-        <v>202200</v>
+        <v>232000</v>
       </c>
       <c r="F21" s="3">
-        <v>-309200</v>
+        <v>207000</v>
       </c>
       <c r="G21" s="3">
-        <v>-198600</v>
+        <v>-316500</v>
       </c>
       <c r="H21" s="3">
-        <v>-1974700</v>
+        <v>-204900</v>
       </c>
       <c r="I21" s="3">
-        <v>-169900</v>
+        <v>-2194900</v>
       </c>
       <c r="J21" s="3">
+        <v>-173900</v>
+      </c>
+      <c r="K21" s="3">
         <v>27200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>121500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>122300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>68800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>124600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>103400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-459100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>96300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>29400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>147800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>16700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>114500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>140100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>117000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>20300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>173600</v>
+        <v>202700</v>
       </c>
       <c r="E23" s="3">
-        <v>162200</v>
+        <v>177600</v>
       </c>
       <c r="F23" s="3">
-        <v>-411800</v>
+        <v>166000</v>
       </c>
       <c r="G23" s="3">
-        <v>-237900</v>
+        <v>-421500</v>
       </c>
       <c r="H23" s="3">
-        <v>-2013300</v>
+        <v>-245100</v>
       </c>
       <c r="I23" s="3">
-        <v>-253400</v>
+        <v>-2319900</v>
       </c>
       <c r="J23" s="3">
+        <v>-259400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-33700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>79900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>82800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>80100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-536100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>66800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>120300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-97300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>86500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>111600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>84500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-74400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>59900</v>
+        <v>118500</v>
       </c>
       <c r="E24" s="3">
-        <v>41000</v>
+        <v>61300</v>
       </c>
       <c r="F24" s="3">
-        <v>-37700</v>
+        <v>41900</v>
       </c>
       <c r="G24" s="3">
-        <v>-67100</v>
+        <v>-38600</v>
       </c>
       <c r="H24" s="3">
-        <v>25700</v>
+        <v>-68600</v>
       </c>
       <c r="I24" s="3">
-        <v>24200</v>
+        <v>51100</v>
       </c>
       <c r="J24" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-22800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-535200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>51400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>48500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-25500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>46600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>32200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>31500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-72500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>113700</v>
+        <v>84200</v>
       </c>
       <c r="E26" s="3">
-        <v>121200</v>
+        <v>116400</v>
       </c>
       <c r="F26" s="3">
-        <v>-374100</v>
+        <v>124100</v>
       </c>
       <c r="G26" s="3">
-        <v>-170800</v>
+        <v>-382900</v>
       </c>
       <c r="H26" s="3">
-        <v>-2039000</v>
+        <v>-176500</v>
       </c>
       <c r="I26" s="3">
-        <v>-277600</v>
+        <v>-2371000</v>
       </c>
       <c r="J26" s="3">
+        <v>-284200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-32200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>105600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>69800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>45600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-58000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>71800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-71800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>39900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>79400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>53000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>113700</v>
+        <v>84000</v>
       </c>
       <c r="E27" s="3">
-        <v>121200</v>
+        <v>116300</v>
       </c>
       <c r="F27" s="3">
-        <v>-374200</v>
+        <v>124000</v>
       </c>
       <c r="G27" s="3">
-        <v>-170800</v>
+        <v>-382900</v>
       </c>
       <c r="H27" s="3">
-        <v>-2039000</v>
+        <v>-176500</v>
       </c>
       <c r="I27" s="3">
-        <v>-277700</v>
+        <v>-2371100</v>
       </c>
       <c r="J27" s="3">
+        <v>-284300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-32300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>105600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>69800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>45600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-58000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>71900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-71800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>39900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>79400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>53000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,40 +2300,43 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>3300</v>
+        <v>10500</v>
       </c>
       <c r="E29" s="3">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="F29" s="3">
-        <v>-33100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+        <v>3900</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-33800</v>
       </c>
       <c r="H29" s="3">
-        <v>-400</v>
+        <v>1600</v>
       </c>
       <c r="I29" s="3">
-        <v>-3500</v>
+        <v>-4000</v>
       </c>
       <c r="J29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K29" s="3">
         <v>2800</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2289,38 +2350,41 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-77800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>25500</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-150200</v>
+        <v>55700</v>
       </c>
       <c r="E32" s="3">
-        <v>20000</v>
+        <v>-146500</v>
       </c>
       <c r="F32" s="3">
-        <v>239100</v>
+        <v>22600</v>
       </c>
       <c r="G32" s="3">
-        <v>117300</v>
+        <v>245300</v>
       </c>
       <c r="H32" s="3">
-        <v>2242800</v>
+        <v>117200</v>
       </c>
       <c r="I32" s="3">
-        <v>254700</v>
+        <v>2556100</v>
       </c>
       <c r="J32" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-159700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>139300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>48400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>83300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>139800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>114400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>77600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>139900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>191900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>58400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>118800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>362000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>125100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>199100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>180000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>267300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>117000</v>
+        <v>94500</v>
       </c>
       <c r="E33" s="3">
-        <v>124900</v>
+        <v>119700</v>
       </c>
       <c r="F33" s="3">
-        <v>-407200</v>
+        <v>127900</v>
       </c>
       <c r="G33" s="3">
-        <v>-170800</v>
+        <v>-416800</v>
       </c>
       <c r="H33" s="3">
-        <v>-2039300</v>
+        <v>-174900</v>
       </c>
       <c r="I33" s="3">
-        <v>-281300</v>
+        <v>-2375000</v>
       </c>
       <c r="J33" s="3">
+        <v>-287900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-29500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>105600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>45600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-58000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>71900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-71800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>39900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>54000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>117000</v>
+        <v>94500</v>
       </c>
       <c r="E35" s="3">
-        <v>124900</v>
+        <v>119700</v>
       </c>
       <c r="F35" s="3">
-        <v>-407200</v>
+        <v>127900</v>
       </c>
       <c r="G35" s="3">
-        <v>-170800</v>
+        <v>-416800</v>
       </c>
       <c r="H35" s="3">
-        <v>-2039300</v>
+        <v>-174900</v>
       </c>
       <c r="I35" s="3">
-        <v>-281300</v>
+        <v>-2375000</v>
       </c>
       <c r="J35" s="3">
+        <v>-287900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-29500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>105600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>45600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-58000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>71900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-71800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>39900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>54000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3007,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13084100</v>
+        <v>13864200</v>
       </c>
       <c r="E41" s="3">
-        <v>13556800</v>
+        <v>13391100</v>
       </c>
       <c r="F41" s="3">
-        <v>14724200</v>
+        <v>13874900</v>
       </c>
       <c r="G41" s="3">
-        <v>14548200</v>
+        <v>15069600</v>
       </c>
       <c r="H41" s="3">
-        <v>12614800</v>
+        <v>14889500</v>
       </c>
       <c r="I41" s="3">
-        <v>11693400</v>
+        <v>12910700</v>
       </c>
       <c r="J41" s="3">
+        <v>11967700</v>
+      </c>
+      <c r="K41" s="3">
         <v>10179300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8186700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8977800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8051600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6258500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5187600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6258200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5157800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5238700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4986500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3912100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3816300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3713200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3312200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3375300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3587700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4089400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1916900</v>
+        <v>2552700</v>
       </c>
       <c r="E42" s="3">
-        <v>1386600</v>
+        <v>1961900</v>
       </c>
       <c r="F42" s="3">
-        <v>1201500</v>
+        <v>1419100</v>
       </c>
       <c r="G42" s="3">
-        <v>1230300</v>
+        <v>1229700</v>
       </c>
       <c r="H42" s="3">
-        <v>1248800</v>
+        <v>1259200</v>
       </c>
       <c r="I42" s="3">
-        <v>1268000</v>
+        <v>1278100</v>
       </c>
       <c r="J42" s="3">
+        <v>1297800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1434000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1468200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1413600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1320200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1264900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1481600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1220500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1022700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>918300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>761600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>847700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>793300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>708200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2022100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2800900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3328000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3899000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,239 +3485,251 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>99900</v>
+        <v>104400</v>
       </c>
       <c r="E47" s="3">
-        <v>67000</v>
+        <v>102300</v>
       </c>
       <c r="F47" s="3">
-        <v>68100</v>
+        <v>68500</v>
       </c>
       <c r="G47" s="3">
-        <v>61500</v>
+        <v>69700</v>
       </c>
       <c r="H47" s="3">
-        <v>60800</v>
+        <v>63000</v>
       </c>
       <c r="I47" s="3">
-        <v>30400</v>
+        <v>62200</v>
       </c>
       <c r="J47" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K47" s="3">
         <v>30600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>21000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>21200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>22400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>22300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>23800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>25600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1107700</v>
+        <v>795000</v>
       </c>
       <c r="E48" s="3">
-        <v>1143100</v>
+        <v>1133700</v>
       </c>
       <c r="F48" s="3">
-        <v>1160200</v>
+        <v>1169900</v>
       </c>
       <c r="G48" s="3">
-        <v>1303400</v>
+        <v>1187400</v>
       </c>
       <c r="H48" s="3">
-        <v>1313100</v>
+        <v>1334000</v>
       </c>
       <c r="I48" s="3">
-        <v>1336600</v>
+        <v>1343900</v>
       </c>
       <c r="J48" s="3">
+        <v>1368000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1362700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1388000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1390500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1474700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1562200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1621100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1643200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1635600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1452400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1400700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1424200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1453100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1472500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1568500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1569200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1558900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1652800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>466000</v>
+        <v>475200</v>
       </c>
       <c r="E49" s="3">
-        <v>476600</v>
+        <v>476900</v>
       </c>
       <c r="F49" s="3">
-        <v>476900</v>
+        <v>487800</v>
       </c>
       <c r="G49" s="3">
-        <v>464600</v>
+        <v>488100</v>
       </c>
       <c r="H49" s="3">
-        <v>469500</v>
+        <v>475500</v>
       </c>
       <c r="I49" s="3">
-        <v>548800</v>
+        <v>480500</v>
       </c>
       <c r="J49" s="3">
+        <v>561700</v>
+      </c>
+      <c r="K49" s="3">
         <v>600300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>602600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>541100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>569800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>574800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>557300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>553000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>531400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>513500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>459600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>444200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>439000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>437400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>427800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>420300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>414300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>435900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7204000</v>
+        <v>6979500</v>
       </c>
       <c r="E52" s="3">
-        <v>6731600</v>
+        <v>7373100</v>
       </c>
       <c r="F52" s="3">
-        <v>6841200</v>
+        <v>6889500</v>
       </c>
       <c r="G52" s="3">
-        <v>7108500</v>
+        <v>7001700</v>
       </c>
       <c r="H52" s="3">
-        <v>5383000</v>
+        <v>7275200</v>
       </c>
       <c r="I52" s="3">
-        <v>5401000</v>
+        <v>5509300</v>
       </c>
       <c r="J52" s="3">
+        <v>5527700</v>
+      </c>
+      <c r="K52" s="3">
         <v>5518600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5789700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6094400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6387000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6698400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6770600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6253400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6624100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6580200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5876500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5314100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5421200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5183100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5058300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5057200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5642600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6038400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75585000</v>
+        <v>79016000</v>
       </c>
       <c r="E54" s="3">
-        <v>73214700</v>
+        <v>77358300</v>
       </c>
       <c r="F54" s="3">
-        <v>73165200</v>
+        <v>74932300</v>
       </c>
       <c r="G54" s="3">
-        <v>72885300</v>
+        <v>74881800</v>
       </c>
       <c r="H54" s="3">
-        <v>70285100</v>
+        <v>74595200</v>
       </c>
       <c r="I54" s="3">
-        <v>70983200</v>
+        <v>71934000</v>
       </c>
       <c r="J54" s="3">
+        <v>72648600</v>
+      </c>
+      <c r="K54" s="3">
         <v>69874600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71164100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71222600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72689600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74081100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73225600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>74070700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73702600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>72164900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>66750100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>64796100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>65141000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>68231600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>68767200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>70360000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>71940200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>76147700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,19 +4265,22 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>209900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>214800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -4160,8 +4294,8 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4211,85 +4345,91 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30800</v>
+        <v>23800</v>
       </c>
       <c r="E59" s="3">
-        <v>20600</v>
+        <v>31500</v>
       </c>
       <c r="F59" s="3">
-        <v>59400</v>
+        <v>21000</v>
       </c>
       <c r="G59" s="3">
-        <v>54300</v>
+        <v>60800</v>
       </c>
       <c r="H59" s="3">
-        <v>104200</v>
+        <v>55500</v>
       </c>
       <c r="I59" s="3">
-        <v>82800</v>
+        <v>106600</v>
       </c>
       <c r="J59" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K59" s="3">
         <v>70000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>106000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>115400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>98700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>44500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>39200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>31900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>26600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>39600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,162 +4505,171 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2471400</v>
+        <v>2503800</v>
       </c>
       <c r="E61" s="3">
-        <v>2513700</v>
+        <v>2529400</v>
       </c>
       <c r="F61" s="3">
-        <v>2586300</v>
+        <v>2572600</v>
       </c>
       <c r="G61" s="3">
-        <v>2181200</v>
+        <v>2646900</v>
       </c>
       <c r="H61" s="3">
-        <v>1680000</v>
+        <v>2232400</v>
       </c>
       <c r="I61" s="3">
-        <v>1674300</v>
+        <v>1719400</v>
       </c>
       <c r="J61" s="3">
+        <v>1713600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1219700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1489800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1551800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1658100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1271000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1033900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1100400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>992000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1115900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1099000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1153800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1250000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>735500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>527800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>567000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>635100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>724100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1413700</v>
+        <v>949000</v>
       </c>
       <c r="E62" s="3">
-        <v>1464500</v>
+        <v>1446900</v>
       </c>
       <c r="F62" s="3">
-        <v>1490300</v>
+        <v>1498900</v>
       </c>
       <c r="G62" s="3">
-        <v>968900</v>
+        <v>1525200</v>
       </c>
       <c r="H62" s="3">
-        <v>931800</v>
+        <v>991600</v>
       </c>
       <c r="I62" s="3">
-        <v>968600</v>
+        <v>953600</v>
       </c>
       <c r="J62" s="3">
+        <v>991400</v>
+      </c>
+      <c r="K62" s="3">
         <v>830800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>817100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>781200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>804200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>844200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>862100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>821800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>812400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>750400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>700500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>730600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>722300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>626900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>524200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>524000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>939800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>987300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69462600</v>
+        <v>72706700</v>
       </c>
       <c r="E66" s="3">
-        <v>67139300</v>
+        <v>71092200</v>
       </c>
       <c r="F66" s="3">
-        <v>67130900</v>
+        <v>68714500</v>
       </c>
       <c r="G66" s="3">
-        <v>66387800</v>
+        <v>68705800</v>
       </c>
       <c r="H66" s="3">
-        <v>64299200</v>
+        <v>67945300</v>
       </c>
       <c r="I66" s="3">
-        <v>63044700</v>
+        <v>65807700</v>
       </c>
       <c r="J66" s="3">
+        <v>64523800</v>
+      </c>
+      <c r="K66" s="3">
         <v>61592300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62415300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62533600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63688800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64220400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63253400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64183600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63957400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62566500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57689300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>55721300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>55974500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>57462600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>58203700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>59781700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>61630800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>65474900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>163600</v>
+        <v>246300</v>
       </c>
       <c r="E72" s="3">
-        <v>-5974600</v>
+        <v>167500</v>
       </c>
       <c r="F72" s="3">
-        <v>-6029900</v>
+        <v>-6114800</v>
       </c>
       <c r="G72" s="3">
-        <v>-5551900</v>
+        <v>-6171300</v>
       </c>
       <c r="H72" s="3">
-        <v>-5265600</v>
+        <v>-5682200</v>
       </c>
       <c r="I72" s="3">
-        <v>-3313000</v>
+        <v>-5389100</v>
       </c>
       <c r="J72" s="3">
+        <v>-3390700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2967300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2957600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3017500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3303500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3306800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3195300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3747100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6122400</v>
+        <v>6309300</v>
       </c>
       <c r="E76" s="3">
-        <v>6075300</v>
+        <v>6266100</v>
       </c>
       <c r="F76" s="3">
-        <v>6034300</v>
+        <v>6217900</v>
       </c>
       <c r="G76" s="3">
-        <v>6497500</v>
+        <v>6175900</v>
       </c>
       <c r="H76" s="3">
-        <v>5985900</v>
+        <v>6649900</v>
       </c>
       <c r="I76" s="3">
-        <v>7938500</v>
+        <v>6126300</v>
       </c>
       <c r="J76" s="3">
+        <v>8124800</v>
+      </c>
+      <c r="K76" s="3">
         <v>8282200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8748800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8689000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9000900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9860700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9972200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9887100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9745200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9598400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9060800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9074900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9166500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10769000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10563500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10578300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10309400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10672800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>117000</v>
+        <v>94500</v>
       </c>
       <c r="E81" s="3">
-        <v>124900</v>
+        <v>119700</v>
       </c>
       <c r="F81" s="3">
-        <v>-407200</v>
+        <v>127900</v>
       </c>
       <c r="G81" s="3">
-        <v>-170800</v>
+        <v>-416800</v>
       </c>
       <c r="H81" s="3">
-        <v>-2039300</v>
+        <v>-174900</v>
       </c>
       <c r="I81" s="3">
-        <v>-281300</v>
+        <v>-2375000</v>
       </c>
       <c r="J81" s="3">
+        <v>-287900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-29500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>105600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>45600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-58000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>71900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-71800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>39900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>54000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53100</v>
+        <v>75100</v>
       </c>
       <c r="E83" s="3">
-        <v>40000</v>
+        <v>54300</v>
       </c>
       <c r="F83" s="3">
-        <v>102600</v>
+        <v>40900</v>
       </c>
       <c r="G83" s="3">
-        <v>37900</v>
+        <v>105000</v>
       </c>
       <c r="H83" s="3">
-        <v>39200</v>
+        <v>38800</v>
       </c>
       <c r="I83" s="3">
-        <v>84300</v>
+        <v>126400</v>
       </c>
       <c r="J83" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K83" s="3">
         <v>63300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>58600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>76900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>114000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>28000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>28500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>92900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1322800</v>
+        <v>1485800</v>
       </c>
       <c r="E89" s="3">
-        <v>-498400</v>
+        <v>1353800</v>
       </c>
       <c r="F89" s="3">
-        <v>-243800</v>
+        <v>-510100</v>
       </c>
       <c r="G89" s="3">
-        <v>1219800</v>
+        <v>-249500</v>
       </c>
       <c r="H89" s="3">
-        <v>1276100</v>
+        <v>1248400</v>
       </c>
       <c r="I89" s="3">
-        <v>1348500</v>
+        <v>2686200</v>
       </c>
       <c r="J89" s="3">
+        <v>1380200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2196000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-335300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3131500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>775700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1857400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1221400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>688700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>744800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1229300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1608400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>174300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-870300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-999700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-582700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-135700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25400</v>
+        <v>-23300</v>
       </c>
       <c r="E91" s="3">
-        <v>-14500</v>
+        <v>-26000</v>
       </c>
       <c r="F91" s="3">
-        <v>-100000</v>
+        <v>-14800</v>
       </c>
       <c r="G91" s="3">
-        <v>-13900</v>
+        <v>-102400</v>
       </c>
       <c r="H91" s="3">
-        <v>-19300</v>
+        <v>-14200</v>
       </c>
       <c r="I91" s="3">
-        <v>-27000</v>
+        <v>-47400</v>
       </c>
       <c r="J91" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-98600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-102100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-73800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-71400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-65900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-22800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>83900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1371200</v>
+        <v>-839000</v>
       </c>
       <c r="E94" s="3">
-        <v>-388800</v>
+        <v>-1403400</v>
       </c>
       <c r="F94" s="3">
-        <v>30800</v>
+        <v>-398000</v>
       </c>
       <c r="G94" s="3">
-        <v>-550500</v>
+        <v>31500</v>
       </c>
       <c r="H94" s="3">
-        <v>-246100</v>
+        <v>-563400</v>
       </c>
       <c r="I94" s="3">
+        <v>-252600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>660800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-554400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-718500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-552900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-315200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-102500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>238300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-628400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-509700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>46200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>414000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1357200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1043800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>651700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>88900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1075700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-81700</v>
+        <v>35600</v>
       </c>
       <c r="E100" s="3">
-        <v>-69300</v>
+        <v>-83700</v>
       </c>
       <c r="F100" s="3">
-        <v>353700</v>
+        <v>-70900</v>
       </c>
       <c r="G100" s="3">
-        <v>1180700</v>
+        <v>362000</v>
       </c>
       <c r="H100" s="3">
-        <v>57300</v>
+        <v>1208400</v>
       </c>
       <c r="I100" s="3">
-        <v>443500</v>
+        <v>512500</v>
       </c>
       <c r="J100" s="3">
+        <v>453900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-290700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-54400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>451300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>208400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-76200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>105700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-158000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-77000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-81900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-171400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>536300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>208900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-36100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-50000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-62800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>360300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-7600</v>
-      </c>
       <c r="G101" s="3">
-        <v>6400</v>
+        <v>-7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-6800</v>
+        <v>6600</v>
       </c>
       <c r="I101" s="3">
-        <v>4100</v>
+        <v>-2700</v>
       </c>
       <c r="J101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-15300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-129400</v>
+        <v>680400</v>
       </c>
       <c r="E102" s="3">
-        <v>-956300</v>
+        <v>-132500</v>
       </c>
       <c r="F102" s="3">
-        <v>133200</v>
+        <v>-978700</v>
       </c>
       <c r="G102" s="3">
-        <v>1856400</v>
+        <v>136300</v>
       </c>
       <c r="H102" s="3">
-        <v>1081300</v>
+        <v>1900000</v>
       </c>
       <c r="I102" s="3">
-        <v>1794600</v>
+        <v>2943400</v>
       </c>
       <c r="J102" s="3">
+        <v>1836700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2566700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-916200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2357000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>683900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1755000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1399400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1057300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-57600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-67400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1017800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>53200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>83400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>559000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-20100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-105900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-112200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-16900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>487500</v>
+        <v>505300</v>
       </c>
       <c r="E8" s="3">
-        <v>404700</v>
+        <v>419500</v>
       </c>
       <c r="F8" s="3">
-        <v>387300</v>
+        <v>449800</v>
       </c>
       <c r="G8" s="3">
-        <v>382300</v>
+        <v>396200</v>
       </c>
       <c r="H8" s="3">
-        <v>450500</v>
+        <v>466900</v>
       </c>
       <c r="I8" s="3">
-        <v>1035000</v>
+        <v>1072700</v>
       </c>
       <c r="J8" s="3">
-        <v>536600</v>
+        <v>556200</v>
       </c>
       <c r="K8" s="3">
         <v>554600</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-38700</v>
+        <v>-40100</v>
       </c>
       <c r="E15" s="3">
-        <v>-39700</v>
+        <v>-41200</v>
       </c>
       <c r="F15" s="3">
-        <v>-41100</v>
+        <v>-42600</v>
       </c>
       <c r="G15" s="3">
-        <v>-39200</v>
+        <v>-40600</v>
       </c>
       <c r="H15" s="3">
-        <v>-38200</v>
+        <v>-39600</v>
       </c>
       <c r="I15" s="3">
-        <v>-80900</v>
+        <v>-83800</v>
       </c>
       <c r="J15" s="3">
-        <v>-43100</v>
+        <v>-44700</v>
       </c>
       <c r="K15" s="3">
         <v>-43700</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>229100</v>
+        <v>237400</v>
       </c>
       <c r="E17" s="3">
-        <v>373600</v>
+        <v>327800</v>
       </c>
       <c r="F17" s="3">
-        <v>198700</v>
+        <v>256500</v>
       </c>
       <c r="G17" s="3">
-        <v>558400</v>
+        <v>627200</v>
       </c>
       <c r="H17" s="3">
-        <v>578400</v>
+        <v>599500</v>
       </c>
       <c r="I17" s="3">
-        <v>798700</v>
+        <v>827800</v>
       </c>
       <c r="J17" s="3">
-        <v>535300</v>
+        <v>554800</v>
       </c>
       <c r="K17" s="3">
         <v>748000</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>258400</v>
+        <v>267900</v>
       </c>
       <c r="E18" s="3">
-        <v>31100</v>
+        <v>91700</v>
       </c>
       <c r="F18" s="3">
-        <v>188600</v>
+        <v>193200</v>
       </c>
       <c r="G18" s="3">
-        <v>-176200</v>
+        <v>-230900</v>
       </c>
       <c r="H18" s="3">
-        <v>-127900</v>
+        <v>-132600</v>
       </c>
       <c r="I18" s="3">
-        <v>236200</v>
+        <v>244900</v>
       </c>
       <c r="J18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K18" s="3">
         <v>-193400</v>
@@ -1589,25 +1589,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-55700</v>
+        <v>-57800</v>
       </c>
       <c r="E20" s="3">
-        <v>146500</v>
+        <v>211300</v>
       </c>
       <c r="F20" s="3">
-        <v>-22600</v>
+        <v>-21200</v>
       </c>
       <c r="G20" s="3">
-        <v>-245300</v>
+        <v>-205900</v>
       </c>
       <c r="H20" s="3">
-        <v>-117200</v>
+        <v>-121500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2556100</v>
+        <v>-2649300</v>
       </c>
       <c r="J20" s="3">
-        <v>-260700</v>
+        <v>-270200</v>
       </c>
       <c r="K20" s="3">
         <v>159700</v>
@@ -1669,25 +1669,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>277800</v>
+        <v>288000</v>
       </c>
       <c r="E21" s="3">
-        <v>232000</v>
+        <v>359300</v>
       </c>
       <c r="F21" s="3">
-        <v>207000</v>
+        <v>214500</v>
       </c>
       <c r="G21" s="3">
-        <v>-316500</v>
+        <v>-328000</v>
       </c>
       <c r="H21" s="3">
-        <v>-204900</v>
+        <v>-212400</v>
       </c>
       <c r="I21" s="3">
-        <v>-2194900</v>
+        <v>-2274900</v>
       </c>
       <c r="J21" s="3">
-        <v>-173900</v>
+        <v>-180200</v>
       </c>
       <c r="K21" s="3">
         <v>27200</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>202700</v>
+        <v>210100</v>
       </c>
       <c r="E23" s="3">
-        <v>177600</v>
+        <v>303000</v>
       </c>
       <c r="F23" s="3">
-        <v>166000</v>
+        <v>172100</v>
       </c>
       <c r="G23" s="3">
-        <v>-421500</v>
+        <v>-436800</v>
       </c>
       <c r="H23" s="3">
-        <v>-245100</v>
+        <v>-254100</v>
       </c>
       <c r="I23" s="3">
-        <v>-2319900</v>
+        <v>-2404400</v>
       </c>
       <c r="J23" s="3">
-        <v>-259400</v>
+        <v>-268800</v>
       </c>
       <c r="K23" s="3">
         <v>-33700</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118500</v>
+        <v>122900</v>
       </c>
       <c r="E24" s="3">
-        <v>61300</v>
+        <v>63500</v>
       </c>
       <c r="F24" s="3">
-        <v>41900</v>
+        <v>43500</v>
       </c>
       <c r="G24" s="3">
-        <v>-38600</v>
+        <v>-40000</v>
       </c>
       <c r="H24" s="3">
-        <v>-68600</v>
+        <v>-71100</v>
       </c>
       <c r="I24" s="3">
-        <v>51100</v>
+        <v>53000</v>
       </c>
       <c r="J24" s="3">
-        <v>24800</v>
+        <v>25700</v>
       </c>
       <c r="K24" s="3">
         <v>-1500</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>84200</v>
+        <v>87200</v>
       </c>
       <c r="E26" s="3">
-        <v>116400</v>
+        <v>239500</v>
       </c>
       <c r="F26" s="3">
-        <v>124100</v>
+        <v>128600</v>
       </c>
       <c r="G26" s="3">
-        <v>-382900</v>
+        <v>-396900</v>
       </c>
       <c r="H26" s="3">
-        <v>-176500</v>
+        <v>-183000</v>
       </c>
       <c r="I26" s="3">
-        <v>-2371000</v>
+        <v>-2457400</v>
       </c>
       <c r="J26" s="3">
-        <v>-284200</v>
+        <v>-294500</v>
       </c>
       <c r="K26" s="3">
         <v>-32200</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>84000</v>
+        <v>87100</v>
       </c>
       <c r="E27" s="3">
-        <v>116300</v>
+        <v>239500</v>
       </c>
       <c r="F27" s="3">
-        <v>124000</v>
+        <v>128500</v>
       </c>
       <c r="G27" s="3">
-        <v>-382900</v>
+        <v>-396900</v>
       </c>
       <c r="H27" s="3">
-        <v>-176500</v>
+        <v>-183000</v>
       </c>
       <c r="I27" s="3">
-        <v>-2371100</v>
+        <v>-2457500</v>
       </c>
       <c r="J27" s="3">
-        <v>-284300</v>
+        <v>-294600</v>
       </c>
       <c r="K27" s="3">
         <v>-32300</v>
@@ -2309,25 +2309,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="E29" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F29" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G29" s="3">
-        <v>-33800</v>
+        <v>-35100</v>
       </c>
       <c r="H29" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I29" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J29" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="K29" s="3">
         <v>2800</v>
@@ -2549,25 +2549,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>55700</v>
+        <v>57800</v>
       </c>
       <c r="E32" s="3">
-        <v>-146500</v>
+        <v>-211300</v>
       </c>
       <c r="F32" s="3">
-        <v>22600</v>
+        <v>21200</v>
       </c>
       <c r="G32" s="3">
-        <v>245300</v>
+        <v>205900</v>
       </c>
       <c r="H32" s="3">
-        <v>117200</v>
+        <v>121500</v>
       </c>
       <c r="I32" s="3">
-        <v>2556100</v>
+        <v>2649300</v>
       </c>
       <c r="J32" s="3">
-        <v>260700</v>
+        <v>270200</v>
       </c>
       <c r="K32" s="3">
         <v>-159700</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>94500</v>
+        <v>98000</v>
       </c>
       <c r="E33" s="3">
-        <v>119700</v>
+        <v>243000</v>
       </c>
       <c r="F33" s="3">
-        <v>127900</v>
+        <v>132500</v>
       </c>
       <c r="G33" s="3">
-        <v>-416800</v>
+        <v>-432000</v>
       </c>
       <c r="H33" s="3">
-        <v>-174900</v>
+        <v>-181300</v>
       </c>
       <c r="I33" s="3">
-        <v>-2375000</v>
+        <v>-2461600</v>
       </c>
       <c r="J33" s="3">
-        <v>-287900</v>
+        <v>-298400</v>
       </c>
       <c r="K33" s="3">
         <v>-29500</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>94500</v>
+        <v>98000</v>
       </c>
       <c r="E35" s="3">
-        <v>119700</v>
+        <v>243000</v>
       </c>
       <c r="F35" s="3">
-        <v>127900</v>
+        <v>132500</v>
       </c>
       <c r="G35" s="3">
-        <v>-416800</v>
+        <v>-432000</v>
       </c>
       <c r="H35" s="3">
-        <v>-174900</v>
+        <v>-181300</v>
       </c>
       <c r="I35" s="3">
-        <v>-2375000</v>
+        <v>-2461600</v>
       </c>
       <c r="J35" s="3">
-        <v>-287900</v>
+        <v>-298400</v>
       </c>
       <c r="K35" s="3">
         <v>-29500</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13864200</v>
+        <v>14369400</v>
       </c>
       <c r="E41" s="3">
-        <v>13391100</v>
+        <v>13879100</v>
       </c>
       <c r="F41" s="3">
-        <v>13874900</v>
+        <v>14380500</v>
       </c>
       <c r="G41" s="3">
-        <v>15069600</v>
+        <v>15618800</v>
       </c>
       <c r="H41" s="3">
-        <v>14889500</v>
+        <v>15432100</v>
       </c>
       <c r="I41" s="3">
-        <v>12910700</v>
+        <v>13381200</v>
       </c>
       <c r="J41" s="3">
-        <v>11967700</v>
+        <v>12403800</v>
       </c>
       <c r="K41" s="3">
         <v>10179300</v>
@@ -3094,25 +3094,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2552700</v>
+        <v>2645800</v>
       </c>
       <c r="E42" s="3">
-        <v>1961900</v>
+        <v>2033400</v>
       </c>
       <c r="F42" s="3">
-        <v>1419100</v>
+        <v>1470800</v>
       </c>
       <c r="G42" s="3">
-        <v>1229700</v>
+        <v>1274500</v>
       </c>
       <c r="H42" s="3">
-        <v>1259200</v>
+        <v>1305100</v>
       </c>
       <c r="I42" s="3">
-        <v>1278100</v>
+        <v>1324600</v>
       </c>
       <c r="J42" s="3">
-        <v>1297800</v>
+        <v>1345100</v>
       </c>
       <c r="K42" s="3">
         <v>1434000</v>
@@ -3494,25 +3494,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>104400</v>
+        <v>108200</v>
       </c>
       <c r="E47" s="3">
-        <v>102300</v>
+        <v>106000</v>
       </c>
       <c r="F47" s="3">
-        <v>68500</v>
+        <v>71000</v>
       </c>
       <c r="G47" s="3">
-        <v>69700</v>
+        <v>72200</v>
       </c>
       <c r="H47" s="3">
-        <v>63000</v>
+        <v>65200</v>
       </c>
       <c r="I47" s="3">
-        <v>62200</v>
+        <v>64500</v>
       </c>
       <c r="J47" s="3">
-        <v>31200</v>
+        <v>32300</v>
       </c>
       <c r="K47" s="3">
         <v>30600</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>795000</v>
+        <v>824000</v>
       </c>
       <c r="E48" s="3">
-        <v>1133700</v>
+        <v>1175000</v>
       </c>
       <c r="F48" s="3">
-        <v>1169900</v>
+        <v>1212600</v>
       </c>
       <c r="G48" s="3">
-        <v>1187400</v>
+        <v>1230700</v>
       </c>
       <c r="H48" s="3">
-        <v>1334000</v>
+        <v>1382600</v>
       </c>
       <c r="I48" s="3">
-        <v>1343900</v>
+        <v>1392900</v>
       </c>
       <c r="J48" s="3">
-        <v>1368000</v>
+        <v>1417800</v>
       </c>
       <c r="K48" s="3">
         <v>1362700</v>
@@ -3654,25 +3654,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>475200</v>
+        <v>492500</v>
       </c>
       <c r="E49" s="3">
-        <v>476900</v>
+        <v>494300</v>
       </c>
       <c r="F49" s="3">
-        <v>487800</v>
+        <v>505600</v>
       </c>
       <c r="G49" s="3">
-        <v>488100</v>
+        <v>505900</v>
       </c>
       <c r="H49" s="3">
-        <v>475500</v>
+        <v>492800</v>
       </c>
       <c r="I49" s="3">
-        <v>480500</v>
+        <v>498000</v>
       </c>
       <c r="J49" s="3">
-        <v>561700</v>
+        <v>582200</v>
       </c>
       <c r="K49" s="3">
         <v>600300</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6979500</v>
+        <v>7233900</v>
       </c>
       <c r="E52" s="3">
-        <v>7373100</v>
+        <v>7641700</v>
       </c>
       <c r="F52" s="3">
-        <v>6889500</v>
+        <v>7140600</v>
       </c>
       <c r="G52" s="3">
-        <v>7001700</v>
+        <v>7256800</v>
       </c>
       <c r="H52" s="3">
-        <v>7275200</v>
+        <v>7540400</v>
       </c>
       <c r="I52" s="3">
-        <v>5509300</v>
+        <v>5710000</v>
       </c>
       <c r="J52" s="3">
-        <v>5527700</v>
+        <v>5729200</v>
       </c>
       <c r="K52" s="3">
         <v>5518600</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79016000</v>
+        <v>81895500</v>
       </c>
       <c r="E54" s="3">
-        <v>77358300</v>
+        <v>80177400</v>
       </c>
       <c r="F54" s="3">
-        <v>74932300</v>
+        <v>77663000</v>
       </c>
       <c r="G54" s="3">
-        <v>74881800</v>
+        <v>77610600</v>
       </c>
       <c r="H54" s="3">
-        <v>74595200</v>
+        <v>77313600</v>
       </c>
       <c r="I54" s="3">
-        <v>71934000</v>
+        <v>74555400</v>
       </c>
       <c r="J54" s="3">
-        <v>72648600</v>
+        <v>75296000</v>
       </c>
       <c r="K54" s="3">
         <v>69874600</v>
@@ -4280,7 +4280,7 @@
         <v>5</v>
       </c>
       <c r="F58" s="3">
-        <v>214800</v>
+        <v>222600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="E59" s="3">
-        <v>31500</v>
+        <v>32700</v>
       </c>
       <c r="F59" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="G59" s="3">
-        <v>60800</v>
+        <v>63000</v>
       </c>
       <c r="H59" s="3">
-        <v>55500</v>
+        <v>57500</v>
       </c>
       <c r="I59" s="3">
-        <v>106600</v>
+        <v>110500</v>
       </c>
       <c r="J59" s="3">
-        <v>84700</v>
+        <v>87800</v>
       </c>
       <c r="K59" s="3">
         <v>70000</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2503800</v>
+        <v>2595000</v>
       </c>
       <c r="E61" s="3">
-        <v>2529400</v>
+        <v>2621500</v>
       </c>
       <c r="F61" s="3">
-        <v>2572600</v>
+        <v>2666400</v>
       </c>
       <c r="G61" s="3">
-        <v>2646900</v>
+        <v>2743400</v>
       </c>
       <c r="H61" s="3">
-        <v>2232400</v>
+        <v>2313800</v>
       </c>
       <c r="I61" s="3">
-        <v>1719400</v>
+        <v>1782100</v>
       </c>
       <c r="J61" s="3">
-        <v>1713600</v>
+        <v>1776100</v>
       </c>
       <c r="K61" s="3">
         <v>1219700</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>949000</v>
+        <v>983600</v>
       </c>
       <c r="E62" s="3">
-        <v>1446900</v>
+        <v>1499600</v>
       </c>
       <c r="F62" s="3">
-        <v>1498900</v>
+        <v>1553500</v>
       </c>
       <c r="G62" s="3">
-        <v>1525200</v>
+        <v>1580800</v>
       </c>
       <c r="H62" s="3">
-        <v>991600</v>
+        <v>1027800</v>
       </c>
       <c r="I62" s="3">
-        <v>953600</v>
+        <v>988400</v>
       </c>
       <c r="J62" s="3">
-        <v>991400</v>
+        <v>1027500</v>
       </c>
       <c r="K62" s="3">
         <v>830800</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72706700</v>
+        <v>75356300</v>
       </c>
       <c r="E66" s="3">
-        <v>71092200</v>
+        <v>73683000</v>
       </c>
       <c r="F66" s="3">
-        <v>68714500</v>
+        <v>71218600</v>
       </c>
       <c r="G66" s="3">
-        <v>68705800</v>
+        <v>71209600</v>
       </c>
       <c r="H66" s="3">
-        <v>67945300</v>
+        <v>70421400</v>
       </c>
       <c r="I66" s="3">
-        <v>65807700</v>
+        <v>68205800</v>
       </c>
       <c r="J66" s="3">
-        <v>64523800</v>
+        <v>66875200</v>
       </c>
       <c r="K66" s="3">
         <v>61592300</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>246300</v>
+        <v>255300</v>
       </c>
       <c r="E72" s="3">
-        <v>167500</v>
+        <v>173600</v>
       </c>
       <c r="F72" s="3">
-        <v>-6114800</v>
+        <v>-6337600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6171300</v>
+        <v>-6396200</v>
       </c>
       <c r="H72" s="3">
-        <v>-5682200</v>
+        <v>-5889200</v>
       </c>
       <c r="I72" s="3">
-        <v>-5389100</v>
+        <v>-5585500</v>
       </c>
       <c r="J72" s="3">
-        <v>-3390700</v>
+        <v>-3514300</v>
       </c>
       <c r="K72" s="3">
         <v>-2967300</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6309300</v>
+        <v>6539200</v>
       </c>
       <c r="E76" s="3">
-        <v>6266100</v>
+        <v>6494400</v>
       </c>
       <c r="F76" s="3">
-        <v>6217900</v>
+        <v>6444500</v>
       </c>
       <c r="G76" s="3">
-        <v>6175900</v>
+        <v>6401000</v>
       </c>
       <c r="H76" s="3">
-        <v>6649900</v>
+        <v>6892200</v>
       </c>
       <c r="I76" s="3">
-        <v>6126300</v>
+        <v>6349600</v>
       </c>
       <c r="J76" s="3">
-        <v>8124800</v>
+        <v>8420800</v>
       </c>
       <c r="K76" s="3">
         <v>8282200</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>94500</v>
+        <v>98000</v>
       </c>
       <c r="E81" s="3">
-        <v>119700</v>
+        <v>243000</v>
       </c>
       <c r="F81" s="3">
-        <v>127900</v>
+        <v>132500</v>
       </c>
       <c r="G81" s="3">
-        <v>-416800</v>
+        <v>-432000</v>
       </c>
       <c r="H81" s="3">
-        <v>-174900</v>
+        <v>-181300</v>
       </c>
       <c r="I81" s="3">
-        <v>-2375000</v>
+        <v>-2461600</v>
       </c>
       <c r="J81" s="3">
-        <v>-287900</v>
+        <v>-298400</v>
       </c>
       <c r="K81" s="3">
         <v>-29500</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>75100</v>
+        <v>77900</v>
       </c>
       <c r="E83" s="3">
-        <v>54300</v>
+        <v>56300</v>
       </c>
       <c r="F83" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="G83" s="3">
-        <v>105000</v>
+        <v>108800</v>
       </c>
       <c r="H83" s="3">
-        <v>38800</v>
+        <v>40200</v>
       </c>
       <c r="I83" s="3">
-        <v>126400</v>
+        <v>131000</v>
       </c>
       <c r="J83" s="3">
-        <v>86200</v>
+        <v>89400</v>
       </c>
       <c r="K83" s="3">
         <v>63300</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1485800</v>
+        <v>1540000</v>
       </c>
       <c r="E89" s="3">
-        <v>1353800</v>
+        <v>1403200</v>
       </c>
       <c r="F89" s="3">
-        <v>-510100</v>
+        <v>-528700</v>
       </c>
       <c r="G89" s="3">
-        <v>-249500</v>
+        <v>-258600</v>
       </c>
       <c r="H89" s="3">
-        <v>1248400</v>
+        <v>1293900</v>
       </c>
       <c r="I89" s="3">
-        <v>2686200</v>
+        <v>2784100</v>
       </c>
       <c r="J89" s="3">
-        <v>1380200</v>
+        <v>1430500</v>
       </c>
       <c r="K89" s="3">
         <v>2196000</v>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23300</v>
+        <v>-24100</v>
       </c>
       <c r="E91" s="3">
-        <v>-26000</v>
+        <v>-27000</v>
       </c>
       <c r="F91" s="3">
-        <v>-14800</v>
+        <v>-15400</v>
       </c>
       <c r="G91" s="3">
-        <v>-102400</v>
+        <v>-106100</v>
       </c>
       <c r="H91" s="3">
-        <v>-14200</v>
+        <v>-14700</v>
       </c>
       <c r="I91" s="3">
-        <v>-47400</v>
+        <v>-49200</v>
       </c>
       <c r="J91" s="3">
-        <v>-27700</v>
+        <v>-28700</v>
       </c>
       <c r="K91" s="3">
         <v>-21600</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-839000</v>
+        <v>-869500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1403400</v>
+        <v>-1454500</v>
       </c>
       <c r="F94" s="3">
-        <v>-398000</v>
+        <v>-412500</v>
       </c>
       <c r="G94" s="3">
-        <v>31500</v>
+        <v>32700</v>
       </c>
       <c r="H94" s="3">
-        <v>-563400</v>
+        <v>-584000</v>
       </c>
       <c r="I94" s="3">
-        <v>-252600</v>
+        <v>-261800</v>
       </c>
       <c r="J94" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K94" s="3">
         <v>660800</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>35600</v>
+        <v>36900</v>
       </c>
       <c r="E100" s="3">
-        <v>-83700</v>
+        <v>-86700</v>
       </c>
       <c r="F100" s="3">
-        <v>-70900</v>
+        <v>-73500</v>
       </c>
       <c r="G100" s="3">
-        <v>362000</v>
+        <v>375200</v>
       </c>
       <c r="H100" s="3">
-        <v>1208400</v>
+        <v>1252400</v>
       </c>
       <c r="I100" s="3">
-        <v>512500</v>
+        <v>531200</v>
       </c>
       <c r="J100" s="3">
-        <v>453900</v>
+        <v>470400</v>
       </c>
       <c r="K100" s="3">
         <v>-290700</v>
@@ -7359,7 +7359,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
@@ -7368,16 +7368,16 @@
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>-7700</v>
+        <v>-8000</v>
       </c>
       <c r="H101" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I101" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J101" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K101" s="3">
         <v>700</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>680400</v>
+        <v>705200</v>
       </c>
       <c r="E102" s="3">
-        <v>-132500</v>
+        <v>-137300</v>
       </c>
       <c r="F102" s="3">
-        <v>-978700</v>
+        <v>-1014400</v>
       </c>
       <c r="G102" s="3">
-        <v>136300</v>
+        <v>141300</v>
       </c>
       <c r="H102" s="3">
-        <v>1900000</v>
+        <v>1969200</v>
       </c>
       <c r="I102" s="3">
-        <v>2943400</v>
+        <v>3050600</v>
       </c>
       <c r="J102" s="3">
-        <v>1836700</v>
+        <v>1903700</v>
       </c>
       <c r="K102" s="3">
         <v>2566700</v>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,212 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>505300</v>
+        <v>855400</v>
       </c>
       <c r="E8" s="3">
-        <v>419500</v>
+        <v>622700</v>
       </c>
       <c r="F8" s="3">
-        <v>449800</v>
+        <v>514300</v>
       </c>
       <c r="G8" s="3">
-        <v>396200</v>
+        <v>937700</v>
       </c>
       <c r="H8" s="3">
-        <v>466900</v>
+        <v>457800</v>
       </c>
       <c r="I8" s="3">
+        <v>403300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>475200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1072700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>556200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>554600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>534600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>565800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>551200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>674900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>581400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>606300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>619000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>659100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>614400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>635700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>644900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>692800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>701400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>717600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>709200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>735200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,88 +1325,100 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-40100</v>
+        <v>-43300</v>
       </c>
       <c r="E15" s="3">
-        <v>-41200</v>
+        <v>-42500</v>
       </c>
       <c r="F15" s="3">
-        <v>-42600</v>
+        <v>-40800</v>
       </c>
       <c r="G15" s="3">
-        <v>-40600</v>
+        <v>-85300</v>
       </c>
       <c r="H15" s="3">
-        <v>-39600</v>
+        <v>-43400</v>
       </c>
       <c r="I15" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-83800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-44700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-43700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-40700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-39800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-40900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-43500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-41300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-43200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-42100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-62000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-57400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-54900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-54800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-28500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-27300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-27600</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>-27100</v>
       </c>
       <c r="AB15" s="3">
         <v>-28500</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>-28500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>237400</v>
+        <v>529800</v>
       </c>
       <c r="E17" s="3">
-        <v>327800</v>
+        <v>294300</v>
       </c>
       <c r="F17" s="3">
-        <v>256500</v>
+        <v>241700</v>
       </c>
       <c r="G17" s="3">
-        <v>627200</v>
+        <v>715800</v>
       </c>
       <c r="H17" s="3">
-        <v>599500</v>
+        <v>263400</v>
       </c>
       <c r="I17" s="3">
+        <v>638400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>610200</v>
+      </c>
+      <c r="K17" s="3">
         <v>827800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>554800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>748000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>315400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>434600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>480600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>515800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>442900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>448700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>418100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1003300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>489200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>523500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>533900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>428200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>489700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>406900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>444700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>542300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>267900</v>
+        <v>325500</v>
       </c>
       <c r="E18" s="3">
-        <v>91700</v>
+        <v>328300</v>
       </c>
       <c r="F18" s="3">
-        <v>193200</v>
+        <v>272600</v>
       </c>
       <c r="G18" s="3">
-        <v>-230900</v>
+        <v>221900</v>
       </c>
       <c r="H18" s="3">
-        <v>-132600</v>
+        <v>194400</v>
       </c>
       <c r="I18" s="3">
+        <v>-235100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="K18" s="3">
         <v>244900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-193400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>219200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>131200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>70700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>159100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>138400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>157600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>201000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-344200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>125200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>112300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>111000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>264600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>211600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>310700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>264500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>192900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1648,182 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57800</v>
+        <v>-152200</v>
       </c>
       <c r="E20" s="3">
-        <v>211300</v>
+        <v>-211000</v>
       </c>
       <c r="F20" s="3">
-        <v>-21200</v>
+        <v>-58800</v>
       </c>
       <c r="G20" s="3">
-        <v>-205900</v>
+        <v>140700</v>
       </c>
       <c r="H20" s="3">
-        <v>-121500</v>
+        <v>-22000</v>
       </c>
       <c r="I20" s="3">
+        <v>-209600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-123600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2649300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-270200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>159700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-139300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-48400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-83300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-139800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-114400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-77600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-139900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-191900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-58400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-118800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>9300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-362000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-125100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-199100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-180000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-267300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>288000</v>
+        <v>216100</v>
       </c>
       <c r="E21" s="3">
-        <v>359300</v>
+        <v>174800</v>
       </c>
       <c r="F21" s="3">
-        <v>214500</v>
+        <v>293100</v>
       </c>
       <c r="G21" s="3">
-        <v>-328000</v>
+        <v>463100</v>
       </c>
       <c r="H21" s="3">
-        <v>-212400</v>
+        <v>215500</v>
       </c>
       <c r="I21" s="3">
+        <v>-333900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-216200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2274900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-180200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>27200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>121500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>122300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>29200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>77900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>68800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>124600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>103400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-459100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>96300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>29400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>147800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>16700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>114500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>140100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>117000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>20300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1902,186 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>210100</v>
+        <v>173300</v>
       </c>
       <c r="E23" s="3">
-        <v>303000</v>
+        <v>117300</v>
       </c>
       <c r="F23" s="3">
-        <v>172100</v>
+        <v>213800</v>
       </c>
       <c r="G23" s="3">
-        <v>-436800</v>
+        <v>362500</v>
       </c>
       <c r="H23" s="3">
-        <v>-254100</v>
+        <v>172400</v>
       </c>
       <c r="I23" s="3">
+        <v>-444600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-258600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2404400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-268800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-33700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>79900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>82800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>19300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>24100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>80100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>61100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-536100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>66800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-6600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>120300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-97300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>86500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>111600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>84500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-74400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>122900</v>
+        <v>53600</v>
       </c>
       <c r="E24" s="3">
-        <v>63500</v>
+        <v>49900</v>
       </c>
       <c r="F24" s="3">
-        <v>43500</v>
+        <v>125100</v>
       </c>
       <c r="G24" s="3">
-        <v>-40000</v>
+        <v>108900</v>
       </c>
       <c r="H24" s="3">
-        <v>-71100</v>
+        <v>43600</v>
       </c>
       <c r="I24" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="K24" s="3">
         <v>53000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>25700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>33900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-22800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>18600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>10200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>28200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-535200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>21200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>51400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>48500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-25500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>46600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>32200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>31500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-72500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87200</v>
+        <v>119700</v>
       </c>
       <c r="E26" s="3">
-        <v>239500</v>
+        <v>67400</v>
       </c>
       <c r="F26" s="3">
-        <v>128600</v>
+        <v>88800</v>
       </c>
       <c r="G26" s="3">
-        <v>-396900</v>
+        <v>253700</v>
       </c>
       <c r="H26" s="3">
-        <v>-183000</v>
+        <v>128800</v>
       </c>
       <c r="I26" s="3">
+        <v>-403900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-186200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2457400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-294500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-32200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>46000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>105600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-13700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>16200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>69800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>32900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>45600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-58000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>71800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-71800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>39900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>79400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>53000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87100</v>
+        <v>119700</v>
       </c>
       <c r="E27" s="3">
-        <v>239500</v>
+        <v>67400</v>
       </c>
       <c r="F27" s="3">
-        <v>128500</v>
+        <v>88600</v>
       </c>
       <c r="G27" s="3">
-        <v>-396900</v>
+        <v>253500</v>
       </c>
       <c r="H27" s="3">
-        <v>-183000</v>
+        <v>128700</v>
       </c>
       <c r="I27" s="3">
+        <v>-404000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-186200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2457500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-294600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-32300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>45900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>105600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>69800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>32900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>45600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-58000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>71900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-71800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>39900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>79400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>53000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,46 +2418,52 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>4000</v>
+        <v>11100</v>
       </c>
       <c r="G29" s="3">
-        <v>-35100</v>
+        <v>7700</v>
       </c>
       <c r="H29" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="J29" s="3">
         <v>1700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-4100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-3700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>2800</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2353,14 +2474,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
@@ -2372,19 +2493,25 @@
         <v>5</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-77800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>1000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>25500</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57800</v>
+        <v>152200</v>
       </c>
       <c r="E32" s="3">
-        <v>-211300</v>
+        <v>211000</v>
       </c>
       <c r="F32" s="3">
-        <v>21200</v>
+        <v>58800</v>
       </c>
       <c r="G32" s="3">
-        <v>205900</v>
+        <v>-140700</v>
       </c>
       <c r="H32" s="3">
-        <v>121500</v>
+        <v>22000</v>
       </c>
       <c r="I32" s="3">
+        <v>209600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2649300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>270200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-159700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>139300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>48400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>83300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>139800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>114400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>77600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>139900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>191900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>58400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>118800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-9300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>362000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>125100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>199100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>180000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>267300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>98000</v>
+        <v>119700</v>
       </c>
       <c r="E33" s="3">
-        <v>243000</v>
+        <v>67400</v>
       </c>
       <c r="F33" s="3">
-        <v>132500</v>
+        <v>99700</v>
       </c>
       <c r="G33" s="3">
-        <v>-432000</v>
+        <v>261200</v>
       </c>
       <c r="H33" s="3">
-        <v>-181300</v>
+        <v>132800</v>
       </c>
       <c r="I33" s="3">
+        <v>-439700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2461600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-298400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-29500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>45900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>105600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>16000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>69800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>32900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>45600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-58000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>71900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-71800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>39900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>54000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>23600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>98000</v>
+        <v>119700</v>
       </c>
       <c r="E35" s="3">
-        <v>243000</v>
+        <v>67400</v>
       </c>
       <c r="F35" s="3">
-        <v>132500</v>
+        <v>99700</v>
       </c>
       <c r="G35" s="3">
-        <v>-432000</v>
+        <v>261200</v>
       </c>
       <c r="H35" s="3">
-        <v>-181300</v>
+        <v>132800</v>
       </c>
       <c r="I35" s="3">
+        <v>-439700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2461600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-298400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-29500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>45900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>105600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>16000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>69800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>32900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>45600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-58000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>71900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-71800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>39900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>54000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>23600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3179,182 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14369400</v>
+        <v>10161100</v>
       </c>
       <c r="E41" s="3">
-        <v>13879100</v>
+        <v>15352900</v>
       </c>
       <c r="F41" s="3">
-        <v>14380500</v>
+        <v>14626100</v>
       </c>
       <c r="G41" s="3">
-        <v>15618800</v>
+        <v>14127000</v>
       </c>
       <c r="H41" s="3">
-        <v>15432100</v>
+        <v>14637400</v>
       </c>
       <c r="I41" s="3">
+        <v>15897800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>15707700</v>
+      </c>
+      <c r="K41" s="3">
         <v>13381200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12403800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10179300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8186700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8977800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8051600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6258500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5187600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6258200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5157800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5238700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4986500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3912100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3816300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3713200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3312200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3375300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>3587700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>4089400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2645800</v>
+        <v>2625900</v>
       </c>
       <c r="E42" s="3">
-        <v>2033400</v>
+        <v>2671100</v>
       </c>
       <c r="F42" s="3">
-        <v>1470800</v>
+        <v>2693000</v>
       </c>
       <c r="G42" s="3">
-        <v>1274500</v>
+        <v>2069700</v>
       </c>
       <c r="H42" s="3">
-        <v>1305100</v>
+        <v>1497100</v>
       </c>
       <c r="I42" s="3">
+        <v>1297200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1328400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1324600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1345100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1434000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1468200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1413600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1320200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1264900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1481600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1220500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1022700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>918300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>761600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>847700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>793300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>708200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>2022100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>2800900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>3328000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>3899000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3605,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,248 +3691,272 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>108200</v>
+        <v>106500</v>
       </c>
       <c r="E47" s="3">
-        <v>106000</v>
+        <v>106300</v>
       </c>
       <c r="F47" s="3">
-        <v>71000</v>
+        <v>110100</v>
       </c>
       <c r="G47" s="3">
-        <v>72200</v>
+        <v>107900</v>
       </c>
       <c r="H47" s="3">
-        <v>65200</v>
+        <v>72300</v>
       </c>
       <c r="I47" s="3">
+        <v>73500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K47" s="3">
         <v>64500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>32300</v>
-      </c>
-      <c r="K47" s="3">
-        <v>30600</v>
       </c>
       <c r="L47" s="3">
         <v>32300</v>
       </c>
       <c r="M47" s="3">
+        <v>30600</v>
+      </c>
+      <c r="N47" s="3">
+        <v>32300</v>
+      </c>
+      <c r="O47" s="3">
         <v>17300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>18700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>15600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>16300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>17100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>18200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>27400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>21000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>19900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>20300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>21200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>22400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>22300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>23800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>25600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>824000</v>
+        <v>857100</v>
       </c>
       <c r="E48" s="3">
-        <v>1175000</v>
+        <v>1667300</v>
       </c>
       <c r="F48" s="3">
-        <v>1212600</v>
+        <v>838700</v>
       </c>
       <c r="G48" s="3">
-        <v>1230700</v>
+        <v>1196000</v>
       </c>
       <c r="H48" s="3">
-        <v>1382600</v>
+        <v>1234200</v>
       </c>
       <c r="I48" s="3">
+        <v>1252700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1407300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1392900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1417800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1362700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1388000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1390500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1474700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1562200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1621100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1643200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1635600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1452400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1400700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1424200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1453100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1472500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1568500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1569200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1558900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1652800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>492500</v>
+        <v>551800</v>
       </c>
       <c r="E49" s="3">
-        <v>494300</v>
+        <v>1022400</v>
       </c>
       <c r="F49" s="3">
-        <v>505600</v>
+        <v>501300</v>
       </c>
       <c r="G49" s="3">
-        <v>505900</v>
+        <v>503200</v>
       </c>
       <c r="H49" s="3">
-        <v>492800</v>
+        <v>514600</v>
       </c>
       <c r="I49" s="3">
+        <v>515000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>501600</v>
+      </c>
+      <c r="K49" s="3">
         <v>498000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>582200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>600300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>602600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>541100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>569800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>574800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>557300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>553000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>531400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>513500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>459600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>444200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>439000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>437400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>427800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>420300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>414300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>435900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7233900</v>
+        <v>7137900</v>
       </c>
       <c r="E52" s="3">
-        <v>7641700</v>
+        <v>7269500</v>
       </c>
       <c r="F52" s="3">
-        <v>7140600</v>
+        <v>7363100</v>
       </c>
       <c r="G52" s="3">
-        <v>7256800</v>
+        <v>7778300</v>
       </c>
       <c r="H52" s="3">
-        <v>7540400</v>
+        <v>7268100</v>
       </c>
       <c r="I52" s="3">
+        <v>7386500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7675100</v>
+      </c>
+      <c r="K52" s="3">
         <v>5710000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5729200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5518600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5789700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6094400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>6387000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6698400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6770600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>6253400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>6624100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>6580200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>5876500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>5314100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5421200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>5183100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>5058300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>5057200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>5642600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>6038400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81895500</v>
+        <v>79371900</v>
       </c>
       <c r="E54" s="3">
-        <v>80177400</v>
+        <v>84011800</v>
       </c>
       <c r="F54" s="3">
-        <v>77663000</v>
+        <v>83358400</v>
       </c>
       <c r="G54" s="3">
-        <v>77610600</v>
+        <v>81609700</v>
       </c>
       <c r="H54" s="3">
-        <v>77313600</v>
+        <v>79050400</v>
       </c>
       <c r="I54" s="3">
+        <v>78997000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>78694700</v>
+      </c>
+      <c r="K54" s="3">
         <v>74555400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>75296000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>69874600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>71164100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>71222600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>72689600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>74081100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>73225600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>74070700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>73702600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>72164900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>66750100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>64796100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>65141000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>68231600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>68767200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>70360000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>71940200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>76147700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,25 +4529,31 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>222600</v>
+      <c r="E58" s="3">
+        <v>153900</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+      <c r="H58" s="3">
+        <v>226600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -4297,11 +4564,11 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4348,88 +4615,100 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E59" s="3">
         <v>24700</v>
       </c>
-      <c r="E59" s="3">
-        <v>32700</v>
-      </c>
       <c r="F59" s="3">
-        <v>21800</v>
+        <v>25100</v>
       </c>
       <c r="G59" s="3">
-        <v>63000</v>
+        <v>33200</v>
       </c>
       <c r="H59" s="3">
-        <v>57500</v>
+        <v>22200</v>
       </c>
       <c r="I59" s="3">
+        <v>64200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K59" s="3">
         <v>110500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>87800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>70000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>106000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>115400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>98700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>46500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>22100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>33200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>24400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>48800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>44500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>47800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>30900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>48000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>39200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>31900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>26600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>39600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,168 +4787,186 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2595000</v>
+        <v>2640600</v>
       </c>
       <c r="E61" s="3">
-        <v>2621500</v>
+        <v>3147800</v>
       </c>
       <c r="F61" s="3">
-        <v>2666400</v>
+        <v>2641400</v>
       </c>
       <c r="G61" s="3">
-        <v>2743400</v>
+        <v>2668400</v>
       </c>
       <c r="H61" s="3">
-        <v>2313800</v>
+        <v>2714000</v>
       </c>
       <c r="I61" s="3">
+        <v>2792400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2355100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1782100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1776100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1219700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1489800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1551800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1658100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1271000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1033900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1100400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>992000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1115900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1099000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1153800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1250000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>735500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>527800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>567000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>635100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>724100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>983600</v>
+        <v>249900</v>
       </c>
       <c r="E62" s="3">
-        <v>1499600</v>
+        <v>244800</v>
       </c>
       <c r="F62" s="3">
-        <v>1553500</v>
+        <v>1001200</v>
       </c>
       <c r="G62" s="3">
-        <v>1580800</v>
+        <v>1526400</v>
       </c>
       <c r="H62" s="3">
-        <v>1027800</v>
+        <v>1581300</v>
       </c>
       <c r="I62" s="3">
+        <v>1609000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1046100</v>
+      </c>
+      <c r="K62" s="3">
         <v>988400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1027500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>830800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>817100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>781200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>804200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>844200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>862100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>821800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>812400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>750400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>700500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>730600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>722300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>626900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>524200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>524000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>939800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>987300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75356300</v>
+        <v>72079500</v>
       </c>
       <c r="E66" s="3">
-        <v>73683000</v>
+        <v>77287000</v>
       </c>
       <c r="F66" s="3">
-        <v>71218600</v>
+        <v>76702400</v>
       </c>
       <c r="G66" s="3">
-        <v>71209600</v>
+        <v>74999200</v>
       </c>
       <c r="H66" s="3">
-        <v>70421400</v>
+        <v>72490800</v>
       </c>
       <c r="I66" s="3">
+        <v>72481700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>71679400</v>
+      </c>
+      <c r="K66" s="3">
         <v>68205800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>66875200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>61592300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>62415300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>62533600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>63688800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>64220400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>63253400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>64183600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>63957400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>62566500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>57689300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>55721300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>55974500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>57462600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>58203700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>59781700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>61630800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>65474900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>255300</v>
+        <v>466000</v>
       </c>
       <c r="E72" s="3">
-        <v>173600</v>
+        <v>327900</v>
       </c>
       <c r="F72" s="3">
-        <v>-6337600</v>
+        <v>259900</v>
       </c>
       <c r="G72" s="3">
-        <v>-6396200</v>
+        <v>176700</v>
       </c>
       <c r="H72" s="3">
-        <v>-5889200</v>
+        <v>-6450800</v>
       </c>
       <c r="I72" s="3">
+        <v>-6510500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-5994400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5585500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3514300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2967300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2957600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3017500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3303500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3306800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3195300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3747100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6539200</v>
+        <v>7292400</v>
       </c>
       <c r="E76" s="3">
-        <v>6494400</v>
+        <v>6724800</v>
       </c>
       <c r="F76" s="3">
-        <v>6444500</v>
+        <v>6656000</v>
       </c>
       <c r="G76" s="3">
-        <v>6401000</v>
+        <v>6610400</v>
       </c>
       <c r="H76" s="3">
-        <v>6892200</v>
+        <v>6559600</v>
       </c>
       <c r="I76" s="3">
+        <v>6515300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7015400</v>
+      </c>
+      <c r="K76" s="3">
         <v>6349600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8420800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8282200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8748800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8689000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9000900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9860700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9972200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9887100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>9745200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>9598400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>9060800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>9074900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>9166500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>10769000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>10563500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>10578300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>10309400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>10672800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>98000</v>
+        <v>119700</v>
       </c>
       <c r="E81" s="3">
-        <v>243000</v>
+        <v>67400</v>
       </c>
       <c r="F81" s="3">
-        <v>132500</v>
+        <v>99700</v>
       </c>
       <c r="G81" s="3">
-        <v>-432000</v>
+        <v>261200</v>
       </c>
       <c r="H81" s="3">
-        <v>-181300</v>
+        <v>132800</v>
       </c>
       <c r="I81" s="3">
+        <v>-439700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2461600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-298400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-29500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>45900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>105600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>16000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>69800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>32900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>45600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-58000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>71900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-71800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>39900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>54000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>23600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>77900</v>
+        <v>42700</v>
       </c>
       <c r="E83" s="3">
-        <v>56300</v>
+        <v>57400</v>
       </c>
       <c r="F83" s="3">
+        <v>79300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>100500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>43200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>110800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K83" s="3">
+        <v>131000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>89400</v>
+      </c>
+      <c r="M83" s="3">
+        <v>63300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="O83" s="3">
+        <v>39500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>41900</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>58600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>44700</v>
+      </c>
+      <c r="S83" s="3">
+        <v>44500</v>
+      </c>
+      <c r="T83" s="3">
         <v>42400</v>
       </c>
-      <c r="G83" s="3">
-        <v>108800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>40200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>131000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>89400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>63300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>41600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>39500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>41900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>58600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>44700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>44500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>42400</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>76900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>29500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>35800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>27700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>114000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>28000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>28500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>32500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>92900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1540000</v>
+        <v>-3956600</v>
       </c>
       <c r="E89" s="3">
-        <v>1403200</v>
+        <v>762400</v>
       </c>
       <c r="F89" s="3">
-        <v>-528700</v>
+        <v>1567500</v>
       </c>
       <c r="G89" s="3">
-        <v>-258600</v>
+        <v>890100</v>
       </c>
       <c r="H89" s="3">
-        <v>1293900</v>
+        <v>-538100</v>
       </c>
       <c r="I89" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2784100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1430500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2196000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-335300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3131500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>775700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1857400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1221400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>688700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>744800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1229300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1608400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>174300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-870300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-999700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-582700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-135700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24100</v>
+        <v>-74500</v>
       </c>
       <c r="E91" s="3">
-        <v>-27000</v>
+        <v>-77400</v>
       </c>
       <c r="F91" s="3">
-        <v>-15400</v>
+        <v>-22800</v>
       </c>
       <c r="G91" s="3">
-        <v>-106100</v>
+        <v>-25500</v>
       </c>
       <c r="H91" s="3">
-        <v>-14700</v>
+        <v>-14500</v>
       </c>
       <c r="I91" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-49200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-28700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-21600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-47700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-35200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-61500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-98600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-102100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-54100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-73800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-48800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-38100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-36100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-71400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-65900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-22800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>83900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-869500</v>
+        <v>-1209000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1454500</v>
+        <v>-420400</v>
       </c>
       <c r="F94" s="3">
-        <v>-412500</v>
+        <v>-885100</v>
       </c>
       <c r="G94" s="3">
-        <v>32700</v>
+        <v>-1900400</v>
       </c>
       <c r="H94" s="3">
-        <v>-584000</v>
+        <v>-419800</v>
       </c>
       <c r="I94" s="3">
+        <v>33300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-594400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-261800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>660800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-554400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-718500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-552900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-315200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-102500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>238300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-628400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-509700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>46200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>414000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>1357200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1043800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>651700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>88900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>1075700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>36900</v>
+        <v>-123800</v>
       </c>
       <c r="E100" s="3">
-        <v>-86700</v>
+        <v>483900</v>
       </c>
       <c r="F100" s="3">
-        <v>-73500</v>
+        <v>37600</v>
       </c>
       <c r="G100" s="3">
-        <v>375200</v>
+        <v>-163100</v>
       </c>
       <c r="H100" s="3">
-        <v>1252400</v>
+        <v>-74800</v>
       </c>
       <c r="I100" s="3">
+        <v>381900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1274800</v>
+      </c>
+      <c r="K100" s="3">
         <v>531200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>470400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-290700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-27300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-54400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>451300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>208400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>105700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-158000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-77000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-81900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-171400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>536300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>208900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-36100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-50000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-62800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>360300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M101" s="3">
+        <v>700</v>
+      </c>
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
-        <v>200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P101" s="3">
+        <v>9800</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
-        <v>800</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>9800</v>
-      </c>
-      <c r="O101" s="3">
-        <v>4400</v>
-      </c>
-      <c r="P101" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>24700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-15900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>4700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>3400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-7400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>2300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-15300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>705200</v>
+        <v>-5288800</v>
       </c>
       <c r="E102" s="3">
-        <v>-137300</v>
+        <v>826000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1014400</v>
+        <v>717800</v>
       </c>
       <c r="G102" s="3">
-        <v>141300</v>
+        <v>-1172300</v>
       </c>
       <c r="H102" s="3">
-        <v>1969200</v>
+        <v>-1032500</v>
       </c>
       <c r="I102" s="3">
+        <v>143800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2004400</v>
+      </c>
+      <c r="K102" s="3">
         <v>3050600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1903700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2566700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-916200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2357000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>683900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1755000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1399400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1057300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-57600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-67400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1017800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>53200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>83400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>559000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-20100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-105900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-112200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-16900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,212 +665,219 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>855400</v>
+        <v>1018000</v>
       </c>
       <c r="E8" s="3">
-        <v>622700</v>
+        <v>861100</v>
       </c>
       <c r="F8" s="3">
-        <v>514300</v>
+        <v>626800</v>
       </c>
       <c r="G8" s="3">
-        <v>937700</v>
+        <v>517800</v>
       </c>
       <c r="H8" s="3">
-        <v>457800</v>
+        <v>483100</v>
       </c>
       <c r="I8" s="3">
-        <v>403300</v>
+        <v>460900</v>
       </c>
       <c r="J8" s="3">
+        <v>406000</v>
+      </c>
+      <c r="K8" s="3">
         <v>475200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1072700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>556200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>554600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>534600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>565800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>551200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>674900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>581400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>606300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>619000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>659100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>614400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>635700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>644900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>692800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>701400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>717600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>709200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>735200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,94 +1351,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-43300</v>
+        <v>-45600</v>
       </c>
       <c r="E15" s="3">
-        <v>-42500</v>
+        <v>-43600</v>
       </c>
       <c r="F15" s="3">
-        <v>-40800</v>
+        <v>-42800</v>
       </c>
       <c r="G15" s="3">
-        <v>-85300</v>
+        <v>-41100</v>
       </c>
       <c r="H15" s="3">
-        <v>-43400</v>
+        <v>-42200</v>
       </c>
       <c r="I15" s="3">
-        <v>-41400</v>
+        <v>-43700</v>
       </c>
       <c r="J15" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-40300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-83800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-44700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-43700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-40700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-39800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-43500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-41300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-43200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-42100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-62000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-57400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-54900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-54800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-28500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-27300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-27600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-28500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-27100</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>529800</v>
+        <v>628400</v>
       </c>
       <c r="E17" s="3">
-        <v>294300</v>
+        <v>533400</v>
       </c>
       <c r="F17" s="3">
-        <v>241700</v>
+        <v>296300</v>
       </c>
       <c r="G17" s="3">
-        <v>715800</v>
+        <v>243300</v>
       </c>
       <c r="H17" s="3">
-        <v>263400</v>
+        <v>460100</v>
       </c>
       <c r="I17" s="3">
-        <v>638400</v>
+        <v>265200</v>
       </c>
       <c r="J17" s="3">
+        <v>642600</v>
+      </c>
+      <c r="K17" s="3">
         <v>610200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>827800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>554800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>748000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>315400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>434600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>480600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>515800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>442900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>448700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>418100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1003300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>489200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>523500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>533900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>428200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>489700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>406900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>444700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>542300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>325500</v>
+        <v>389600</v>
       </c>
       <c r="E18" s="3">
-        <v>328300</v>
+        <v>327700</v>
       </c>
       <c r="F18" s="3">
-        <v>272600</v>
+        <v>330500</v>
       </c>
       <c r="G18" s="3">
-        <v>221900</v>
+        <v>274500</v>
       </c>
       <c r="H18" s="3">
-        <v>194400</v>
+        <v>23000</v>
       </c>
       <c r="I18" s="3">
-        <v>-235100</v>
+        <v>195700</v>
       </c>
       <c r="J18" s="3">
+        <v>-236600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-134900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>244900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-193400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>219200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>131200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>70700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>159100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>138400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>157600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>201000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-344200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>125200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>112300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>111000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>264600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>211600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>310700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>264500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>192900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-152200</v>
+        <v>-112000</v>
       </c>
       <c r="E20" s="3">
+        <v>-153200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-212400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>162700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-211000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-58800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>140700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-209600</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-123600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2649300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-270200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>159700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-139300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-48400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-83300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-139800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-114400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-77600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-139900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-191900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-58400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-118800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>9300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-362000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-125100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-199100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-180000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-267300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>216100</v>
+        <v>318800</v>
       </c>
       <c r="E21" s="3">
-        <v>174800</v>
+        <v>217500</v>
       </c>
       <c r="F21" s="3">
-        <v>293100</v>
+        <v>176000</v>
       </c>
       <c r="G21" s="3">
-        <v>463100</v>
+        <v>295100</v>
       </c>
       <c r="H21" s="3">
-        <v>215500</v>
+        <v>243500</v>
       </c>
       <c r="I21" s="3">
-        <v>-333900</v>
+        <v>217000</v>
       </c>
       <c r="J21" s="3">
+        <v>-336100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-216200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2274900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-180200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>121500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>122300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>77900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>68800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>124600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>103400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-459100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>96300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>29400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>147800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>16700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>114500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>140100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>117000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>20300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>173300</v>
+        <v>277600</v>
       </c>
       <c r="E23" s="3">
-        <v>117300</v>
+        <v>174500</v>
       </c>
       <c r="F23" s="3">
-        <v>213800</v>
+        <v>118100</v>
       </c>
       <c r="G23" s="3">
-        <v>362500</v>
+        <v>215300</v>
       </c>
       <c r="H23" s="3">
-        <v>172400</v>
+        <v>185800</v>
       </c>
       <c r="I23" s="3">
-        <v>-444600</v>
+        <v>173500</v>
       </c>
       <c r="J23" s="3">
+        <v>-447600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-258600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2404400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-268800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>79900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>82800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>80100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>61100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-536100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>66800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>120300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-97300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>86500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>111600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>84500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-74400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53600</v>
+        <v>70100</v>
       </c>
       <c r="E24" s="3">
-        <v>49900</v>
+        <v>54000</v>
       </c>
       <c r="F24" s="3">
-        <v>125100</v>
+        <v>50300</v>
       </c>
       <c r="G24" s="3">
-        <v>108900</v>
+        <v>125900</v>
       </c>
       <c r="H24" s="3">
-        <v>43600</v>
+        <v>64500</v>
       </c>
       <c r="I24" s="3">
-        <v>-40700</v>
+        <v>43900</v>
       </c>
       <c r="J24" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-72300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>53000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-22800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-535200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>51400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>48500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-25500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>46600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>32200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>31500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-72500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>119700</v>
+        <v>207500</v>
       </c>
       <c r="E26" s="3">
-        <v>67400</v>
+        <v>120500</v>
       </c>
       <c r="F26" s="3">
-        <v>88800</v>
+        <v>67900</v>
       </c>
       <c r="G26" s="3">
-        <v>253700</v>
+        <v>89400</v>
       </c>
       <c r="H26" s="3">
-        <v>128800</v>
+        <v>121300</v>
       </c>
       <c r="I26" s="3">
-        <v>-403900</v>
+        <v>129600</v>
       </c>
       <c r="J26" s="3">
+        <v>-406600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-186200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2457400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-294500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-32200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>105600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>69800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>45600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-58000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>71800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>39900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>79400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>53000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>119700</v>
+        <v>207500</v>
       </c>
       <c r="E27" s="3">
-        <v>67400</v>
+        <v>120500</v>
       </c>
       <c r="F27" s="3">
-        <v>88600</v>
+        <v>67800</v>
       </c>
       <c r="G27" s="3">
-        <v>253500</v>
+        <v>89200</v>
       </c>
       <c r="H27" s="3">
-        <v>128700</v>
+        <v>121300</v>
       </c>
       <c r="I27" s="3">
-        <v>-404000</v>
+        <v>129500</v>
       </c>
       <c r="J27" s="3">
+        <v>-406700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-186200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2457500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-294600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-32300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>105600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>69800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>45600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-58000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>71900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>39900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>79400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>53000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,49 +2482,52 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>7700</v>
+        <v>11200</v>
       </c>
       <c r="H29" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I29" s="3">
         <v>4100</v>
       </c>
-      <c r="I29" s="3">
-        <v>-35700</v>
-      </c>
       <c r="J29" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="K29" s="3">
         <v>1700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2800</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2480,38 +2541,41 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-77800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>1000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>25500</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>152200</v>
+        <v>112000</v>
       </c>
       <c r="E32" s="3">
+        <v>153200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>212400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>59200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-162700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J32" s="3">
         <v>211000</v>
       </c>
-      <c r="F32" s="3">
-        <v>58800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-140700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>22000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>209600</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>123600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2649300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>270200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-159700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>139300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>48400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>83300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>139800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>114400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>77600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>139900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>191900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>58400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>118800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>362000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>125100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>199100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>180000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>267300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>119700</v>
+        <v>207500</v>
       </c>
       <c r="E33" s="3">
-        <v>67400</v>
+        <v>120500</v>
       </c>
       <c r="F33" s="3">
-        <v>99700</v>
+        <v>67800</v>
       </c>
       <c r="G33" s="3">
-        <v>261200</v>
+        <v>100400</v>
       </c>
       <c r="H33" s="3">
-        <v>132800</v>
+        <v>124900</v>
       </c>
       <c r="I33" s="3">
-        <v>-439700</v>
+        <v>133700</v>
       </c>
       <c r="J33" s="3">
+        <v>-442600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-184500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2461600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-298400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>105600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>69800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>45600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-58000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>71900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>39900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>54000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>23600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>119700</v>
+        <v>207500</v>
       </c>
       <c r="E35" s="3">
-        <v>67400</v>
+        <v>120500</v>
       </c>
       <c r="F35" s="3">
-        <v>99700</v>
+        <v>67800</v>
       </c>
       <c r="G35" s="3">
-        <v>261200</v>
+        <v>100400</v>
       </c>
       <c r="H35" s="3">
-        <v>132800</v>
+        <v>124900</v>
       </c>
       <c r="I35" s="3">
-        <v>-439700</v>
+        <v>133700</v>
       </c>
       <c r="J35" s="3">
+        <v>-442600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-184500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2461600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-298400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>105600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>69800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>45600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-58000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>71900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>39900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>54000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>23600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,180 +3267,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10161100</v>
+        <v>8847400</v>
       </c>
       <c r="E41" s="3">
-        <v>15352900</v>
+        <v>10229000</v>
       </c>
       <c r="F41" s="3">
-        <v>14626100</v>
+        <v>15455500</v>
       </c>
       <c r="G41" s="3">
-        <v>14127000</v>
+        <v>14723900</v>
       </c>
       <c r="H41" s="3">
-        <v>14637400</v>
+        <v>14221500</v>
       </c>
       <c r="I41" s="3">
-        <v>15897800</v>
+        <v>14735300</v>
       </c>
       <c r="J41" s="3">
+        <v>16004100</v>
+      </c>
+      <c r="K41" s="3">
         <v>15707700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13381200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12403800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10179300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8186700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8977800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8051600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6258500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5187600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6258200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5157800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5238700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4986500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3912100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3816300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3713200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3312200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3375300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3587700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4089400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2625900</v>
+        <v>2848000</v>
       </c>
       <c r="E42" s="3">
-        <v>2671100</v>
+        <v>2643400</v>
       </c>
       <c r="F42" s="3">
-        <v>2693000</v>
+        <v>2688900</v>
       </c>
       <c r="G42" s="3">
-        <v>2069700</v>
+        <v>2711000</v>
       </c>
       <c r="H42" s="3">
-        <v>1497100</v>
+        <v>2083600</v>
       </c>
       <c r="I42" s="3">
-        <v>1297200</v>
+        <v>1507100</v>
       </c>
       <c r="J42" s="3">
+        <v>1305900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1328400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1324600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1345100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1434000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1468200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1413600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1320200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1264900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1481600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1220500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1022700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>918300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>761600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>847700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>793300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>708200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2022100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2800900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3328000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3899000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,266 +3799,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>106500</v>
+        <v>107400</v>
       </c>
       <c r="E47" s="3">
-        <v>106300</v>
+        <v>107200</v>
       </c>
       <c r="F47" s="3">
-        <v>110100</v>
+        <v>107000</v>
       </c>
       <c r="G47" s="3">
-        <v>107900</v>
+        <v>110900</v>
       </c>
       <c r="H47" s="3">
-        <v>72300</v>
+        <v>108600</v>
       </c>
       <c r="I47" s="3">
-        <v>73500</v>
+        <v>72800</v>
       </c>
       <c r="J47" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K47" s="3">
         <v>66400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>64500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>15600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>17100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>21000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>19900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>20300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>21200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>22400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>22300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>23800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>25600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>857100</v>
+        <v>868900</v>
       </c>
       <c r="E48" s="3">
-        <v>1667300</v>
+        <v>862900</v>
       </c>
       <c r="F48" s="3">
-        <v>838700</v>
+        <v>1678500</v>
       </c>
       <c r="G48" s="3">
-        <v>1196000</v>
+        <v>844300</v>
       </c>
       <c r="H48" s="3">
-        <v>1234200</v>
+        <v>1204000</v>
       </c>
       <c r="I48" s="3">
-        <v>1252700</v>
+        <v>1242500</v>
       </c>
       <c r="J48" s="3">
+        <v>1261100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1407300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1392900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1417800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1362700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1388000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1390500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1474700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1562200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1621100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1643200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1635600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1452400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1400700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1424200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1453100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1472500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1568500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1569200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1558900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1652800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>551800</v>
+        <v>546500</v>
       </c>
       <c r="E49" s="3">
-        <v>1022400</v>
+        <v>555500</v>
       </c>
       <c r="F49" s="3">
-        <v>501300</v>
+        <v>1029200</v>
       </c>
       <c r="G49" s="3">
-        <v>503200</v>
+        <v>504600</v>
       </c>
       <c r="H49" s="3">
-        <v>514600</v>
+        <v>506500</v>
       </c>
       <c r="I49" s="3">
-        <v>515000</v>
+        <v>518000</v>
       </c>
       <c r="J49" s="3">
+        <v>518400</v>
+      </c>
+      <c r="K49" s="3">
         <v>501600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>498000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>582200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>600300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>602600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>541100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>569800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>574800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>557300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>553000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>531400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>513500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>459600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>444200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>439000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>437400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>427800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>420300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>414300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>435900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7137900</v>
+        <v>6243600</v>
       </c>
       <c r="E52" s="3">
-        <v>7269500</v>
+        <v>7185600</v>
       </c>
       <c r="F52" s="3">
-        <v>7363100</v>
+        <v>7318100</v>
       </c>
       <c r="G52" s="3">
-        <v>7778300</v>
+        <v>7412300</v>
       </c>
       <c r="H52" s="3">
-        <v>7268100</v>
+        <v>7830300</v>
       </c>
       <c r="I52" s="3">
-        <v>7386500</v>
+        <v>7316700</v>
       </c>
       <c r="J52" s="3">
+        <v>7435800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7675100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5710000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5729200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5518600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5789700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6094400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6387000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6698400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6770600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6253400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6624100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6580200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5876500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5314100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5421200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5183100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5058300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5057200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5642600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>6038400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79371900</v>
+        <v>79053400</v>
       </c>
       <c r="E54" s="3">
-        <v>84011800</v>
+        <v>79902600</v>
       </c>
       <c r="F54" s="3">
-        <v>83358400</v>
+        <v>84573400</v>
       </c>
       <c r="G54" s="3">
-        <v>81609700</v>
+        <v>83915800</v>
       </c>
       <c r="H54" s="3">
-        <v>79050400</v>
+        <v>82155300</v>
       </c>
       <c r="I54" s="3">
-        <v>78997000</v>
+        <v>79578900</v>
       </c>
       <c r="J54" s="3">
+        <v>79525200</v>
+      </c>
+      <c r="K54" s="3">
         <v>78694700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>74555400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75296000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69874600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71164100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71222600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72689600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74081100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73225600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>74070700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>73702600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>72164900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>66750100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>64796100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>65141000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>68231600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>68767200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>70360000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>71940200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>76147700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,28 +4666,31 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>153900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>154900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
-        <v>226600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>228100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4570,8 +4704,8 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4621,94 +4755,100 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30600</v>
+        <v>38400</v>
       </c>
       <c r="E59" s="3">
-        <v>24700</v>
+        <v>30800</v>
       </c>
       <c r="F59" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="G59" s="3">
+        <v>25300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>58600</v>
+      </c>
+      <c r="L59" s="3">
+        <v>110500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>87800</v>
+      </c>
+      <c r="N59" s="3">
+        <v>70000</v>
+      </c>
+      <c r="O59" s="3">
+        <v>106000</v>
+      </c>
+      <c r="P59" s="3">
+        <v>115400</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>98700</v>
+      </c>
+      <c r="R59" s="3">
+        <v>46500</v>
+      </c>
+      <c r="S59" s="3">
+        <v>22100</v>
+      </c>
+      <c r="T59" s="3">
         <v>33200</v>
       </c>
-      <c r="H59" s="3">
-        <v>22200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>64200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>58600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>110500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>87800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>70000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>106000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>115400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>98700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>46500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>22100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>33200</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>24400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>44500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>47800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>30900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>48000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>39200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>31900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>26600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>39600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,180 +4933,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2640600</v>
+        <v>3172100</v>
       </c>
       <c r="E61" s="3">
-        <v>3147800</v>
+        <v>2658200</v>
       </c>
       <c r="F61" s="3">
-        <v>2641400</v>
+        <v>3168800</v>
       </c>
       <c r="G61" s="3">
-        <v>2668400</v>
+        <v>2659000</v>
       </c>
       <c r="H61" s="3">
-        <v>2714000</v>
+        <v>2686200</v>
       </c>
       <c r="I61" s="3">
-        <v>2792400</v>
+        <v>2732200</v>
       </c>
       <c r="J61" s="3">
+        <v>2811100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2355100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1782100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1776100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1219700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1489800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1551800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1658100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1271000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1033900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1100400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>992000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1115900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1099000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1153800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1250000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>735500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>527800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>567000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>635100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>724100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>249900</v>
+        <v>207600</v>
       </c>
       <c r="E62" s="3">
-        <v>244800</v>
+        <v>251600</v>
       </c>
       <c r="F62" s="3">
-        <v>1001200</v>
+        <v>246400</v>
       </c>
       <c r="G62" s="3">
-        <v>1526400</v>
+        <v>1007800</v>
       </c>
       <c r="H62" s="3">
-        <v>1581300</v>
+        <v>1536600</v>
       </c>
       <c r="I62" s="3">
-        <v>1609000</v>
+        <v>1591800</v>
       </c>
       <c r="J62" s="3">
+        <v>1619800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1046100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>988400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1027500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>830800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>817100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>781200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>804200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>844200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>862100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>821800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>812400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>750400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>700500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>730600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>722300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>626900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>524200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>524000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>939800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>987300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72079500</v>
+        <v>71489200</v>
       </c>
       <c r="E66" s="3">
-        <v>77287000</v>
+        <v>72561400</v>
       </c>
       <c r="F66" s="3">
-        <v>76702400</v>
+        <v>77803700</v>
       </c>
       <c r="G66" s="3">
-        <v>74999200</v>
+        <v>77215200</v>
       </c>
       <c r="H66" s="3">
-        <v>72490800</v>
+        <v>75500700</v>
       </c>
       <c r="I66" s="3">
-        <v>72481700</v>
+        <v>72975500</v>
       </c>
       <c r="J66" s="3">
+        <v>72966300</v>
+      </c>
+      <c r="K66" s="3">
         <v>71679400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68205800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66875200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61592300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62415300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62533600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63688800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64220400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63253400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64183600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>63957400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62566500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>57689300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>55721300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>55974500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>57462600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>58203700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>59781700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>61630800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>65474900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>466000</v>
+        <v>694500</v>
       </c>
       <c r="E72" s="3">
-        <v>327900</v>
+        <v>469100</v>
       </c>
       <c r="F72" s="3">
-        <v>259900</v>
+        <v>330100</v>
       </c>
       <c r="G72" s="3">
-        <v>176700</v>
+        <v>261600</v>
       </c>
       <c r="H72" s="3">
-        <v>-6450800</v>
+        <v>177900</v>
       </c>
       <c r="I72" s="3">
-        <v>-6510500</v>
+        <v>-6494000</v>
       </c>
       <c r="J72" s="3">
+        <v>-6554000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5994400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5585500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3514300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2967300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2957600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3017500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3303500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3306800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3195300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3747100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7292400</v>
+        <v>7564200</v>
       </c>
       <c r="E76" s="3">
-        <v>6724800</v>
+        <v>7341200</v>
       </c>
       <c r="F76" s="3">
-        <v>6656000</v>
+        <v>6769700</v>
       </c>
       <c r="G76" s="3">
-        <v>6610400</v>
+        <v>6700500</v>
       </c>
       <c r="H76" s="3">
-        <v>6559600</v>
+        <v>6654600</v>
       </c>
       <c r="I76" s="3">
-        <v>6515300</v>
+        <v>6603500</v>
       </c>
       <c r="J76" s="3">
+        <v>6558900</v>
+      </c>
+      <c r="K76" s="3">
         <v>7015400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6349600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8420800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8282200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8748800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8689000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9000900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9860700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9972200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9887100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9745200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9598400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9060800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9074900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9166500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10769000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10563500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10578300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10309400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10672800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>119700</v>
+        <v>207500</v>
       </c>
       <c r="E81" s="3">
-        <v>67400</v>
+        <v>120500</v>
       </c>
       <c r="F81" s="3">
-        <v>99700</v>
+        <v>67800</v>
       </c>
       <c r="G81" s="3">
-        <v>261200</v>
+        <v>100400</v>
       </c>
       <c r="H81" s="3">
-        <v>132800</v>
+        <v>124900</v>
       </c>
       <c r="I81" s="3">
-        <v>-439700</v>
+        <v>133700</v>
       </c>
       <c r="J81" s="3">
+        <v>-442600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-184500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2461600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-298400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>105600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>69800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>45600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-58000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>71900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>39900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>54000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>23600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42700</v>
+        <v>41200</v>
       </c>
       <c r="E83" s="3">
-        <v>57400</v>
+        <v>43000</v>
       </c>
       <c r="F83" s="3">
-        <v>79300</v>
+        <v>57800</v>
       </c>
       <c r="G83" s="3">
-        <v>100500</v>
+        <v>79800</v>
       </c>
       <c r="H83" s="3">
-        <v>43200</v>
+        <v>57700</v>
       </c>
       <c r="I83" s="3">
-        <v>110800</v>
+        <v>43500</v>
       </c>
       <c r="J83" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K83" s="3">
         <v>40900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>131000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>58600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>44700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>76900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>35800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>27700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>114000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>28000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>28500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>32500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>92900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3956600</v>
+        <v>-1429500</v>
       </c>
       <c r="E89" s="3">
-        <v>762400</v>
+        <v>-3983100</v>
       </c>
       <c r="F89" s="3">
-        <v>1567500</v>
+        <v>767500</v>
       </c>
       <c r="G89" s="3">
-        <v>890100</v>
+        <v>1577900</v>
       </c>
       <c r="H89" s="3">
-        <v>-538100</v>
+        <v>1437800</v>
       </c>
       <c r="I89" s="3">
-        <v>-263200</v>
+        <v>-541700</v>
       </c>
       <c r="J89" s="3">
+        <v>-265000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1317000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2784100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1430500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2196000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-335300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3131500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>775700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1857400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1221400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>688700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>744800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1229300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1608400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>174300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-870300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-999700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-582700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-135700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-74500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-77400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-49200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-98600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-33000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-102100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-54100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-73800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-36100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-71400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-65900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-22800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>83900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1209000</v>
+        <v>-332100</v>
       </c>
       <c r="E94" s="3">
-        <v>-420400</v>
+        <v>-1217000</v>
       </c>
       <c r="F94" s="3">
-        <v>-885100</v>
+        <v>-423200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1900400</v>
+        <v>-891000</v>
       </c>
       <c r="H94" s="3">
-        <v>-419800</v>
+        <v>-1490400</v>
       </c>
       <c r="I94" s="3">
-        <v>33300</v>
+        <v>-422600</v>
       </c>
       <c r="J94" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-594400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-261800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>660800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-554400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-718500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-552900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-315200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-102500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>238300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-628400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-509700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>46200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>414000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1357200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1043800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>651700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>88900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>1075700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-123800</v>
+        <v>-116700</v>
       </c>
       <c r="E100" s="3">
-        <v>483900</v>
+        <v>-124600</v>
       </c>
       <c r="F100" s="3">
-        <v>37600</v>
+        <v>487100</v>
       </c>
       <c r="G100" s="3">
-        <v>-163100</v>
+        <v>37800</v>
       </c>
       <c r="H100" s="3">
-        <v>-74800</v>
+        <v>-88900</v>
       </c>
       <c r="I100" s="3">
-        <v>381900</v>
+        <v>-75300</v>
       </c>
       <c r="J100" s="3">
+        <v>384500</v>
+      </c>
+      <c r="K100" s="3">
         <v>1274800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>531200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>470400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-290700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-54400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>451300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>208400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-76200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>105700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-158000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-77000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-81900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-171400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>536300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>208900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-36100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-50000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-62800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>360300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G101" s="3">
-        <v>1100</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
+        <v>800</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>24700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-15900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-15300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5288800</v>
+        <v>-1878700</v>
       </c>
       <c r="E102" s="3">
-        <v>826000</v>
+        <v>-5324200</v>
       </c>
       <c r="F102" s="3">
-        <v>717800</v>
+        <v>831500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1172300</v>
+        <v>722600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1032500</v>
+        <v>-140700</v>
       </c>
       <c r="I102" s="3">
-        <v>143800</v>
+        <v>-1039400</v>
       </c>
       <c r="J102" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K102" s="3">
         <v>2004400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3050600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1903700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2566700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-916200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2357000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>683900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1755000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1399400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1057300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-57600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-67400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1017800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>53200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>83400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>559000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-20100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-105900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-112200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-16900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>ALBKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,226 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1018000</v>
+        <v>1137700</v>
       </c>
       <c r="E8" s="3">
-        <v>861100</v>
+        <v>1018800</v>
       </c>
       <c r="F8" s="3">
-        <v>626800</v>
+        <v>861800</v>
       </c>
       <c r="G8" s="3">
-        <v>517800</v>
+        <v>627300</v>
       </c>
       <c r="H8" s="3">
-        <v>483100</v>
+        <v>518200</v>
       </c>
       <c r="I8" s="3">
-        <v>460900</v>
+        <v>483500</v>
       </c>
       <c r="J8" s="3">
+        <v>461200</v>
+      </c>
+      <c r="K8" s="3">
         <v>406000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>475200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1072700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>556200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>554600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>534600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>565800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>551200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>674900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>581400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>606300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>619000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>659100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>614400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>635700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>644900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>692800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>701400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>717600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>709200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>735200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>765400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,97 +1374,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-45600</v>
+        <v>-48100</v>
       </c>
       <c r="E15" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="F15" s="3">
         <v>-43600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-42800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-41100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-42200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-43700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-41600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-40300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-83800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-44700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-43700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-40700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-40900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-43500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-41300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-43200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-42100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-62000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-57400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-54900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-54800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-28500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-27300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-27600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-28500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-27100</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>628400</v>
+        <v>693800</v>
       </c>
       <c r="E17" s="3">
-        <v>533400</v>
+        <v>628900</v>
       </c>
       <c r="F17" s="3">
-        <v>296300</v>
+        <v>533800</v>
       </c>
       <c r="G17" s="3">
-        <v>243300</v>
+        <v>296500</v>
       </c>
       <c r="H17" s="3">
-        <v>460100</v>
+        <v>243500</v>
       </c>
       <c r="I17" s="3">
-        <v>265200</v>
+        <v>460400</v>
       </c>
       <c r="J17" s="3">
+        <v>265400</v>
+      </c>
+      <c r="K17" s="3">
         <v>642600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>610200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>827800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>554800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>748000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>315400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>434600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>480600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>515800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>442900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>448700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>418100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1003300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>489200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>523500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>533900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>428200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>489700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>406900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>444700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>542300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>503600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>389600</v>
+        <v>444000</v>
       </c>
       <c r="E18" s="3">
-        <v>327700</v>
+        <v>389900</v>
       </c>
       <c r="F18" s="3">
-        <v>330500</v>
+        <v>328000</v>
       </c>
       <c r="G18" s="3">
-        <v>274500</v>
+        <v>330800</v>
       </c>
       <c r="H18" s="3">
+        <v>274700</v>
+      </c>
+      <c r="I18" s="3">
         <v>23000</v>
       </c>
-      <c r="I18" s="3">
-        <v>195700</v>
-      </c>
       <c r="J18" s="3">
+        <v>195800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-236600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-134900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>244900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-193400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>219200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>131200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>159100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>138400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>157600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>201000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-344200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>125200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>112300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>111000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>264600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>211600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>310700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>264500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>192900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-112000</v>
+        <v>-155900</v>
       </c>
       <c r="E20" s="3">
-        <v>-153200</v>
+        <v>-112100</v>
       </c>
       <c r="F20" s="3">
-        <v>-212400</v>
+        <v>-153300</v>
       </c>
       <c r="G20" s="3">
+        <v>-212600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-59200</v>
       </c>
-      <c r="H20" s="3">
-        <v>162700</v>
-      </c>
       <c r="I20" s="3">
+        <v>162900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-22200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-211000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-123600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2649300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-270200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>159700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-139300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-48400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-83300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-139800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-114400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-77600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-139900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-191900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-58400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-118800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>9300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-362000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-125100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-199100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-180000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-267300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-205800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>318800</v>
+        <v>331400</v>
       </c>
       <c r="E21" s="3">
-        <v>217500</v>
+        <v>319100</v>
       </c>
       <c r="F21" s="3">
-        <v>176000</v>
+        <v>217700</v>
       </c>
       <c r="G21" s="3">
-        <v>295100</v>
+        <v>176100</v>
       </c>
       <c r="H21" s="3">
-        <v>243500</v>
+        <v>295300</v>
       </c>
       <c r="I21" s="3">
-        <v>217000</v>
+        <v>243700</v>
       </c>
       <c r="J21" s="3">
+        <v>217200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-336100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-216200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2274900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-180200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>121500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>122300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>77900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>68800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>124600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>103400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-459100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>96300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>29400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>147800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>16700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>114500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>140100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>117000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>20300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>84600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>277600</v>
+        <v>288000</v>
       </c>
       <c r="E23" s="3">
-        <v>174500</v>
+        <v>277800</v>
       </c>
       <c r="F23" s="3">
-        <v>118100</v>
+        <v>174600</v>
       </c>
       <c r="G23" s="3">
-        <v>215300</v>
+        <v>118200</v>
       </c>
       <c r="H23" s="3">
-        <v>185800</v>
+        <v>215400</v>
       </c>
       <c r="I23" s="3">
-        <v>173500</v>
+        <v>185900</v>
       </c>
       <c r="J23" s="3">
+        <v>173600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-447600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-258600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2404400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-268800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>79900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>82800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>80100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>61100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-536100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>66800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>120300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-97300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>86500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>111600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>84500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-74400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E24" s="3">
         <v>70100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>54000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>50300</v>
       </c>
-      <c r="G24" s="3">
-        <v>125900</v>
-      </c>
       <c r="H24" s="3">
+        <v>126000</v>
+      </c>
+      <c r="I24" s="3">
         <v>64500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>43900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-41000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-72300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>53000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-535200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>51400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>48500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-25500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>46600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>32200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>31500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-72500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>207500</v>
+        <v>204000</v>
       </c>
       <c r="E26" s="3">
-        <v>120500</v>
+        <v>207700</v>
       </c>
       <c r="F26" s="3">
+        <v>120600</v>
+      </c>
+      <c r="G26" s="3">
         <v>67900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>89400</v>
       </c>
-      <c r="H26" s="3">
-        <v>121300</v>
-      </c>
       <c r="I26" s="3">
-        <v>129600</v>
+        <v>121400</v>
       </c>
       <c r="J26" s="3">
+        <v>129700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-406600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-186200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2457400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-294500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>105600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>69800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>32900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>45600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>71800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>39900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>79400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>53000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>207500</v>
+        <v>203900</v>
       </c>
       <c r="E27" s="3">
-        <v>120500</v>
+        <v>207700</v>
       </c>
       <c r="F27" s="3">
-        <v>67800</v>
+        <v>120600</v>
       </c>
       <c r="G27" s="3">
-        <v>89200</v>
+        <v>67900</v>
       </c>
       <c r="H27" s="3">
-        <v>121300</v>
+        <v>89300</v>
       </c>
       <c r="I27" s="3">
-        <v>129500</v>
+        <v>121400</v>
       </c>
       <c r="J27" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-406700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-186200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2457500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-294600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>45900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>105600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>69800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>45600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>71900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>39900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>79400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>53000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>46400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,52 +2543,55 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>11200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>3600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>4100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-35900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2800</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2544,38 +2605,41 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-77800</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>1000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>25500</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>112000</v>
+        <v>155900</v>
       </c>
       <c r="E32" s="3">
-        <v>153200</v>
+        <v>112100</v>
       </c>
       <c r="F32" s="3">
-        <v>212400</v>
+        <v>153300</v>
       </c>
       <c r="G32" s="3">
+        <v>212600</v>
+      </c>
+      <c r="H32" s="3">
         <v>59200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-162700</v>
-      </c>
       <c r="I32" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="J32" s="3">
         <v>22200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>211000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>123600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2649300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>270200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-159700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>139300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>48400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>83300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>139800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>114400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>77600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>139900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>191900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>58400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>118800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>362000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>125100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>199100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>180000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>267300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>205800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>207500</v>
+        <v>203900</v>
       </c>
       <c r="E33" s="3">
-        <v>120500</v>
+        <v>207700</v>
       </c>
       <c r="F33" s="3">
-        <v>67800</v>
+        <v>120600</v>
       </c>
       <c r="G33" s="3">
-        <v>100400</v>
+        <v>67900</v>
       </c>
       <c r="H33" s="3">
-        <v>124900</v>
+        <v>100500</v>
       </c>
       <c r="I33" s="3">
-        <v>133700</v>
+        <v>125000</v>
       </c>
       <c r="J33" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-442600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-184500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2461600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-298400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>105600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>69800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>45600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>71900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>39900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>54000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>23600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>207500</v>
+        <v>203900</v>
       </c>
       <c r="E35" s="3">
-        <v>120500</v>
+        <v>207700</v>
       </c>
       <c r="F35" s="3">
-        <v>67800</v>
+        <v>120600</v>
       </c>
       <c r="G35" s="3">
-        <v>100400</v>
+        <v>67900</v>
       </c>
       <c r="H35" s="3">
-        <v>124900</v>
+        <v>100500</v>
       </c>
       <c r="I35" s="3">
-        <v>133700</v>
+        <v>125000</v>
       </c>
       <c r="J35" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-442600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-184500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2461600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-298400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>105600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>69800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>45600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>71900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>39900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>54000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>23600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,186 +3354,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8847400</v>
+        <v>9353600</v>
       </c>
       <c r="E41" s="3">
-        <v>10229000</v>
+        <v>8854700</v>
       </c>
       <c r="F41" s="3">
-        <v>15455500</v>
+        <v>10237500</v>
       </c>
       <c r="G41" s="3">
-        <v>14723900</v>
+        <v>15468300</v>
       </c>
       <c r="H41" s="3">
-        <v>14221500</v>
+        <v>14736100</v>
       </c>
       <c r="I41" s="3">
-        <v>14735300</v>
+        <v>14233300</v>
       </c>
       <c r="J41" s="3">
+        <v>14747500</v>
+      </c>
+      <c r="K41" s="3">
         <v>16004100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15707700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13381200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12403800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10179300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8186700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8977800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8051600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6258500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5187600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6258200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5157800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5238700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4986500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3912100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3816300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3713200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3312200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3375300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3587700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4089400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>4159100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2848000</v>
+        <v>3282100</v>
       </c>
       <c r="E42" s="3">
-        <v>2643400</v>
+        <v>2850300</v>
       </c>
       <c r="F42" s="3">
-        <v>2688900</v>
+        <v>2645600</v>
       </c>
       <c r="G42" s="3">
-        <v>2711000</v>
+        <v>2691200</v>
       </c>
       <c r="H42" s="3">
-        <v>2083600</v>
+        <v>2713300</v>
       </c>
       <c r="I42" s="3">
-        <v>1507100</v>
+        <v>2085300</v>
       </c>
       <c r="J42" s="3">
+        <v>1508300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1305900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1328400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1324600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1345100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1434000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1468200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1413600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1320200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1264900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1481600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1220500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1022700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>918300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>761600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>847700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>793300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>708200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2022100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2800900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3328000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3899000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>4888100</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,275 +3904,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>107400</v>
+        <v>107300</v>
       </c>
       <c r="E47" s="3">
-        <v>107200</v>
+        <v>107500</v>
       </c>
       <c r="F47" s="3">
-        <v>107000</v>
+        <v>107300</v>
       </c>
       <c r="G47" s="3">
-        <v>110900</v>
+        <v>107100</v>
       </c>
       <c r="H47" s="3">
-        <v>108600</v>
+        <v>111000</v>
       </c>
       <c r="I47" s="3">
+        <v>108700</v>
+      </c>
+      <c r="J47" s="3">
         <v>72800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>74000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>66400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>64500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>17100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>21000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>19900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>20300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>21200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>22400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>22300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>23800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>25600</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>868900</v>
+        <v>872400</v>
       </c>
       <c r="E48" s="3">
-        <v>862900</v>
+        <v>869600</v>
       </c>
       <c r="F48" s="3">
-        <v>1678500</v>
+        <v>863600</v>
       </c>
       <c r="G48" s="3">
-        <v>844300</v>
+        <v>1679900</v>
       </c>
       <c r="H48" s="3">
-        <v>1204000</v>
+        <v>845000</v>
       </c>
       <c r="I48" s="3">
-        <v>1242500</v>
+        <v>1205000</v>
       </c>
       <c r="J48" s="3">
+        <v>1243500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1261100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1407300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1392900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1417800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1362700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1388000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1390500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1474700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1562200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1621100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1643200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1635600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1452400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1400700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1424200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1453100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1472500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1568500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1569200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1558900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1652800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1710700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>546500</v>
+        <v>541600</v>
       </c>
       <c r="E49" s="3">
-        <v>555500</v>
+        <v>547000</v>
       </c>
       <c r="F49" s="3">
-        <v>1029200</v>
+        <v>555900</v>
       </c>
       <c r="G49" s="3">
-        <v>504600</v>
+        <v>1030100</v>
       </c>
       <c r="H49" s="3">
-        <v>506500</v>
+        <v>505000</v>
       </c>
       <c r="I49" s="3">
-        <v>518000</v>
+        <v>506900</v>
       </c>
       <c r="J49" s="3">
+        <v>518500</v>
+      </c>
+      <c r="K49" s="3">
         <v>518400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>501600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>498000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>582200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>600300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>602600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>541100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>569800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>574800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>557300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>553000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>531400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>513500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>459600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>444200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>439000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>437400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>427800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>420300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>414300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>435900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>435800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6243600</v>
+        <v>6218200</v>
       </c>
       <c r="E52" s="3">
-        <v>7185600</v>
+        <v>6248700</v>
       </c>
       <c r="F52" s="3">
-        <v>7318100</v>
+        <v>7191600</v>
       </c>
       <c r="G52" s="3">
-        <v>7412300</v>
+        <v>7324200</v>
       </c>
       <c r="H52" s="3">
-        <v>7830300</v>
+        <v>7418500</v>
       </c>
       <c r="I52" s="3">
-        <v>7316700</v>
+        <v>7836800</v>
       </c>
       <c r="J52" s="3">
+        <v>7322800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7435800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7675100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5710000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5729200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5518600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5789700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6094400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6387000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6698400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6770600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6253400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6624100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6580200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5876500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5314100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5421200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5183100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5058300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5057200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5642600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>6038400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>5533100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79053400</v>
+        <v>80715500</v>
       </c>
       <c r="E54" s="3">
-        <v>79902600</v>
+        <v>79119000</v>
       </c>
       <c r="F54" s="3">
-        <v>84573400</v>
+        <v>79968900</v>
       </c>
       <c r="G54" s="3">
-        <v>83915800</v>
+        <v>84643700</v>
       </c>
       <c r="H54" s="3">
-        <v>82155300</v>
+        <v>83985400</v>
       </c>
       <c r="I54" s="3">
-        <v>79578900</v>
+        <v>82223500</v>
       </c>
       <c r="J54" s="3">
+        <v>79645000</v>
+      </c>
+      <c r="K54" s="3">
         <v>79525200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78694700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74555400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>75296000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69874600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71164100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71222600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>72689600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74081100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73225600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>74070700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73702600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>72164900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>66750100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>64796100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>65141000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>68231600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>68767200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>70360000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>71940200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>76147700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>77660500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4680,20 +4814,20 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>154900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>155100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
-        <v>228100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>228300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -4707,8 +4841,8 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4758,97 +4892,103 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E59" s="3">
         <v>38400</v>
       </c>
-      <c r="E59" s="3">
-        <v>30800</v>
-      </c>
       <c r="F59" s="3">
+        <v>30900</v>
+      </c>
+      <c r="G59" s="3">
         <v>24900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33500</v>
       </c>
-      <c r="I59" s="3">
-        <v>22300</v>
-      </c>
       <c r="J59" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K59" s="3">
         <v>64600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>110500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>87800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>70000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>115400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>98700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>24400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>44500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>47800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>48000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>39200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>31900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>26600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>39600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,186 +5076,195 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3172100</v>
+        <v>3240500</v>
       </c>
       <c r="E61" s="3">
-        <v>2658200</v>
+        <v>3174700</v>
       </c>
       <c r="F61" s="3">
-        <v>3168800</v>
+        <v>2660500</v>
       </c>
       <c r="G61" s="3">
-        <v>2659000</v>
+        <v>3171400</v>
       </c>
       <c r="H61" s="3">
-        <v>2686200</v>
+        <v>2661300</v>
       </c>
       <c r="I61" s="3">
-        <v>2732200</v>
+        <v>2688400</v>
       </c>
       <c r="J61" s="3">
+        <v>2734400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2811100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2355100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1782100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1776100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1219700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1489800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1551800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1658100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1271000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1033900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1100400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>992000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1115900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1099000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1153800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1250000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>735500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>527800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>567000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>635100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>724100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>207600</v>
+        <v>201900</v>
       </c>
       <c r="E62" s="3">
-        <v>251600</v>
+        <v>207800</v>
       </c>
       <c r="F62" s="3">
-        <v>246400</v>
+        <v>251800</v>
       </c>
       <c r="G62" s="3">
-        <v>1007800</v>
+        <v>246600</v>
       </c>
       <c r="H62" s="3">
-        <v>1536600</v>
+        <v>1008700</v>
       </c>
       <c r="I62" s="3">
-        <v>1591800</v>
+        <v>1537900</v>
       </c>
       <c r="J62" s="3">
+        <v>1593100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1619800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1046100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>988400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1027500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>830800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>817100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>781200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>804200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>844200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>862100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>821800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>812400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>750400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>700500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>730600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>722300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>626900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>524200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>524000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>939800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>987300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>543100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71489200</v>
+        <v>72970000</v>
       </c>
       <c r="E66" s="3">
-        <v>72561400</v>
+        <v>71548600</v>
       </c>
       <c r="F66" s="3">
-        <v>77803700</v>
+        <v>72621600</v>
       </c>
       <c r="G66" s="3">
-        <v>77215200</v>
+        <v>77868300</v>
       </c>
       <c r="H66" s="3">
-        <v>75500700</v>
+        <v>77279300</v>
       </c>
       <c r="I66" s="3">
-        <v>72975500</v>
+        <v>75563300</v>
       </c>
       <c r="J66" s="3">
+        <v>73036000</v>
+      </c>
+      <c r="K66" s="3">
         <v>72966300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71679400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68205800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66875200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61592300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62415300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62533600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63688800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64220400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63253400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64183600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>63957400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62566500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>57689300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>55721300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>55974500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>57462600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>58203700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>59781700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>61630800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>65474900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>67188100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>694500</v>
+        <v>1389200</v>
       </c>
       <c r="E72" s="3">
-        <v>469100</v>
+        <v>695000</v>
       </c>
       <c r="F72" s="3">
-        <v>330100</v>
+        <v>469500</v>
       </c>
       <c r="G72" s="3">
-        <v>261600</v>
+        <v>330400</v>
       </c>
       <c r="H72" s="3">
-        <v>177900</v>
+        <v>261800</v>
       </c>
       <c r="I72" s="3">
-        <v>-6494000</v>
+        <v>178000</v>
       </c>
       <c r="J72" s="3">
+        <v>-6499400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6554000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5994400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5585500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3514300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2967300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2957600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3017500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3303500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3306800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3195300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3381800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3747100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3743800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3432100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3309800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3218100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1886200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2091700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2076900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2345800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2552600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-2753000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7564200</v>
+        <v>7745600</v>
       </c>
       <c r="E76" s="3">
-        <v>7341200</v>
+        <v>7570400</v>
       </c>
       <c r="F76" s="3">
-        <v>6769700</v>
+        <v>7347300</v>
       </c>
       <c r="G76" s="3">
-        <v>6700500</v>
+        <v>6775400</v>
       </c>
       <c r="H76" s="3">
-        <v>6654600</v>
+        <v>6706100</v>
       </c>
       <c r="I76" s="3">
-        <v>6603500</v>
+        <v>6660200</v>
       </c>
       <c r="J76" s="3">
+        <v>6608900</v>
+      </c>
+      <c r="K76" s="3">
         <v>6558900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7015400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6349600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8420800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8282200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8748800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8689000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9000900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9860700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9972200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9887100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9745200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9598400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9060800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9074900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9166500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10769000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10563500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10578300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10309400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10672800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>10472400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>207500</v>
+        <v>203900</v>
       </c>
       <c r="E81" s="3">
-        <v>120500</v>
+        <v>207700</v>
       </c>
       <c r="F81" s="3">
-        <v>67800</v>
+        <v>120600</v>
       </c>
       <c r="G81" s="3">
-        <v>100400</v>
+        <v>67900</v>
       </c>
       <c r="H81" s="3">
-        <v>124900</v>
+        <v>100500</v>
       </c>
       <c r="I81" s="3">
-        <v>133700</v>
+        <v>125000</v>
       </c>
       <c r="J81" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-442600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-184500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2461600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-298400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>105600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>69800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>45600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>71900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>39900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>54000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>23600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41200</v>
+        <v>43400</v>
       </c>
       <c r="E83" s="3">
-        <v>43000</v>
+        <v>41300</v>
       </c>
       <c r="F83" s="3">
+        <v>43100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>57900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>79900</v>
+      </c>
+      <c r="I83" s="3">
         <v>57800</v>
       </c>
-      <c r="G83" s="3">
-        <v>79800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>57700</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>111500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>131000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>58600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>76900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>35800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>27700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>114000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>28000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>28500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>32500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>92900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1429500</v>
+        <v>1305800</v>
       </c>
       <c r="E89" s="3">
-        <v>-3983100</v>
+        <v>-1430700</v>
       </c>
       <c r="F89" s="3">
-        <v>767500</v>
+        <v>-3986400</v>
       </c>
       <c r="G89" s="3">
-        <v>1577900</v>
+        <v>768100</v>
       </c>
       <c r="H89" s="3">
-        <v>1437800</v>
+        <v>1579300</v>
       </c>
       <c r="I89" s="3">
-        <v>-541700</v>
+        <v>1439000</v>
       </c>
       <c r="J89" s="3">
+        <v>-542200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-265000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1317000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2784100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1430500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2196000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-335300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3131500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>775700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1857400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1221400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>688700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>744800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1229300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1608400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>174300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-870300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-999700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1148700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-582700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-135700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1437500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-541900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-74500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-77400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-49200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-98600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-102100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-54100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-73800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-48800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-38100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-71400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-65900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-22800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>83900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-73200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-332100</v>
+        <v>-658000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1217000</v>
+        <v>-332400</v>
       </c>
       <c r="F94" s="3">
-        <v>-423200</v>
+        <v>-1218100</v>
       </c>
       <c r="G94" s="3">
-        <v>-891000</v>
+        <v>-423500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1490400</v>
+        <v>-891700</v>
       </c>
       <c r="I94" s="3">
-        <v>-422600</v>
+        <v>-1491700</v>
       </c>
       <c r="J94" s="3">
+        <v>-423000</v>
+      </c>
+      <c r="K94" s="3">
         <v>33500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-594400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-261800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>660800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-554400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-718500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-552900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-315200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-102500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>238300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-628400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1224300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-509700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>46200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>414000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1357200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1043800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>651700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>88900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>1075700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>560700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-116700</v>
+        <v>551700</v>
       </c>
       <c r="E100" s="3">
-        <v>-124600</v>
+        <v>-116800</v>
       </c>
       <c r="F100" s="3">
-        <v>487100</v>
+        <v>-124700</v>
       </c>
       <c r="G100" s="3">
+        <v>487500</v>
+      </c>
+      <c r="H100" s="3">
         <v>37800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-88900</v>
       </c>
-      <c r="I100" s="3">
-        <v>-75300</v>
-      </c>
       <c r="J100" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K100" s="3">
         <v>384500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1274800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>531200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>470400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-290700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>451300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>208400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-76200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>105700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-158000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-77000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-81900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-171400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>536300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>208900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-36100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-50000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-62800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>360300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>24700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-15900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-7400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-6200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-15300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1878700</v>
+        <v>1198900</v>
       </c>
       <c r="E102" s="3">
-        <v>-5324200</v>
+        <v>-1880200</v>
       </c>
       <c r="F102" s="3">
-        <v>831500</v>
+        <v>-5328600</v>
       </c>
       <c r="G102" s="3">
-        <v>722600</v>
+        <v>832200</v>
       </c>
       <c r="H102" s="3">
-        <v>-140700</v>
+        <v>723200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1039400</v>
+        <v>-140800</v>
       </c>
       <c r="J102" s="3">
+        <v>-1040300</v>
+      </c>
+      <c r="K102" s="3">
         <v>144800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2004400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3050600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1903700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2566700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-916200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2357000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>683900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1755000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1399400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1057300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-57600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-67400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1017800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>53200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>83400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>559000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-20100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-105900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-112200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-16900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1700</v>
       </c>
     </row>
